--- a/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="446">
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2def81c12d9d55998602ca3330968f008054bf144cb57455968dba34bac106f3.62d78dbc40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6a8b96336fc8b0d44bc495fed2f3447f</t>
+  </si>
+  <si>
+    <t>2025-05-02T12:14:46.970+02:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.eff4ea824427f41e2652ec40542c7f6ab8be63c5a4994df59144a1655a92bd1a.27ffbd6b7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -2706,17 +2715,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45">
@@ -2726,17 +2735,17 @@
     </row>
     <row r="5" spans="1:1" ht="210">
       <c r="A5" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90">
       <c r="A6" s="17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2744,17 +2753,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2775,7 +2784,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2787,12 +2796,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2803,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
@@ -2811,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
@@ -2819,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
@@ -2827,7 +2836,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
@@ -2835,7 +2844,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2843,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3846,10 +3855,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A169" sqref="A169:IV169"/>
+      <selection pane="bottomRight" activeCell="K197" sqref="K197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3892,7 +3901,7 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3918,7 +3927,7 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
@@ -4065,73 +4074,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4139,16 +4148,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4168,7 +4177,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4176,16 +4185,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4205,7 +4214,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4213,16 +4222,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -4242,7 +4251,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4250,16 +4259,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C13" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>313</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>310</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4279,7 +4288,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4287,16 +4296,16 @@
         <v>31</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -4316,7 +4325,7 @@
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4324,16 +4333,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -4353,7 +4362,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4361,16 +4370,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4390,7 +4399,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4398,16 +4407,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4427,7 +4436,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4435,16 +4444,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -4464,7 +4473,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4472,16 +4481,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4501,7 +4510,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4509,16 +4518,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4538,7 +4547,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4546,16 +4555,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -4575,7 +4584,7 @@
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4583,16 +4592,16 @@
         <v>39</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D22" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>325</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>322</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -4612,7 +4621,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4620,16 +4629,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -4649,7 +4658,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4657,16 +4666,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4686,7 +4695,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4694,16 +4703,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4723,7 +4732,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4731,16 +4740,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4760,7 +4769,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4768,16 +4777,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4795,11 +4804,11 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4807,16 +4816,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4834,11 +4843,11 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4846,16 +4855,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4873,11 +4882,11 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4885,16 +4894,16 @@
         <v>47</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -4912,11 +4921,11 @@
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4924,16 +4933,16 @@
         <v>48</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -4951,11 +4960,11 @@
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4963,16 +4972,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -4990,11 +4999,11 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5002,16 +5011,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5029,11 +5038,11 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5041,16 +5050,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5068,11 +5077,11 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5080,10 +5089,10 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>50</v>
@@ -5109,7 +5118,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5117,16 +5126,16 @@
         <v>55</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5146,7 +5155,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5154,16 +5163,16 @@
         <v>56</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5183,7 +5192,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5191,16 +5200,16 @@
         <v>57</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5220,7 +5229,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5228,16 +5237,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5257,7 +5266,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5265,16 +5274,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5294,7 +5303,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5302,16 +5311,16 @@
         <v>60</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5331,7 +5340,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5339,16 +5348,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5368,7 +5377,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5376,16 +5385,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5405,7 +5414,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5413,16 +5422,16 @@
         <v>64</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5442,7 +5451,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5450,16 +5459,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5479,7 +5488,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5487,16 +5496,16 @@
         <v>67</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5516,7 +5525,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5524,16 +5533,16 @@
         <v>68</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5553,7 +5562,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5561,16 +5570,16 @@
         <v>69</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5590,7 +5599,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5598,16 +5607,16 @@
         <v>70</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5627,7 +5636,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5635,16 +5644,16 @@
         <v>71</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5664,7 +5673,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5672,16 +5681,16 @@
         <v>72</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5701,7 +5710,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5709,16 +5718,16 @@
         <v>73</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5738,7 +5747,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5746,16 +5755,16 @@
         <v>74</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5775,7 +5784,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5783,16 +5792,16 @@
         <v>76</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -5812,7 +5821,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5820,16 +5829,16 @@
         <v>78</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5849,7 +5858,7 @@
       <c r="U55" s="39"/>
       <c r="V55" s="40"/>
       <c r="W55" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5857,16 +5866,16 @@
         <v>79</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -5886,7 +5895,7 @@
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5894,16 +5903,16 @@
         <v>80</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -5923,7 +5932,7 @@
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5931,16 +5940,16 @@
         <v>81</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -5960,7 +5969,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5968,16 +5977,16 @@
         <v>82</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -5997,7 +6006,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6005,16 +6014,16 @@
         <v>83</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -6034,7 +6043,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6042,16 +6051,16 @@
         <v>84</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -6071,7 +6080,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6079,16 +6088,16 @@
         <v>85</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -6108,7 +6117,7 @@
       <c r="U62" s="39"/>
       <c r="V62" s="40"/>
       <c r="W62" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6116,16 +6125,16 @@
         <v>86</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -6145,7 +6154,7 @@
       <c r="U63" s="39"/>
       <c r="V63" s="40"/>
       <c r="W63" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6153,16 +6162,16 @@
         <v>87</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -6182,7 +6191,7 @@
       <c r="U64" s="39"/>
       <c r="V64" s="40"/>
       <c r="W64" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6190,13 +6199,13 @@
         <v>88</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>60</v>
@@ -6219,7 +6228,7 @@
       <c r="U65" s="39"/>
       <c r="V65" s="40"/>
       <c r="W65" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6227,16 +6236,16 @@
         <v>89</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -6256,7 +6265,7 @@
       <c r="U66" s="39"/>
       <c r="V66" s="40"/>
       <c r="W66" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6264,16 +6273,16 @@
         <v>90</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -6293,7 +6302,7 @@
       <c r="U67" s="39"/>
       <c r="V67" s="40"/>
       <c r="W67" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6301,13 +6310,13 @@
         <v>91</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E68" s="43" t="s">
         <v>61</v>
@@ -6330,7 +6339,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6338,16 +6347,16 @@
         <v>92</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -6367,7 +6376,7 @@
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6375,13 +6384,13 @@
         <v>93</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E70" s="43" t="s">
         <v>62</v>
@@ -6404,7 +6413,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="40"/>
       <c r="W70" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6412,13 +6421,13 @@
         <v>95</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E71" s="43" t="s">
         <v>63</v>
@@ -6441,7 +6450,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="40"/>
       <c r="W71" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6449,13 +6458,13 @@
         <v>97</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E72" s="43" t="s">
         <v>64</v>
@@ -6478,7 +6487,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="40"/>
       <c r="W72" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6486,13 +6495,13 @@
         <v>98</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>65</v>
@@ -6515,7 +6524,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="40"/>
       <c r="W73" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6523,13 +6532,13 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>66</v>
@@ -6552,7 +6561,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="40"/>
       <c r="W74" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6560,16 +6569,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6589,7 +6598,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="40"/>
       <c r="W75" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6597,13 +6606,13 @@
         <v>101</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E76" s="43" t="s">
         <v>67</v>
@@ -6626,7 +6635,7 @@
       <c r="U76" s="39"/>
       <c r="V76" s="40"/>
       <c r="W76" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6634,13 +6643,13 @@
         <v>102</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E77" s="43" t="s">
         <v>68</v>
@@ -6663,7 +6672,7 @@
       <c r="U77" s="39"/>
       <c r="V77" s="40"/>
       <c r="W77" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6671,13 +6680,13 @@
         <v>103</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E78" s="43" t="s">
         <v>69</v>
@@ -6700,7 +6709,7 @@
       <c r="U78" s="39"/>
       <c r="V78" s="40"/>
       <c r="W78" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6708,16 +6717,16 @@
         <v>104</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6737,7 +6746,7 @@
       <c r="U79" s="39"/>
       <c r="V79" s="40"/>
       <c r="W79" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6745,16 +6754,16 @@
         <v>105</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -6774,7 +6783,7 @@
       <c r="U80" s="39"/>
       <c r="V80" s="40"/>
       <c r="W80" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6782,16 +6791,16 @@
         <v>106</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -6811,7 +6820,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="40"/>
       <c r="W81" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6819,16 +6828,16 @@
         <v>108</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -6848,7 +6857,7 @@
       <c r="U82" s="39"/>
       <c r="V82" s="40"/>
       <c r="W82" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6856,16 +6865,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -6885,7 +6894,7 @@
       <c r="U83" s="39"/>
       <c r="V83" s="40"/>
       <c r="W83" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6893,16 +6902,16 @@
         <v>111</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -6922,7 +6931,7 @@
       <c r="U84" s="39"/>
       <c r="V84" s="40"/>
       <c r="W84" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6930,16 +6939,16 @@
         <v>112</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -6959,7 +6968,7 @@
       <c r="U85" s="39"/>
       <c r="V85" s="40"/>
       <c r="W85" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6967,16 +6976,16 @@
         <v>113</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -6996,7 +7005,7 @@
       <c r="U86" s="39"/>
       <c r="V86" s="40"/>
       <c r="W86" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7004,16 +7013,16 @@
         <v>114</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7033,7 +7042,7 @@
       <c r="U87" s="39"/>
       <c r="V87" s="40"/>
       <c r="W87" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7041,16 +7050,16 @@
         <v>115</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7070,7 +7079,7 @@
       <c r="U88" s="39"/>
       <c r="V88" s="40"/>
       <c r="W88" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7078,16 +7087,16 @@
         <v>116</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7107,7 +7116,7 @@
       <c r="U89" s="39"/>
       <c r="V89" s="40"/>
       <c r="W89" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7115,16 +7124,16 @@
         <v>117</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7144,7 +7153,7 @@
       <c r="U90" s="39"/>
       <c r="V90" s="40"/>
       <c r="W90" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7152,16 +7161,16 @@
         <v>118</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -7181,7 +7190,7 @@
       <c r="U91" s="39"/>
       <c r="V91" s="40"/>
       <c r="W91" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7189,16 +7198,16 @@
         <v>119</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -7218,7 +7227,7 @@
       <c r="U92" s="39"/>
       <c r="V92" s="40"/>
       <c r="W92" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7226,16 +7235,16 @@
         <v>120</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -7255,7 +7264,7 @@
       <c r="U93" s="39"/>
       <c r="V93" s="40"/>
       <c r="W93" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7263,16 +7272,16 @@
         <v>121</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -7292,7 +7301,7 @@
       <c r="U94" s="39"/>
       <c r="V94" s="40"/>
       <c r="W94" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7300,16 +7309,16 @@
         <v>123</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7329,7 +7338,7 @@
       <c r="U95" s="39"/>
       <c r="V95" s="40"/>
       <c r="W95" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7337,16 +7346,16 @@
         <v>125</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -7366,7 +7375,7 @@
       <c r="U96" s="39"/>
       <c r="V96" s="40"/>
       <c r="W96" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7374,16 +7383,16 @@
         <v>126</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7403,7 +7412,7 @@
       <c r="U97" s="39"/>
       <c r="V97" s="40"/>
       <c r="W97" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7411,16 +7420,16 @@
         <v>127</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7440,7 +7449,7 @@
       <c r="U98" s="39"/>
       <c r="V98" s="40"/>
       <c r="W98" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7448,16 +7457,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7477,7 +7486,7 @@
       <c r="U99" s="39"/>
       <c r="V99" s="40"/>
       <c r="W99" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7485,16 +7494,16 @@
         <v>129</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -7514,7 +7523,7 @@
       <c r="U100" s="39"/>
       <c r="V100" s="40"/>
       <c r="W100" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7522,16 +7531,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7551,7 +7560,7 @@
       <c r="U101" s="39"/>
       <c r="V101" s="40"/>
       <c r="W101" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7559,16 +7568,16 @@
         <v>131</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7588,7 +7597,7 @@
       <c r="U102" s="39"/>
       <c r="V102" s="40"/>
       <c r="W102" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7596,16 +7605,16 @@
         <v>132</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7625,7 +7634,7 @@
       <c r="U103" s="39"/>
       <c r="V103" s="40"/>
       <c r="W103" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7633,16 +7642,16 @@
         <v>133</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -7662,7 +7671,7 @@
       <c r="U104" s="39"/>
       <c r="V104" s="40"/>
       <c r="W104" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7670,16 +7679,16 @@
         <v>134</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -7699,7 +7708,7 @@
       <c r="U105" s="39"/>
       <c r="V105" s="40"/>
       <c r="W105" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7707,16 +7716,16 @@
         <v>135</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7736,7 +7745,7 @@
       <c r="U106" s="39"/>
       <c r="V106" s="40"/>
       <c r="W106" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7744,16 +7753,16 @@
         <v>136</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -7773,7 +7782,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="40"/>
       <c r="W107" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7781,16 +7790,16 @@
         <v>137</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -7810,7 +7819,7 @@
       <c r="U108" s="39"/>
       <c r="V108" s="40"/>
       <c r="W108" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7818,16 +7827,16 @@
         <v>138</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -7847,7 +7856,7 @@
       <c r="U109" s="39"/>
       <c r="V109" s="40"/>
       <c r="W109" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7855,16 +7864,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -7884,7 +7893,7 @@
       <c r="U110" s="39"/>
       <c r="V110" s="40"/>
       <c r="W110" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7892,16 +7901,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -7921,7 +7930,7 @@
       <c r="U111" s="39"/>
       <c r="V111" s="40"/>
       <c r="W111" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7929,16 +7938,16 @@
         <v>141</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -7958,7 +7967,7 @@
       <c r="U112" s="39"/>
       <c r="V112" s="40"/>
       <c r="W112" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7966,16 +7975,16 @@
         <v>142</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -7995,7 +8004,7 @@
       <c r="U113" s="39"/>
       <c r="V113" s="40"/>
       <c r="W113" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8003,16 +8012,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8032,7 +8041,7 @@
       <c r="U114" s="39"/>
       <c r="V114" s="40"/>
       <c r="W114" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8040,16 +8049,16 @@
         <v>144</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8069,7 +8078,7 @@
       <c r="U115" s="39"/>
       <c r="V115" s="40"/>
       <c r="W115" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8077,16 +8086,16 @@
         <v>145</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -8106,7 +8115,7 @@
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
       <c r="W116" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8114,16 +8123,16 @@
         <v>146</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8143,7 +8152,7 @@
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
       <c r="W117" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8151,16 +8160,16 @@
         <v>152</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
@@ -8180,7 +8189,7 @@
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
       <c r="W118" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8188,16 +8197,16 @@
         <v>154</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
@@ -8217,7 +8226,7 @@
       <c r="U119" s="39"/>
       <c r="V119" s="40"/>
       <c r="W119" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8225,16 +8234,16 @@
         <v>155</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
@@ -8254,7 +8263,7 @@
       <c r="U120" s="39"/>
       <c r="V120" s="40"/>
       <c r="W120" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8262,16 +8271,16 @@
         <v>156</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -8291,7 +8300,7 @@
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
       <c r="W121" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8299,16 +8308,16 @@
         <v>158</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -8328,7 +8337,7 @@
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
       <c r="W122" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8336,16 +8345,16 @@
         <v>159</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -8365,7 +8374,7 @@
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
       <c r="W123" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8373,16 +8382,16 @@
         <v>160</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -8402,7 +8411,7 @@
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
       <c r="W124" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8410,16 +8419,16 @@
         <v>161</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
@@ -8439,7 +8448,7 @@
       <c r="U125" s="39"/>
       <c r="V125" s="40"/>
       <c r="W125" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8447,16 +8456,16 @@
         <v>162</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -8476,7 +8485,7 @@
       <c r="U126" s="39"/>
       <c r="V126" s="40"/>
       <c r="W126" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8484,16 +8493,16 @@
         <v>163</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
@@ -8513,7 +8522,7 @@
       <c r="U127" s="39"/>
       <c r="V127" s="40"/>
       <c r="W127" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8521,16 +8530,16 @@
         <v>164</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
@@ -8550,7 +8559,7 @@
       <c r="U128" s="39"/>
       <c r="V128" s="40"/>
       <c r="W128" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8558,16 +8567,16 @@
         <v>165</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
@@ -8587,7 +8596,7 @@
       <c r="U129" s="39"/>
       <c r="V129" s="40"/>
       <c r="W129" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8595,16 +8604,16 @@
         <v>166</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
@@ -8624,7 +8633,7 @@
       <c r="U130" s="39"/>
       <c r="V130" s="40"/>
       <c r="W130" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8632,16 +8641,16 @@
         <v>167</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
@@ -8661,7 +8670,7 @@
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
       <c r="W131" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8669,16 +8678,16 @@
         <v>168</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
@@ -8698,7 +8707,7 @@
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
       <c r="W132" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8706,16 +8715,16 @@
         <v>169</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
@@ -8735,7 +8744,7 @@
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
       <c r="W133" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8743,16 +8752,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -8772,7 +8781,7 @@
       <c r="U134" s="39"/>
       <c r="V134" s="40"/>
       <c r="W134" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8780,16 +8789,16 @@
         <v>177</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -8809,7 +8818,7 @@
       <c r="U135" s="39"/>
       <c r="V135" s="40"/>
       <c r="W135" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8817,16 +8826,16 @@
         <v>178</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -8846,7 +8855,7 @@
       <c r="U136" s="39"/>
       <c r="V136" s="40"/>
       <c r="W136" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8854,16 +8863,16 @@
         <v>179</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -8883,7 +8892,7 @@
       <c r="U137" s="39"/>
       <c r="V137" s="40"/>
       <c r="W137" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8891,16 +8900,16 @@
         <v>180</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -8920,7 +8929,7 @@
       <c r="U138" s="39"/>
       <c r="V138" s="40"/>
       <c r="W138" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8928,16 +8937,16 @@
         <v>181</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -8957,7 +8966,7 @@
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
       <c r="W139" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8965,16 +8974,16 @@
         <v>182</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -8994,7 +9003,7 @@
       <c r="U140" s="39"/>
       <c r="V140" s="40"/>
       <c r="W140" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9002,16 +9011,16 @@
         <v>183</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -9031,7 +9040,7 @@
       <c r="U141" s="39"/>
       <c r="V141" s="40"/>
       <c r="W141" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9039,16 +9048,16 @@
         <v>184</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -9068,7 +9077,7 @@
       <c r="U142" s="39"/>
       <c r="V142" s="40"/>
       <c r="W142" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9076,16 +9085,16 @@
         <v>185</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -9105,7 +9114,7 @@
       <c r="U143" s="39"/>
       <c r="V143" s="40"/>
       <c r="W143" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9113,16 +9122,16 @@
         <v>186</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -9142,7 +9151,7 @@
       <c r="U144" s="39"/>
       <c r="V144" s="40"/>
       <c r="W144" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9150,16 +9159,16 @@
         <v>187</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -9179,7 +9188,7 @@
       <c r="U145" s="39"/>
       <c r="V145" s="40"/>
       <c r="W145" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9187,16 +9196,16 @@
         <v>188</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9216,7 +9225,7 @@
       <c r="U146" s="39"/>
       <c r="V146" s="40"/>
       <c r="W146" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9224,16 +9233,16 @@
         <v>189</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9253,7 +9262,7 @@
       <c r="U147" s="39"/>
       <c r="V147" s="40"/>
       <c r="W147" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9261,16 +9270,16 @@
         <v>190</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9290,7 +9299,7 @@
       <c r="U148" s="39"/>
       <c r="V148" s="40"/>
       <c r="W148" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9298,16 +9307,16 @@
         <v>191</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9327,7 +9336,7 @@
       <c r="U149" s="39"/>
       <c r="V149" s="40"/>
       <c r="W149" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9335,16 +9344,16 @@
         <v>376</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9364,7 +9373,7 @@
       <c r="U150" s="39"/>
       <c r="V150" s="40"/>
       <c r="W150" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9372,16 +9381,16 @@
         <v>417</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -9401,7 +9410,7 @@
       <c r="U151" s="39"/>
       <c r="V151" s="40"/>
       <c r="W151" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9409,16 +9418,16 @@
         <v>418</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -9438,7 +9447,7 @@
       <c r="U152" s="39"/>
       <c r="V152" s="40"/>
       <c r="W152" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9446,16 +9455,16 @@
         <v>419</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9475,7 +9484,7 @@
       <c r="U153" s="39"/>
       <c r="V153" s="40"/>
       <c r="W153" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9483,16 +9492,16 @@
         <v>423</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9512,7 +9521,7 @@
       <c r="U154" s="39"/>
       <c r="V154" s="40"/>
       <c r="W154" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9520,16 +9529,16 @@
         <v>424</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9549,7 +9558,7 @@
       <c r="U155" s="39"/>
       <c r="V155" s="40"/>
       <c r="W155" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9557,16 +9566,16 @@
         <v>425</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9586,7 +9595,7 @@
       <c r="U156" s="39"/>
       <c r="V156" s="40"/>
       <c r="W156" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9594,16 +9603,16 @@
         <v>432</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9623,7 +9632,7 @@
       <c r="U157" s="39"/>
       <c r="V157" s="40"/>
       <c r="W157" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9631,16 +9640,16 @@
         <v>433</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -9660,7 +9669,7 @@
       <c r="U158" s="39"/>
       <c r="V158" s="40"/>
       <c r="W158" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9668,16 +9677,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -9697,7 +9706,7 @@
       <c r="U159" s="39"/>
       <c r="V159" s="40"/>
       <c r="W159" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9705,16 +9714,16 @@
         <v>435</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -9734,7 +9743,7 @@
       <c r="U160" s="39"/>
       <c r="V160" s="40"/>
       <c r="W160" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9742,16 +9751,16 @@
         <v>437</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -9771,7 +9780,7 @@
       <c r="U161" s="39"/>
       <c r="V161" s="40"/>
       <c r="W161" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9779,16 +9788,16 @@
         <v>438</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -9808,7 +9817,7 @@
       <c r="U162" s="39"/>
       <c r="V162" s="40"/>
       <c r="W162" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9816,16 +9825,16 @@
         <v>440</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -9845,7 +9854,7 @@
       <c r="U163" s="39"/>
       <c r="V163" s="40"/>
       <c r="W163" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9853,16 +9862,16 @@
         <v>441</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -9882,7 +9891,7 @@
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9890,16 +9899,16 @@
         <v>442</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -9919,7 +9928,7 @@
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9927,16 +9936,16 @@
         <v>443</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -9956,7 +9965,7 @@
       <c r="U166" s="39"/>
       <c r="V166" s="40"/>
       <c r="W166" s="38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9964,16 +9973,16 @@
         <v>444</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -9993,7 +10002,7 @@
       <c r="U167" s="39"/>
       <c r="V167" s="40"/>
       <c r="W167" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10001,16 +10010,16 @@
         <v>445</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10030,7 +10039,7 @@
       <c r="U168" s="39"/>
       <c r="V168" s="40"/>
       <c r="W168" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10038,10 +10047,10 @@
         <v>448</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D169" s="35" t="s">
         <v>13</v>
@@ -10062,7 +10071,7 @@
         <v>72</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
@@ -10077,7 +10086,7 @@
       <c r="U169" s="39"/>
       <c r="V169" s="40"/>
       <c r="W169" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10085,10 +10094,10 @@
         <v>449</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D170" s="35" t="s">
         <v>14</v>
@@ -10096,11 +10105,21 @@
       <c r="E170" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F170" s="37"/>
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
-      <c r="I170" s="42"/>
-      <c r="J170" s="38"/>
+      <c r="F170" s="37">
+        <v>45779</v>
+      </c>
+      <c r="G170" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H170" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I170" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J170" s="38" t="s">
+        <v>334</v>
+      </c>
       <c r="K170" s="38"/>
       <c r="L170" s="38"/>
       <c r="M170" s="38"/>
@@ -10114,7 +10133,7 @@
       <c r="U170" s="39"/>
       <c r="V170" s="40"/>
       <c r="W170" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10122,16 +10141,16 @@
         <v>450</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10151,7 +10170,7 @@
       <c r="U171" s="39"/>
       <c r="V171" s="40"/>
       <c r="W171" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10159,13 +10178,13 @@
         <v>451</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E172" s="43" t="s">
         <v>0</v>
@@ -10188,7 +10207,7 @@
       <c r="U172" s="39"/>
       <c r="V172" s="40"/>
       <c r="W172" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10196,16 +10215,16 @@
         <v>452</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10225,7 +10244,7 @@
       <c r="U173" s="39"/>
       <c r="V173" s="40"/>
       <c r="W173" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10233,10 +10252,10 @@
         <v>454</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D174" s="35" t="s">
         <v>9</v>
@@ -10262,7 +10281,7 @@
       <c r="U174" s="39"/>
       <c r="V174" s="40"/>
       <c r="W174" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10270,10 +10289,10 @@
         <v>455</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D175" s="35" t="s">
         <v>10</v>
@@ -10299,7 +10318,7 @@
       <c r="U175" s="39"/>
       <c r="V175" s="40"/>
       <c r="W175" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10307,10 +10326,10 @@
         <v>456</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D176" s="35" t="s">
         <v>5</v>
@@ -10336,7 +10355,7 @@
       <c r="U176" s="39"/>
       <c r="V176" s="40"/>
       <c r="W176" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10344,10 +10363,10 @@
         <v>457</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D177" s="35" t="s">
         <v>7</v>
@@ -10373,7 +10392,7 @@
       <c r="U177" s="39"/>
       <c r="V177" s="40"/>
       <c r="W177" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10381,10 +10400,10 @@
         <v>458</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D178" s="35" t="s">
         <v>1</v>
@@ -10410,7 +10429,7 @@
       <c r="U178" s="39"/>
       <c r="V178" s="40"/>
       <c r="W178" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10418,10 +10437,10 @@
         <v>459</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D179" s="35" t="s">
         <v>2</v>
@@ -10447,7 +10466,7 @@
       <c r="U179" s="39"/>
       <c r="V179" s="40"/>
       <c r="W179" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10455,16 +10474,16 @@
         <v>460</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -10484,7 +10503,7 @@
       <c r="U180" s="39"/>
       <c r="V180" s="40"/>
       <c r="W180" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10492,10 +10511,10 @@
         <v>461</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D181" s="35" t="s">
         <v>18</v>
@@ -10521,7 +10540,7 @@
       <c r="U181" s="35"/>
       <c r="V181" s="35"/>
       <c r="W181" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10529,10 +10548,10 @@
         <v>462</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D182" s="35" t="s">
         <v>21</v>
@@ -10558,7 +10577,7 @@
       <c r="U182" s="35"/>
       <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10566,10 +10585,10 @@
         <v>463</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D183" s="35" t="s">
         <v>23</v>
@@ -10595,7 +10614,7 @@
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
       <c r="W183" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10603,10 +10622,10 @@
         <v>464</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D184" s="35" t="s">
         <v>25</v>
@@ -10632,7 +10651,7 @@
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
       <c r="W184" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10640,10 +10659,10 @@
         <v>465</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D185" s="35" t="s">
         <v>27</v>
@@ -10669,7 +10688,7 @@
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
       <c r="W185" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10677,10 +10696,10 @@
         <v>466</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D186" s="35" t="s">
         <v>37</v>
@@ -10706,7 +10725,7 @@
       <c r="U186" s="35"/>
       <c r="V186" s="35"/>
       <c r="W186" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10714,10 +10733,10 @@
         <v>467</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D187" s="35" t="s">
         <v>29</v>
@@ -10743,7 +10762,7 @@
       <c r="U187" s="35"/>
       <c r="V187" s="35"/>
       <c r="W187" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10751,10 +10770,10 @@
         <v>468</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D188" s="35" t="s">
         <v>31</v>
@@ -10780,7 +10799,7 @@
       <c r="U188" s="35"/>
       <c r="V188" s="35"/>
       <c r="W188" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10788,10 +10807,10 @@
         <v>469</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D189" s="35" t="s">
         <v>33</v>
@@ -10817,7 +10836,7 @@
       <c r="U189" s="35"/>
       <c r="V189" s="35"/>
       <c r="W189" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10825,10 +10844,10 @@
         <v>470</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D190" s="35" t="s">
         <v>35</v>
@@ -10854,7 +10873,7 @@
       <c r="U190" s="35"/>
       <c r="V190" s="35"/>
       <c r="W190" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10862,10 +10881,10 @@
         <v>471</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D191" s="35" t="s">
         <v>48</v>
@@ -10891,7 +10910,7 @@
       <c r="U191" s="39"/>
       <c r="V191" s="40"/>
       <c r="W191" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10899,10 +10918,10 @@
         <v>472</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D192" s="35" t="s">
         <v>54</v>
@@ -10928,7 +10947,7 @@
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="193" spans="6:23" ht="14.25" customHeight="1">
@@ -15043,42 +15062,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -15109,19 +15128,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>52</v>
@@ -15129,10 +15148,10 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>19</v>
@@ -15143,13 +15162,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>39</v>
@@ -15157,10 +15176,10 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>56</v>
@@ -15171,13 +15190,13 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>41</v>
@@ -15185,13 +15204,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>42</v>
@@ -15199,13 +15218,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>43</v>
@@ -15213,13 +15232,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>44</v>
@@ -15227,13 +15246,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>45</v>
@@ -15241,24 +15260,24 @@
     </row>
     <row r="10" spans="1:7" ht="45">
       <c r="A10" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>20</v>
@@ -16243,26 +16262,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -49,49 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="446">
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="456">
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
@@ -343,40 +301,31 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+    <t>Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
+  </si>
+  <si>
+    <t>c ampo obbligatorio</t>
+  </si>
+  <si>
+    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
+  </si>
+  <si>
+    <t>Il campo è valorizzabile tramite selezione da menù a tendina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il campo è valorizzabile tramite selezione da menù a tendina </t>
+  </si>
+  <si>
+    <t>altro (specificare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo inserisce in autonomia nel cda   &lt;signatureCode code="S" /&gt;  il valore S  se firmato digitalmente.  Se il medico non firma digitalmente  non verrà creato nessun cda. </t>
+  </si>
+  <si>
+    <t>L'applicativo inserisce di default il valore N  ed è possibile cambiarlo dal form selezionando  N ,  V ,  R</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -614,6 +563,48 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
@@ -765,6 +756,42 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
@@ -779,6 +806,81 @@
     PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
    INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
     GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT15_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT17_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT18_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT21_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
@@ -1635,78 +1737,6 @@
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT11_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT13_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT14_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT15_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT17_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT18_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT19_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT21_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT22_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT23_KO</t>
   </si>
 </sst>
 </file>
@@ -2704,7 +2734,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2715,37 +2745,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="2" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="210">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90">
       <c r="A6" s="17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2753,17 +2783,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2796,12 +2826,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2812,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
@@ -2820,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
@@ -2828,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
@@ -2836,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
@@ -2844,7 +2874,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2852,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3855,10 +3885,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K197" sqref="K197"/>
+      <selection pane="bottomRight" activeCell="L188" sqref="L188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3870,7 +3900,9 @@
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="18" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="60.28515625" customWidth="1"/>
+    <col min="12" max="12" width="46.28515625" customWidth="1"/>
+    <col min="13" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="27.140625" customWidth="1"/>
     <col min="20" max="20" width="33.140625" customWidth="1"/>
     <col min="21" max="21" width="36.42578125" customWidth="1"/>
@@ -3901,7 +3933,7 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3927,11 +3959,11 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="6"/>
@@ -3957,7 +3989,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="56" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="4"/>
@@ -3984,7 +4016,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D5" s="48"/>
       <c r="F5" s="6"/>
@@ -4074,73 +4106,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="M9" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>255</v>
-      </c>
       <c r="S9" s="20" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4148,16 +4180,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4177,7 +4209,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4185,16 +4217,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4214,7 +4246,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4222,16 +4254,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -4251,7 +4283,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4259,16 +4291,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4288,7 +4320,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4296,16 +4328,16 @@
         <v>31</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -4325,7 +4357,7 @@
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4333,16 +4365,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -4362,7 +4394,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4370,16 +4402,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4399,7 +4431,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4407,16 +4439,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4436,7 +4468,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4444,16 +4476,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -4473,7 +4505,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4481,16 +4513,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4510,7 +4542,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4518,16 +4550,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4547,7 +4579,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4555,16 +4587,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -4584,7 +4616,7 @@
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4592,16 +4624,16 @@
         <v>39</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -4621,7 +4653,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4629,16 +4661,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -4658,7 +4690,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4666,16 +4698,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4695,7 +4727,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4703,16 +4735,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4732,7 +4764,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4740,16 +4772,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4769,7 +4801,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4777,16 +4809,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4804,11 +4836,11 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4816,16 +4848,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4843,11 +4875,11 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4855,16 +4887,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4882,11 +4914,11 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4894,16 +4926,16 @@
         <v>47</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -4921,11 +4953,11 @@
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4933,16 +4965,16 @@
         <v>48</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -4960,11 +4992,11 @@
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4972,16 +5004,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -4999,11 +5031,11 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5011,16 +5043,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5038,11 +5070,11 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5050,16 +5082,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5077,11 +5109,11 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5089,16 +5121,16 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -5118,7 +5150,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5126,16 +5158,16 @@
         <v>55</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5155,7 +5187,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5163,16 +5195,16 @@
         <v>56</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5192,7 +5224,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5200,16 +5232,16 @@
         <v>57</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5229,7 +5261,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5237,16 +5269,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5266,7 +5298,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5274,16 +5306,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5303,7 +5335,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5311,16 +5343,16 @@
         <v>60</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5340,7 +5372,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5348,16 +5380,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5377,7 +5409,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5385,16 +5417,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5414,7 +5446,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5422,13 +5454,13 @@
         <v>64</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="E44" s="43" t="s">
         <v>168</v>
@@ -5451,7 +5483,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5459,13 +5491,13 @@
         <v>66</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="E45" s="43" t="s">
         <v>169</v>
@@ -5488,7 +5520,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5496,13 +5528,13 @@
         <v>67</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="E46" s="43" t="s">
         <v>170</v>
@@ -5525,7 +5557,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5533,13 +5565,13 @@
         <v>68</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="E47" s="43" t="s">
         <v>171</v>
@@ -5562,7 +5594,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5570,13 +5602,13 @@
         <v>69</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>172</v>
@@ -5599,7 +5631,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5607,13 +5639,13 @@
         <v>70</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>173</v>
@@ -5636,7 +5668,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5644,13 +5676,13 @@
         <v>71</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="E50" s="43" t="s">
         <v>174</v>
@@ -5673,7 +5705,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5681,13 +5713,13 @@
         <v>72</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="E51" s="43" t="s">
         <v>175</v>
@@ -5710,7 +5742,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5718,13 +5750,13 @@
         <v>73</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="E52" s="43" t="s">
         <v>176</v>
@@ -5747,7 +5779,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5755,13 +5787,13 @@
         <v>74</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="E53" s="43" t="s">
         <v>177</v>
@@ -5784,7 +5816,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5792,13 +5824,13 @@
         <v>76</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="E54" s="43" t="s">
         <v>178</v>
@@ -5821,7 +5853,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5829,16 +5861,16 @@
         <v>78</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5858,7 +5890,7 @@
       <c r="U55" s="39"/>
       <c r="V55" s="40"/>
       <c r="W55" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5866,13 +5898,13 @@
         <v>79</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="E56" s="43" t="s">
         <v>179</v>
@@ -5895,7 +5927,7 @@
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5903,13 +5935,13 @@
         <v>80</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="E57" s="43" t="s">
         <v>180</v>
@@ -5932,7 +5964,7 @@
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5940,13 +5972,13 @@
         <v>81</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="E58" s="43" t="s">
         <v>181</v>
@@ -5969,7 +6001,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5977,13 +6009,13 @@
         <v>82</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="E59" s="43" t="s">
         <v>182</v>
@@ -6006,7 +6038,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6014,16 +6046,16 @@
         <v>83</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -6043,7 +6075,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6051,16 +6083,16 @@
         <v>84</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -6080,7 +6112,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6088,13 +6120,13 @@
         <v>85</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="E62" s="43" t="s">
         <v>183</v>
@@ -6117,7 +6149,7 @@
       <c r="U62" s="39"/>
       <c r="V62" s="40"/>
       <c r="W62" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6125,13 +6157,13 @@
         <v>86</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="E63" s="43" t="s">
         <v>184</v>
@@ -6154,7 +6186,7 @@
       <c r="U63" s="39"/>
       <c r="V63" s="40"/>
       <c r="W63" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6162,13 +6194,13 @@
         <v>87</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="E64" s="43" t="s">
         <v>185</v>
@@ -6191,7 +6223,7 @@
       <c r="U64" s="39"/>
       <c r="V64" s="40"/>
       <c r="W64" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6199,16 +6231,16 @@
         <v>88</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
@@ -6228,7 +6260,7 @@
       <c r="U65" s="39"/>
       <c r="V65" s="40"/>
       <c r="W65" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6236,16 +6268,16 @@
         <v>89</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -6265,7 +6297,7 @@
       <c r="U66" s="39"/>
       <c r="V66" s="40"/>
       <c r="W66" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6273,16 +6305,16 @@
         <v>90</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -6302,7 +6334,7 @@
       <c r="U67" s="39"/>
       <c r="V67" s="40"/>
       <c r="W67" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6310,16 +6342,16 @@
         <v>91</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -6339,7 +6371,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6347,16 +6379,16 @@
         <v>92</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -6376,7 +6408,7 @@
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6384,16 +6416,16 @@
         <v>93</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -6413,7 +6445,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="40"/>
       <c r="W70" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6421,16 +6453,16 @@
         <v>95</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -6450,7 +6482,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="40"/>
       <c r="W71" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6458,16 +6490,16 @@
         <v>97</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -6487,7 +6519,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="40"/>
       <c r="W72" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6495,16 +6527,16 @@
         <v>98</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -6524,7 +6556,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="40"/>
       <c r="W73" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6532,16 +6564,16 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -6561,7 +6593,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="40"/>
       <c r="W74" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6569,16 +6601,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6598,7 +6630,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="40"/>
       <c r="W75" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6606,16 +6638,16 @@
         <v>101</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -6635,7 +6667,7 @@
       <c r="U76" s="39"/>
       <c r="V76" s="40"/>
       <c r="W76" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6643,16 +6675,16 @@
         <v>102</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -6672,7 +6704,7 @@
       <c r="U77" s="39"/>
       <c r="V77" s="40"/>
       <c r="W77" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6680,16 +6712,16 @@
         <v>103</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -6709,7 +6741,7 @@
       <c r="U78" s="39"/>
       <c r="V78" s="40"/>
       <c r="W78" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6717,16 +6749,16 @@
         <v>104</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6746,7 +6778,7 @@
       <c r="U79" s="39"/>
       <c r="V79" s="40"/>
       <c r="W79" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6754,13 +6786,13 @@
         <v>105</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>186</v>
@@ -6783,7 +6815,7 @@
       <c r="U80" s="39"/>
       <c r="V80" s="40"/>
       <c r="W80" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6791,13 +6823,13 @@
         <v>106</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="E81" s="43" t="s">
         <v>187</v>
@@ -6820,7 +6852,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="40"/>
       <c r="W81" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6828,13 +6860,13 @@
         <v>108</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="E82" s="43" t="s">
         <v>188</v>
@@ -6857,7 +6889,7 @@
       <c r="U82" s="39"/>
       <c r="V82" s="40"/>
       <c r="W82" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6865,16 +6897,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -6894,7 +6926,7 @@
       <c r="U83" s="39"/>
       <c r="V83" s="40"/>
       <c r="W83" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6902,13 +6934,13 @@
         <v>111</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="E84" s="43" t="s">
         <v>189</v>
@@ -6931,7 +6963,7 @@
       <c r="U84" s="39"/>
       <c r="V84" s="40"/>
       <c r="W84" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6939,13 +6971,13 @@
         <v>112</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="E85" s="43" t="s">
         <v>190</v>
@@ -6968,7 +7000,7 @@
       <c r="U85" s="39"/>
       <c r="V85" s="40"/>
       <c r="W85" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6976,13 +7008,13 @@
         <v>113</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="E86" s="43" t="s">
         <v>191</v>
@@ -7005,7 +7037,7 @@
       <c r="U86" s="39"/>
       <c r="V86" s="40"/>
       <c r="W86" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7013,13 +7045,13 @@
         <v>114</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="E87" s="43" t="s">
         <v>192</v>
@@ -7042,7 +7074,7 @@
       <c r="U87" s="39"/>
       <c r="V87" s="40"/>
       <c r="W87" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7050,13 +7082,13 @@
         <v>115</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="E88" s="43" t="s">
         <v>193</v>
@@ -7079,7 +7111,7 @@
       <c r="U88" s="39"/>
       <c r="V88" s="40"/>
       <c r="W88" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7087,13 +7119,13 @@
         <v>116</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="E89" s="43" t="s">
         <v>194</v>
@@ -7116,7 +7148,7 @@
       <c r="U89" s="39"/>
       <c r="V89" s="40"/>
       <c r="W89" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7124,16 +7156,16 @@
         <v>117</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7153,7 +7185,7 @@
       <c r="U90" s="39"/>
       <c r="V90" s="40"/>
       <c r="W90" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7161,16 +7193,16 @@
         <v>118</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -7190,7 +7222,7 @@
       <c r="U91" s="39"/>
       <c r="V91" s="40"/>
       <c r="W91" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7198,16 +7230,16 @@
         <v>119</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -7227,7 +7259,7 @@
       <c r="U92" s="39"/>
       <c r="V92" s="40"/>
       <c r="W92" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7235,16 +7267,16 @@
         <v>120</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -7264,7 +7296,7 @@
       <c r="U93" s="39"/>
       <c r="V93" s="40"/>
       <c r="W93" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7272,16 +7304,16 @@
         <v>121</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -7301,7 +7333,7 @@
       <c r="U94" s="39"/>
       <c r="V94" s="40"/>
       <c r="W94" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7309,16 +7341,16 @@
         <v>123</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7338,7 +7370,7 @@
       <c r="U95" s="39"/>
       <c r="V95" s="40"/>
       <c r="W95" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7346,16 +7378,16 @@
         <v>125</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -7375,7 +7407,7 @@
       <c r="U96" s="39"/>
       <c r="V96" s="40"/>
       <c r="W96" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7383,16 +7415,16 @@
         <v>126</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7412,7 +7444,7 @@
       <c r="U97" s="39"/>
       <c r="V97" s="40"/>
       <c r="W97" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7420,16 +7452,16 @@
         <v>127</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7449,7 +7481,7 @@
       <c r="U98" s="39"/>
       <c r="V98" s="40"/>
       <c r="W98" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7457,16 +7489,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>425</v>
+        <v>205</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7486,7 +7518,7 @@
       <c r="U99" s="39"/>
       <c r="V99" s="40"/>
       <c r="W99" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7494,16 +7526,16 @@
         <v>129</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>426</v>
+        <v>206</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -7523,7 +7555,7 @@
       <c r="U100" s="39"/>
       <c r="V100" s="40"/>
       <c r="W100" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7531,16 +7563,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>427</v>
+        <v>207</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>428</v>
+        <v>208</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7560,7 +7592,7 @@
       <c r="U101" s="39"/>
       <c r="V101" s="40"/>
       <c r="W101" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7568,16 +7600,16 @@
         <v>131</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>429</v>
+        <v>209</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7597,7 +7629,7 @@
       <c r="U102" s="39"/>
       <c r="V102" s="40"/>
       <c r="W102" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7605,16 +7637,16 @@
         <v>132</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>431</v>
+        <v>211</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>432</v>
+        <v>212</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7634,7 +7666,7 @@
       <c r="U103" s="39"/>
       <c r="V103" s="40"/>
       <c r="W103" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7642,13 +7674,13 @@
         <v>133</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>433</v>
+        <v>213</v>
       </c>
       <c r="E104" s="43" t="s">
         <v>165</v>
@@ -7671,7 +7703,7 @@
       <c r="U104" s="39"/>
       <c r="V104" s="40"/>
       <c r="W104" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7679,16 +7711,16 @@
         <v>134</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>434</v>
+        <v>214</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>435</v>
+        <v>215</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -7708,7 +7740,7 @@
       <c r="U105" s="39"/>
       <c r="V105" s="40"/>
       <c r="W105" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7716,16 +7748,16 @@
         <v>135</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>436</v>
+        <v>216</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>437</v>
+        <v>217</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7745,7 +7777,7 @@
       <c r="U106" s="39"/>
       <c r="V106" s="40"/>
       <c r="W106" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7753,16 +7785,16 @@
         <v>136</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>438</v>
+        <v>218</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>439</v>
+        <v>219</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -7782,7 +7814,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="40"/>
       <c r="W107" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7790,13 +7822,13 @@
         <v>137</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="E108" s="43" t="s">
         <v>164</v>
@@ -7819,7 +7851,7 @@
       <c r="U108" s="39"/>
       <c r="V108" s="40"/>
       <c r="W108" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7827,16 +7859,16 @@
         <v>138</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>441</v>
+        <v>221</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>442</v>
+        <v>222</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -7856,7 +7888,7 @@
       <c r="U109" s="39"/>
       <c r="V109" s="40"/>
       <c r="W109" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7864,16 +7896,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>443</v>
+        <v>223</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>444</v>
+        <v>224</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -7893,7 +7925,7 @@
       <c r="U110" s="39"/>
       <c r="V110" s="40"/>
       <c r="W110" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7901,16 +7933,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>445</v>
+        <v>225</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -7930,7 +7962,7 @@
       <c r="U111" s="39"/>
       <c r="V111" s="40"/>
       <c r="W111" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7938,13 +7970,13 @@
         <v>141</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E112" s="43" t="s">
         <v>162</v>
@@ -7967,7 +7999,7 @@
       <c r="U112" s="39"/>
       <c r="V112" s="40"/>
       <c r="W112" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7975,16 +8007,16 @@
         <v>142</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8004,7 +8036,7 @@
       <c r="U113" s="39"/>
       <c r="V113" s="40"/>
       <c r="W113" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8012,16 +8044,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8041,7 +8073,7 @@
       <c r="U114" s="39"/>
       <c r="V114" s="40"/>
       <c r="W114" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8049,16 +8081,16 @@
         <v>144</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8078,7 +8110,7 @@
       <c r="U115" s="39"/>
       <c r="V115" s="40"/>
       <c r="W115" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8086,16 +8118,16 @@
         <v>145</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -8115,7 +8147,7 @@
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
       <c r="W116" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8123,16 +8155,16 @@
         <v>146</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8152,7 +8184,7 @@
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
       <c r="W117" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8160,23 +8192,27 @@
         <v>152</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="42"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="38"/>
+      <c r="J118" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K118" s="38" t="s">
+        <v>226</v>
+      </c>
       <c r="L118" s="38"/>
       <c r="M118" s="38"/>
       <c r="N118" s="38"/>
@@ -8189,7 +8225,7 @@
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
       <c r="W118" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8197,23 +8233,27 @@
         <v>154</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="42"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="38"/>
+      <c r="J119" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K119" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="L119" s="38"/>
       <c r="M119" s="38"/>
       <c r="N119" s="38"/>
@@ -8226,7 +8266,7 @@
       <c r="U119" s="39"/>
       <c r="V119" s="40"/>
       <c r="W119" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8234,23 +8274,27 @@
         <v>155</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="42"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
+      <c r="J120" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K120" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="L120" s="38"/>
       <c r="M120" s="38"/>
       <c r="N120" s="38"/>
@@ -8263,7 +8307,7 @@
       <c r="U120" s="39"/>
       <c r="V120" s="40"/>
       <c r="W120" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8271,23 +8315,27 @@
         <v>156</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="42"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="38"/>
+      <c r="J121" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K121" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="L121" s="38"/>
       <c r="M121" s="38"/>
       <c r="N121" s="38"/>
@@ -8300,7 +8348,7 @@
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
       <c r="W121" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8308,23 +8356,27 @@
         <v>158</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="42"/>
-      <c r="J122" s="38"/>
-      <c r="K122" s="38"/>
+      <c r="J122" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K122" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="L122" s="38"/>
       <c r="M122" s="38"/>
       <c r="N122" s="38"/>
@@ -8337,7 +8389,7 @@
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
       <c r="W122" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8345,23 +8397,27 @@
         <v>159</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
-      <c r="J123" s="38"/>
-      <c r="K123" s="38"/>
+      <c r="J123" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K123" s="38" t="s">
+        <v>73</v>
+      </c>
       <c r="L123" s="38"/>
       <c r="M123" s="38"/>
       <c r="N123" s="38"/>
@@ -8374,7 +8430,7 @@
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
       <c r="W123" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8382,23 +8438,27 @@
         <v>160</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="42"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="38"/>
+      <c r="J124" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K124" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="L124" s="38"/>
       <c r="M124" s="38"/>
       <c r="N124" s="38"/>
@@ -8411,7 +8471,7 @@
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
       <c r="W124" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8419,23 +8479,27 @@
         <v>161</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
-      <c r="J125" s="38"/>
-      <c r="K125" s="38"/>
+      <c r="J125" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K125" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="L125" s="38"/>
       <c r="M125" s="38"/>
       <c r="N125" s="38"/>
@@ -8448,7 +8512,7 @@
       <c r="U125" s="39"/>
       <c r="V125" s="40"/>
       <c r="W125" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8456,23 +8520,27 @@
         <v>162</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
-      <c r="J126" s="38"/>
-      <c r="K126" s="38"/>
+      <c r="J126" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K126" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="L126" s="38"/>
       <c r="M126" s="38"/>
       <c r="N126" s="38"/>
@@ -8485,7 +8553,7 @@
       <c r="U126" s="39"/>
       <c r="V126" s="40"/>
       <c r="W126" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8493,23 +8561,27 @@
         <v>163</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
-      <c r="J127" s="38"/>
-      <c r="K127" s="38"/>
+      <c r="J127" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K127" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="L127" s="38"/>
       <c r="M127" s="38"/>
       <c r="N127" s="38"/>
@@ -8522,7 +8594,7 @@
       <c r="U127" s="39"/>
       <c r="V127" s="40"/>
       <c r="W127" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8530,13 +8602,13 @@
         <v>164</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>157</v>
@@ -8545,8 +8617,12 @@
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
-      <c r="J128" s="38"/>
-      <c r="K128" s="38"/>
+      <c r="J128" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K128" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="L128" s="38"/>
       <c r="M128" s="38"/>
       <c r="N128" s="38"/>
@@ -8559,7 +8635,7 @@
       <c r="U128" s="39"/>
       <c r="V128" s="40"/>
       <c r="W128" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8567,13 +8643,13 @@
         <v>165</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>158</v>
@@ -8582,8 +8658,12 @@
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
-      <c r="J129" s="38"/>
-      <c r="K129" s="38"/>
+      <c r="J129" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K129" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="L129" s="38"/>
       <c r="M129" s="38"/>
       <c r="N129" s="38"/>
@@ -8596,7 +8676,7 @@
       <c r="U129" s="39"/>
       <c r="V129" s="40"/>
       <c r="W129" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8604,13 +8684,13 @@
         <v>166</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="E130" s="43" t="s">
         <v>159</v>
@@ -8619,8 +8699,12 @@
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="42"/>
-      <c r="J130" s="38"/>
-      <c r="K130" s="38"/>
+      <c r="J130" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K130" s="38" t="s">
+        <v>75</v>
+      </c>
       <c r="L130" s="38"/>
       <c r="M130" s="38"/>
       <c r="N130" s="38"/>
@@ -8633,7 +8717,7 @@
       <c r="U130" s="39"/>
       <c r="V130" s="40"/>
       <c r="W130" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8641,13 +8725,13 @@
         <v>167</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="E131" s="43" t="s">
         <v>160</v>
@@ -8656,8 +8740,12 @@
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
-      <c r="J131" s="38"/>
-      <c r="K131" s="38"/>
+      <c r="J131" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K131" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="L131" s="38"/>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
@@ -8670,7 +8758,7 @@
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
       <c r="W131" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8678,13 +8766,13 @@
         <v>168</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E132" s="43" t="s">
         <v>161</v>
@@ -8693,8 +8781,12 @@
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
-      <c r="J132" s="38"/>
-      <c r="K132" s="38"/>
+      <c r="J132" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K132" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="L132" s="38"/>
       <c r="M132" s="38"/>
       <c r="N132" s="38"/>
@@ -8707,7 +8799,7 @@
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
       <c r="W132" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8715,13 +8807,13 @@
         <v>169</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="E133" s="43" t="s">
         <v>163</v>
@@ -8730,9 +8822,15 @@
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
+      <c r="J133" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K133" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L133" s="38" t="s">
+        <v>79</v>
+      </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
       <c r="O133" s="38"/>
@@ -8744,7 +8842,7 @@
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
       <c r="W133" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8752,16 +8850,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -8781,7 +8879,7 @@
       <c r="U134" s="39"/>
       <c r="V134" s="40"/>
       <c r="W134" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8789,16 +8887,16 @@
         <v>177</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -8818,7 +8916,7 @@
       <c r="U135" s="39"/>
       <c r="V135" s="40"/>
       <c r="W135" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8826,16 +8924,16 @@
         <v>178</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -8855,7 +8953,7 @@
       <c r="U136" s="39"/>
       <c r="V136" s="40"/>
       <c r="W136" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8863,16 +8961,16 @@
         <v>179</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -8892,7 +8990,7 @@
       <c r="U137" s="39"/>
       <c r="V137" s="40"/>
       <c r="W137" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8900,16 +8998,16 @@
         <v>180</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -8929,7 +9027,7 @@
       <c r="U138" s="39"/>
       <c r="V138" s="40"/>
       <c r="W138" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8937,16 +9035,16 @@
         <v>181</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -8966,7 +9064,7 @@
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
       <c r="W139" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8974,16 +9072,16 @@
         <v>182</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -9003,7 +9101,7 @@
       <c r="U140" s="39"/>
       <c r="V140" s="40"/>
       <c r="W140" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9011,16 +9109,16 @@
         <v>183</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -9040,7 +9138,7 @@
       <c r="U141" s="39"/>
       <c r="V141" s="40"/>
       <c r="W141" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9048,16 +9146,16 @@
         <v>184</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -9077,7 +9175,7 @@
       <c r="U142" s="39"/>
       <c r="V142" s="40"/>
       <c r="W142" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9085,16 +9183,16 @@
         <v>185</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -9114,7 +9212,7 @@
       <c r="U143" s="39"/>
       <c r="V143" s="40"/>
       <c r="W143" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9122,16 +9220,16 @@
         <v>186</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -9151,7 +9249,7 @@
       <c r="U144" s="39"/>
       <c r="V144" s="40"/>
       <c r="W144" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9159,16 +9257,16 @@
         <v>187</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -9188,7 +9286,7 @@
       <c r="U145" s="39"/>
       <c r="V145" s="40"/>
       <c r="W145" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9196,16 +9294,16 @@
         <v>188</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9225,7 +9323,7 @@
       <c r="U146" s="39"/>
       <c r="V146" s="40"/>
       <c r="W146" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9233,16 +9331,16 @@
         <v>189</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9262,7 +9360,7 @@
       <c r="U147" s="39"/>
       <c r="V147" s="40"/>
       <c r="W147" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9270,16 +9368,16 @@
         <v>190</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9299,7 +9397,7 @@
       <c r="U148" s="39"/>
       <c r="V148" s="40"/>
       <c r="W148" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9307,16 +9405,16 @@
         <v>191</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9336,7 +9434,7 @@
       <c r="U149" s="39"/>
       <c r="V149" s="40"/>
       <c r="W149" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9344,16 +9442,16 @@
         <v>376</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9373,7 +9471,7 @@
       <c r="U150" s="39"/>
       <c r="V150" s="40"/>
       <c r="W150" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9381,13 +9479,13 @@
         <v>417</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E151" s="43" t="s">
         <v>167</v>
@@ -9410,7 +9508,7 @@
       <c r="U151" s="39"/>
       <c r="V151" s="40"/>
       <c r="W151" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9418,13 +9516,13 @@
         <v>418</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E152" s="43" t="s">
         <v>166</v>
@@ -9447,7 +9545,7 @@
       <c r="U152" s="39"/>
       <c r="V152" s="40"/>
       <c r="W152" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9455,16 +9553,16 @@
         <v>419</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9484,7 +9582,7 @@
       <c r="U153" s="39"/>
       <c r="V153" s="40"/>
       <c r="W153" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9492,16 +9590,16 @@
         <v>423</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9521,7 +9619,7 @@
       <c r="U154" s="39"/>
       <c r="V154" s="40"/>
       <c r="W154" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9529,16 +9627,16 @@
         <v>424</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9558,7 +9656,7 @@
       <c r="U155" s="39"/>
       <c r="V155" s="40"/>
       <c r="W155" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9566,16 +9664,16 @@
         <v>425</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9595,7 +9693,7 @@
       <c r="U156" s="39"/>
       <c r="V156" s="40"/>
       <c r="W156" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9603,16 +9701,16 @@
         <v>432</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9632,7 +9730,7 @@
       <c r="U157" s="39"/>
       <c r="V157" s="40"/>
       <c r="W157" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9640,16 +9738,16 @@
         <v>433</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -9669,7 +9767,7 @@
       <c r="U158" s="39"/>
       <c r="V158" s="40"/>
       <c r="W158" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9677,16 +9775,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -9706,7 +9804,7 @@
       <c r="U159" s="39"/>
       <c r="V159" s="40"/>
       <c r="W159" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9714,16 +9812,16 @@
         <v>435</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -9743,7 +9841,7 @@
       <c r="U160" s="39"/>
       <c r="V160" s="40"/>
       <c r="W160" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9751,16 +9849,16 @@
         <v>437</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -9780,7 +9878,7 @@
       <c r="U161" s="39"/>
       <c r="V161" s="40"/>
       <c r="W161" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9788,16 +9886,16 @@
         <v>438</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C162" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D162" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D162" s="35" t="s">
-        <v>120</v>
-      </c>
       <c r="E162" s="43" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -9817,7 +9915,7 @@
       <c r="U162" s="39"/>
       <c r="V162" s="40"/>
       <c r="W162" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9825,16 +9923,16 @@
         <v>440</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -9854,7 +9952,7 @@
       <c r="U163" s="39"/>
       <c r="V163" s="40"/>
       <c r="W163" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9862,16 +9960,16 @@
         <v>441</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -9891,7 +9989,7 @@
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9899,16 +9997,16 @@
         <v>442</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -9928,7 +10026,7 @@
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9936,16 +10034,16 @@
         <v>443</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -9965,7 +10063,7 @@
       <c r="U166" s="39"/>
       <c r="V166" s="40"/>
       <c r="W166" s="38" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9973,16 +10071,16 @@
         <v>444</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -10002,7 +10100,7 @@
       <c r="U167" s="39"/>
       <c r="V167" s="40"/>
       <c r="W167" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10010,16 +10108,16 @@
         <v>445</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10039,7 +10137,7 @@
       <c r="U168" s="39"/>
       <c r="V168" s="40"/>
       <c r="W168" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10047,31 +10145,31 @@
         <v>448</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F169" s="37">
         <v>45779</v>
       </c>
       <c r="G169" s="37" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
@@ -10086,7 +10184,7 @@
       <c r="U169" s="39"/>
       <c r="V169" s="40"/>
       <c r="W169" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10094,31 +10192,31 @@
         <v>449</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F170" s="37">
         <v>45779</v>
       </c>
       <c r="G170" s="37" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J170" s="38" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="38"/>
@@ -10133,7 +10231,7 @@
       <c r="U170" s="39"/>
       <c r="V170" s="40"/>
       <c r="W170" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10141,16 +10239,16 @@
         <v>450</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10170,7 +10268,7 @@
       <c r="U171" s="39"/>
       <c r="V171" s="40"/>
       <c r="W171" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10178,16 +10276,16 @@
         <v>451</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10207,7 +10305,7 @@
       <c r="U172" s="39"/>
       <c r="V172" s="40"/>
       <c r="W172" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10215,16 +10313,16 @@
         <v>452</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10244,7 +10342,7 @@
       <c r="U173" s="39"/>
       <c r="V173" s="40"/>
       <c r="W173" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10252,16 +10350,16 @@
         <v>454</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10281,7 +10379,7 @@
       <c r="U174" s="39"/>
       <c r="V174" s="40"/>
       <c r="W174" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10289,16 +10387,16 @@
         <v>455</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -10318,7 +10416,7 @@
       <c r="U175" s="39"/>
       <c r="V175" s="40"/>
       <c r="W175" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10326,16 +10424,16 @@
         <v>456</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -10355,7 +10453,7 @@
       <c r="U176" s="39"/>
       <c r="V176" s="40"/>
       <c r="W176" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10363,16 +10461,16 @@
         <v>457</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -10392,7 +10490,7 @@
       <c r="U177" s="39"/>
       <c r="V177" s="40"/>
       <c r="W177" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10400,16 +10498,16 @@
         <v>458</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -10429,7 +10527,7 @@
       <c r="U178" s="39"/>
       <c r="V178" s="40"/>
       <c r="W178" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10437,16 +10535,16 @@
         <v>459</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -10466,7 +10564,7 @@
       <c r="U179" s="39"/>
       <c r="V179" s="40"/>
       <c r="W179" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10474,16 +10572,16 @@
         <v>460</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -10503,7 +10601,7 @@
       <c r="U180" s="39"/>
       <c r="V180" s="40"/>
       <c r="W180" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10511,23 +10609,27 @@
         <v>461</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E181" s="43" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
-      <c r="J181" s="38"/>
-      <c r="K181" s="38"/>
+      <c r="J181" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K181" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="L181" s="35"/>
       <c r="M181" s="38"/>
       <c r="N181" s="38"/>
@@ -10540,7 +10642,7 @@
       <c r="U181" s="35"/>
       <c r="V181" s="35"/>
       <c r="W181" s="35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10548,16 +10650,16 @@
         <v>462</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -10577,7 +10679,7 @@
       <c r="U182" s="35"/>
       <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10585,16 +10687,16 @@
         <v>463</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E183" s="43" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -10614,7 +10716,7 @@
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
       <c r="W183" s="35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10622,16 +10724,16 @@
         <v>464</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -10651,7 +10753,7 @@
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
       <c r="W184" s="35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10659,16 +10761,16 @@
         <v>465</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -10688,7 +10790,7 @@
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
       <c r="W185" s="35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10696,16 +10798,16 @@
         <v>466</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E186" s="44" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -10725,7 +10827,7 @@
       <c r="U186" s="35"/>
       <c r="V186" s="35"/>
       <c r="W186" s="35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10733,16 +10835,16 @@
         <v>467</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E187" s="43" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -10762,7 +10864,7 @@
       <c r="U187" s="35"/>
       <c r="V187" s="35"/>
       <c r="W187" s="35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10770,24 +10872,30 @@
         <v>468</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E188" s="43" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F188" s="35"/>
       <c r="G188" s="35"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
-      <c r="J188" s="38"/>
-      <c r="K188" s="38"/>
-      <c r="L188" s="35"/>
+      <c r="J188" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K188" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L188" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
       <c r="O188" s="35"/>
@@ -10799,7 +10907,7 @@
       <c r="U188" s="35"/>
       <c r="V188" s="35"/>
       <c r="W188" s="35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10807,16 +10915,16 @@
         <v>469</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E189" s="43" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -10836,7 +10944,7 @@
       <c r="U189" s="35"/>
       <c r="V189" s="35"/>
       <c r="W189" s="35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10844,16 +10952,16 @@
         <v>470</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -10873,7 +10981,7 @@
       <c r="U190" s="35"/>
       <c r="V190" s="35"/>
       <c r="W190" s="35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10881,16 +10989,16 @@
         <v>471</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E191" s="43" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
@@ -10910,7 +11018,7 @@
       <c r="U191" s="39"/>
       <c r="V191" s="40"/>
       <c r="W191" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10918,16 +11026,16 @@
         <v>472</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
@@ -10947,7 +11055,7 @@
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="193" spans="6:23" ht="14.25" customHeight="1">
@@ -15062,42 +15170,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -15128,162 +15236,162 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
       <c r="A10" s="5" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
@@ -16262,26 +16370,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -51,761 +51,71 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="456">
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
-  </si>
-  <si>
-    <t>4, 452</t>
-  </si>
-  <si>
-    <t>417, 418, 419, 460</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
-  </si>
-  <si>
-    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
-  </si>
-  <si>
-    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
-  </si>
-  <si>
-    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
-  </si>
-  <si>
-    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
-  </si>
-  <si>
-    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
-  </si>
-  <si>
-    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
-  </si>
-  <si>
-    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
-  </si>
-  <si>
-    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
-  </si>
-  <si>
-    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>8.2.5</t>
-  </si>
-  <si>
-    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>471, 472</t>
-  </si>
-  <si>
-    <t>subject_application_vendor: GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC</t>
-  </si>
-  <si>
-    <t>subject_application_id: GMSoftFSE</t>
-  </si>
-  <si>
-    <t>subject_application_version: V.1.1.0</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT11_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT19_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT6_KO</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT8_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT9_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT10_KO</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2025-05-02T06:52:31.432+02:00</t>
-  </si>
-  <si>
-    <t>90df63df33ebf5f7a7ed0145f1bae84a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2def81c12d9d55998602ca3330968f008054bf144cb57455968dba34bac106f3.62d78dbc40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6a8b96336fc8b0d44bc495fed2f3447f</t>
-  </si>
-  <si>
-    <t>2025-05-02T12:14:46.970+02:00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.eff4ea824427f41e2652ec40542c7f6ab8be63c5a4994df59144a1655a92bd1a.27ffbd6b7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
-  </si>
-  <si>
-    <t>c ampo obbligatorio</t>
-  </si>
-  <si>
-    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
-  </si>
-  <si>
-    <t>Il campo è valorizzabile tramite selezione da menù a tendina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il campo è valorizzabile tramite selezione da menù a tendina </t>
-  </si>
-  <si>
-    <t>altro (specificare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'applicativo inserisce in autonomia nel cda   &lt;signatureCode code="S" /&gt;  il valore S  se firmato digitalmente.  Se il medico non firma digitalmente  non verrà creato nessun cda. </t>
-  </si>
-  <si>
-    <t>L'applicativo inserisce di default il valore N  ed è possibile cambiarlo dal form selezionando  N ,  V ,  R</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
-  </si>
-  <si>
-    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
-Nome fornitore dell'applicativo
-nome applicazione: subject_application_id
-Nome fornitore: subject_application_vendor
-versione applicazione: subject_application_version
-</t>
-  </si>
-  <si>
-    <t>RAP</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_RAP_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>TIPO DOCUMENTO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>448, 449</t>
-  </si>
-  <si>
-    <t>450, 451</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>454, 455</t>
-  </si>
-  <si>
-    <t>456, 457</t>
-  </si>
-  <si>
-    <t>458, 459</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
-    DATA ESECUZIONE, 
-    TIMESTAMP, 
-    TRACEID,
-    WORKFLOWINSTANCEID (ove ritornato in response, qualora non ritornato il WORKFLOWINSTANCEID puo' essere lasciato blank), 
-    ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    ERRORE VISIBILE A UTENTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
-    GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo inserisce di default il valore N  ed è possibile cambiarlo dal form selezionando  N ,  V </t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -1675,68 +985,758 @@
     <t>VALIDAZIONE_CDA2_SING_VAC_CT8_KO</t>
   </si>
   <si>
+    <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
+    DATA ESECUZIONE, 
+    TIMESTAMP, 
+    TRACEID,
+    WORKFLOWINSTANCEID (ove ritornato in response, qualora non ritornato il WORKFLOWINSTANCEID puo' essere lasciato blank), 
+    ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    ERRORE VISIBILE A UTENTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
+    GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT9_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT11_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT19_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT6_KO</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT8_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT9_KO</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT10_KO</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT11_KO</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
+  </si>
+  <si>
+    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
+Nome fornitore dell'applicativo
+nome applicazione: subject_application_id
+Nome fornitore: subject_application_vendor
+versione applicazione: subject_application_version
+</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAP_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>TIPO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>448, 449</t>
+  </si>
+  <si>
+    <t>450, 451</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>454, 455</t>
+  </si>
+  <si>
+    <t>456, 457</t>
+  </si>
+  <si>
+    <t>458, 459</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
+  </si>
+  <si>
+    <t>4, 452</t>
+  </si>
+  <si>
+    <t>417, 418, 419, 460</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
+  </si>
+  <si>
+    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
+  </si>
+  <si>
+    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
+  </si>
+  <si>
+    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
+  </si>
+  <si>
+    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
+  </si>
+  <si>
+    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
+  </si>
+  <si>
+    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
+  </si>
+  <si>
+    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
+  </si>
+  <si>
+    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
+  </si>
+  <si>
+    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>8.2.5</t>
+  </si>
+  <si>
+    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>471, 472</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC</t>
+  </si>
+  <si>
+    <t>subject_application_id: GMSoftFSE</t>
+  </si>
+  <si>
+    <t>subject_application_version: V.1.1.0</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-05-02T06:52:31.432+02:00</t>
+  </si>
+  <si>
+    <t>90df63df33ebf5f7a7ed0145f1bae84a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2def81c12d9d55998602ca3330968f008054bf144cb57455968dba34bac106f3.62d78dbc40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6a8b96336fc8b0d44bc495fed2f3447f</t>
+  </si>
+  <si>
+    <t>2025-05-02T12:14:46.970+02:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.eff4ea824427f41e2652ec40542c7f6ab8be63c5a4994df59144a1655a92bd1a.27ffbd6b7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
+  </si>
+  <si>
+    <t>c ampo obbligatorio</t>
+  </si>
+  <si>
+    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
+  </si>
+  <si>
+    <t>Il campo è valorizzabile tramite selezione da menù a tendina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il campo è valorizzabile tramite selezione da menù a tendina </t>
+  </si>
+  <si>
+    <t>altro (specificare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo inserisce in autonomia nel cda   &lt;signatureCode code="S" /&gt;  il valore S  se firmato digitalmente.  Se il medico non firma digitalmente  non verrà creato nessun cda. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
 </sst>
 </file>
@@ -2745,37 +2745,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="210">
       <c r="A5" s="2" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90">
       <c r="A6" s="17" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>94</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2783,17 +2783,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>303</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>305</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2826,12 +2826,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>307</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>308</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
@@ -2850,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>309</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
@@ -2858,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>310</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
@@ -2866,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>311</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
@@ -2874,7 +2874,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>300</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2882,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>312</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3885,10 +3885,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L188" sqref="L188"/>
+      <selection pane="bottomRight" activeCell="L193" sqref="L193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>313</v>
+        <v>129</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3959,11 +3959,11 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>314</v>
+        <v>130</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>46</v>
+        <v>414</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="6"/>
@@ -3989,7 +3989,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="56" t="s">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="4"/>
@@ -4016,7 +4016,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>47</v>
+        <v>415</v>
       </c>
       <c r="D5" s="48"/>
       <c r="F5" s="6"/>
@@ -4106,73 +4106,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>315</v>
+        <v>131</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>316</v>
+        <v>132</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>317</v>
+        <v>133</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>318</v>
+        <v>134</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>321</v>
+        <v>137</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>322</v>
+        <v>138</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>325</v>
+        <v>141</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>326</v>
+        <v>142</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>329</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>285</v>
+        <v>101</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>330</v>
+        <v>146</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>331</v>
+        <v>147</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>332</v>
+        <v>148</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>333</v>
+        <v>149</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>334</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4180,16 +4180,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>132</v>
+        <v>334</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4209,7 +4209,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4217,16 +4217,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>343</v>
+        <v>159</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4246,7 +4246,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4254,16 +4254,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>346</v>
+        <v>162</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -4283,7 +4283,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4291,16 +4291,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>348</v>
+        <v>164</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4320,7 +4320,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4328,16 +4328,16 @@
         <v>31</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>349</v>
+        <v>165</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -4357,7 +4357,7 @@
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4365,16 +4365,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>351</v>
+        <v>167</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -4394,7 +4394,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4402,16 +4402,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4431,7 +4431,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4439,16 +4439,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>353</v>
+        <v>169</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4468,7 +4468,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4476,16 +4476,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>354</v>
+        <v>170</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -4505,7 +4505,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4513,16 +4513,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>355</v>
+        <v>171</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4542,7 +4542,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4550,16 +4550,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4579,7 +4579,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4587,16 +4587,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>358</v>
+        <v>174</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -4616,7 +4616,7 @@
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4624,16 +4624,16 @@
         <v>39</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>359</v>
+        <v>175</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -4653,7 +4653,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4661,16 +4661,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -4690,7 +4690,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4698,16 +4698,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>361</v>
+        <v>177</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4727,7 +4727,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4735,16 +4735,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>362</v>
+        <v>178</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4764,7 +4764,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4772,16 +4772,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>363</v>
+        <v>179</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4801,7 +4801,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4809,16 +4809,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4836,11 +4836,11 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4848,16 +4848,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>366</v>
+        <v>182</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4875,11 +4875,11 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4887,16 +4887,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>367</v>
+        <v>183</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4914,11 +4914,11 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4926,16 +4926,16 @@
         <v>47</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>368</v>
+        <v>184</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -4953,11 +4953,11 @@
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4965,16 +4965,16 @@
         <v>48</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>369</v>
+        <v>185</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -4992,11 +4992,11 @@
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5004,16 +5004,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>370</v>
+        <v>186</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -5031,11 +5031,11 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5043,16 +5043,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>371</v>
+        <v>187</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5070,11 +5070,11 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5082,16 +5082,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>372</v>
+        <v>188</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5109,11 +5109,11 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5121,16 +5121,16 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>38</v>
+        <v>406</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>39</v>
+        <v>407</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -5150,7 +5150,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5158,16 +5158,16 @@
         <v>55</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>373</v>
+        <v>189</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>374</v>
+        <v>190</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5187,7 +5187,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5195,16 +5195,16 @@
         <v>56</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>375</v>
+        <v>191</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5224,7 +5224,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5232,16 +5232,16 @@
         <v>57</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>377</v>
+        <v>193</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>378</v>
+        <v>194</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5261,7 +5261,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5269,16 +5269,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>379</v>
+        <v>195</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5298,7 +5298,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5306,16 +5306,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>381</v>
+        <v>197</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5335,7 +5335,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5343,16 +5343,16 @@
         <v>60</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>384</v>
+        <v>200</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5372,7 +5372,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5380,16 +5380,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>385</v>
+        <v>201</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>386</v>
+        <v>202</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5409,7 +5409,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5417,16 +5417,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>387</v>
+        <v>203</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>388</v>
+        <v>204</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5446,7 +5446,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5454,16 +5454,16 @@
         <v>64</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>389</v>
+        <v>205</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5483,7 +5483,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5491,16 +5491,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5520,7 +5520,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5528,16 +5528,16 @@
         <v>67</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>391</v>
+        <v>207</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5557,7 +5557,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5565,16 +5565,16 @@
         <v>68</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>392</v>
+        <v>208</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5594,7 +5594,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5602,16 +5602,16 @@
         <v>69</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>393</v>
+        <v>209</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5631,7 +5631,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5639,16 +5639,16 @@
         <v>70</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>394</v>
+        <v>210</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5668,7 +5668,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5676,16 +5676,16 @@
         <v>71</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>395</v>
+        <v>211</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5705,7 +5705,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5713,16 +5713,16 @@
         <v>72</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>396</v>
+        <v>212</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5742,7 +5742,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5750,16 +5750,16 @@
         <v>73</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>397</v>
+        <v>213</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5779,7 +5779,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5787,16 +5787,16 @@
         <v>74</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>398</v>
+        <v>214</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5816,7 +5816,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5824,16 +5824,16 @@
         <v>76</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>399</v>
+        <v>215</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -5853,7 +5853,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5861,16 +5861,16 @@
         <v>78</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>400</v>
+        <v>216</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>401</v>
+        <v>217</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5890,7 +5890,7 @@
       <c r="U55" s="39"/>
       <c r="V55" s="40"/>
       <c r="W55" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5898,16 +5898,16 @@
         <v>79</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>402</v>
+        <v>218</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -5927,7 +5927,7 @@
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5935,16 +5935,16 @@
         <v>80</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>403</v>
+        <v>219</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -5964,7 +5964,7 @@
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5972,16 +5972,16 @@
         <v>81</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>404</v>
+        <v>220</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -6001,7 +6001,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6009,16 +6009,16 @@
         <v>82</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>405</v>
+        <v>221</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -6038,7 +6038,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6046,16 +6046,16 @@
         <v>83</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>406</v>
+        <v>222</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>407</v>
+        <v>223</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -6075,7 +6075,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6083,16 +6083,16 @@
         <v>84</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>408</v>
+        <v>224</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>409</v>
+        <v>225</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -6112,7 +6112,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6120,16 +6120,16 @@
         <v>85</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>410</v>
+        <v>226</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -6149,7 +6149,7 @@
       <c r="U62" s="39"/>
       <c r="V62" s="40"/>
       <c r="W62" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6157,16 +6157,16 @@
         <v>86</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>411</v>
+        <v>227</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -6186,7 +6186,7 @@
       <c r="U63" s="39"/>
       <c r="V63" s="40"/>
       <c r="W63" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6194,16 +6194,16 @@
         <v>87</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>412</v>
+        <v>228</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -6223,7 +6223,7 @@
       <c r="U64" s="39"/>
       <c r="V64" s="40"/>
       <c r="W64" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6231,16 +6231,16 @@
         <v>88</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>413</v>
+        <v>229</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>48</v>
+        <v>416</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
@@ -6260,7 +6260,7 @@
       <c r="U65" s="39"/>
       <c r="V65" s="40"/>
       <c r="W65" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6268,16 +6268,16 @@
         <v>89</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>414</v>
+        <v>230</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>415</v>
+        <v>231</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -6297,7 +6297,7 @@
       <c r="U66" s="39"/>
       <c r="V66" s="40"/>
       <c r="W66" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6305,16 +6305,16 @@
         <v>90</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>416</v>
+        <v>232</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>417</v>
+        <v>233</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -6334,7 +6334,7 @@
       <c r="U67" s="39"/>
       <c r="V67" s="40"/>
       <c r="W67" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6342,16 +6342,16 @@
         <v>91</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>418</v>
+        <v>234</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>49</v>
+        <v>417</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -6371,7 +6371,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6379,16 +6379,16 @@
         <v>92</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>419</v>
+        <v>235</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>123</v>
+        <v>325</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -6408,7 +6408,7 @@
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6416,16 +6416,16 @@
         <v>93</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -6445,7 +6445,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="40"/>
       <c r="W70" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6453,16 +6453,16 @@
         <v>95</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>421</v>
+        <v>237</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -6482,7 +6482,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="40"/>
       <c r="W71" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6490,16 +6490,16 @@
         <v>97</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>422</v>
+        <v>238</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>52</v>
+        <v>420</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -6519,7 +6519,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="40"/>
       <c r="W72" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6527,16 +6527,16 @@
         <v>98</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>423</v>
+        <v>239</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>53</v>
+        <v>421</v>
       </c>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -6556,7 +6556,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="40"/>
       <c r="W73" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6564,16 +6564,16 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>424</v>
+        <v>240</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>54</v>
+        <v>422</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -6593,7 +6593,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="40"/>
       <c r="W74" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6601,16 +6601,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>425</v>
+        <v>241</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>426</v>
+        <v>242</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6630,7 +6630,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="40"/>
       <c r="W75" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6638,16 +6638,16 @@
         <v>101</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>427</v>
+        <v>243</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>55</v>
+        <v>423</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -6667,7 +6667,7 @@
       <c r="U76" s="39"/>
       <c r="V76" s="40"/>
       <c r="W76" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6675,16 +6675,16 @@
         <v>102</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>428</v>
+        <v>244</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -6704,7 +6704,7 @@
       <c r="U77" s="39"/>
       <c r="V77" s="40"/>
       <c r="W77" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6712,16 +6712,16 @@
         <v>103</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>429</v>
+        <v>245</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>57</v>
+        <v>425</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -6741,7 +6741,7 @@
       <c r="U78" s="39"/>
       <c r="V78" s="40"/>
       <c r="W78" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6749,16 +6749,16 @@
         <v>104</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>430</v>
+        <v>246</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>431</v>
+        <v>247</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6778,7 +6778,7 @@
       <c r="U79" s="39"/>
       <c r="V79" s="40"/>
       <c r="W79" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6786,16 +6786,16 @@
         <v>105</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>432</v>
+        <v>248</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -6815,7 +6815,7 @@
       <c r="U80" s="39"/>
       <c r="V80" s="40"/>
       <c r="W80" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6823,16 +6823,16 @@
         <v>106</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>433</v>
+        <v>249</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -6852,7 +6852,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="40"/>
       <c r="W81" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6860,16 +6860,16 @@
         <v>108</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>434</v>
+        <v>250</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -6889,7 +6889,7 @@
       <c r="U82" s="39"/>
       <c r="V82" s="40"/>
       <c r="W82" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6897,16 +6897,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>435</v>
+        <v>251</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -6926,7 +6926,7 @@
       <c r="U83" s="39"/>
       <c r="V83" s="40"/>
       <c r="W83" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6934,16 +6934,16 @@
         <v>111</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>437</v>
+        <v>1</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -6963,7 +6963,7 @@
       <c r="U84" s="39"/>
       <c r="V84" s="40"/>
       <c r="W84" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6971,16 +6971,16 @@
         <v>112</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>438</v>
+        <v>2</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7000,7 +7000,7 @@
       <c r="U85" s="39"/>
       <c r="V85" s="40"/>
       <c r="W85" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7008,16 +7008,16 @@
         <v>113</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>439</v>
+        <v>3</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7037,7 +7037,7 @@
       <c r="U86" s="39"/>
       <c r="V86" s="40"/>
       <c r="W86" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7045,16 +7045,16 @@
         <v>114</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7074,7 +7074,7 @@
       <c r="U87" s="39"/>
       <c r="V87" s="40"/>
       <c r="W87" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7082,16 +7082,16 @@
         <v>115</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>441</v>
+        <v>5</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7111,7 +7111,7 @@
       <c r="U88" s="39"/>
       <c r="V88" s="40"/>
       <c r="W88" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7119,16 +7119,16 @@
         <v>116</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>442</v>
+        <v>6</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7148,7 +7148,7 @@
       <c r="U89" s="39"/>
       <c r="V89" s="40"/>
       <c r="W89" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7156,16 +7156,16 @@
         <v>117</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>443</v>
+        <v>7</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>64</v>
+        <v>432</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7185,7 +7185,7 @@
       <c r="U90" s="39"/>
       <c r="V90" s="40"/>
       <c r="W90" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7193,16 +7193,16 @@
         <v>118</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>444</v>
+        <v>8</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>65</v>
+        <v>433</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -7222,7 +7222,7 @@
       <c r="U91" s="39"/>
       <c r="V91" s="40"/>
       <c r="W91" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7230,16 +7230,16 @@
         <v>119</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>66</v>
+        <v>434</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -7259,7 +7259,7 @@
       <c r="U92" s="39"/>
       <c r="V92" s="40"/>
       <c r="W92" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7267,16 +7267,16 @@
         <v>120</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>67</v>
+        <v>435</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -7296,7 +7296,7 @@
       <c r="U93" s="39"/>
       <c r="V93" s="40"/>
       <c r="W93" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7304,16 +7304,16 @@
         <v>121</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>447</v>
+        <v>11</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>68</v>
+        <v>436</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -7333,7 +7333,7 @@
       <c r="U94" s="39"/>
       <c r="V94" s="40"/>
       <c r="W94" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7341,16 +7341,16 @@
         <v>123</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7370,7 +7370,7 @@
       <c r="U95" s="39"/>
       <c r="V95" s="40"/>
       <c r="W95" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7378,16 +7378,16 @@
         <v>125</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>450</v>
+        <v>14</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>69</v>
+        <v>437</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -7407,7 +7407,7 @@
       <c r="U96" s="39"/>
       <c r="V96" s="40"/>
       <c r="W96" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7415,16 +7415,16 @@
         <v>126</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>451</v>
+        <v>15</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>452</v>
+        <v>16</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7444,7 +7444,7 @@
       <c r="U97" s="39"/>
       <c r="V97" s="40"/>
       <c r="W97" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7452,16 +7452,16 @@
         <v>127</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>453</v>
+        <v>17</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>454</v>
+        <v>18</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7481,7 +7481,7 @@
       <c r="U98" s="39"/>
       <c r="V98" s="40"/>
       <c r="W98" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7489,16 +7489,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7518,7 +7518,7 @@
       <c r="U99" s="39"/>
       <c r="V99" s="40"/>
       <c r="W99" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7526,16 +7526,16 @@
         <v>129</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>70</v>
+        <v>438</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -7555,7 +7555,7 @@
       <c r="U100" s="39"/>
       <c r="V100" s="40"/>
       <c r="W100" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7563,16 +7563,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7592,7 +7592,7 @@
       <c r="U101" s="39"/>
       <c r="V101" s="40"/>
       <c r="W101" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7600,16 +7600,16 @@
         <v>131</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7629,7 +7629,7 @@
       <c r="U102" s="39"/>
       <c r="V102" s="40"/>
       <c r="W102" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7637,16 +7637,16 @@
         <v>132</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7666,7 +7666,7 @@
       <c r="U103" s="39"/>
       <c r="V103" s="40"/>
       <c r="W103" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7674,16 +7674,16 @@
         <v>133</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>165</v>
+        <v>367</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -7703,7 +7703,7 @@
       <c r="U104" s="39"/>
       <c r="V104" s="40"/>
       <c r="W104" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7711,16 +7711,16 @@
         <v>134</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -7740,7 +7740,7 @@
       <c r="U105" s="39"/>
       <c r="V105" s="40"/>
       <c r="W105" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7748,16 +7748,16 @@
         <v>135</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7777,7 +7777,7 @@
       <c r="U106" s="39"/>
       <c r="V106" s="40"/>
       <c r="W106" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7785,16 +7785,16 @@
         <v>136</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -7814,7 +7814,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="40"/>
       <c r="W107" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7822,16 +7822,16 @@
         <v>137</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>164</v>
+        <v>366</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -7851,7 +7851,7 @@
       <c r="U108" s="39"/>
       <c r="V108" s="40"/>
       <c r="W108" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7859,16 +7859,16 @@
         <v>138</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -7888,7 +7888,7 @@
       <c r="U109" s="39"/>
       <c r="V109" s="40"/>
       <c r="W109" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7896,16 +7896,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -7925,7 +7925,7 @@
       <c r="U110" s="39"/>
       <c r="V110" s="40"/>
       <c r="W110" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7933,16 +7933,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -7962,7 +7962,7 @@
       <c r="U111" s="39"/>
       <c r="V111" s="40"/>
       <c r="W111" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7970,16 +7970,16 @@
         <v>141</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>162</v>
+        <v>364</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -7999,7 +7999,7 @@
       <c r="U112" s="39"/>
       <c r="V112" s="40"/>
       <c r="W112" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8007,16 +8007,16 @@
         <v>142</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8036,7 +8036,7 @@
       <c r="U113" s="39"/>
       <c r="V113" s="40"/>
       <c r="W113" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8044,16 +8044,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8073,7 +8073,7 @@
       <c r="U114" s="39"/>
       <c r="V114" s="40"/>
       <c r="W114" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8081,16 +8081,16 @@
         <v>144</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8110,7 +8110,7 @@
       <c r="U115" s="39"/>
       <c r="V115" s="40"/>
       <c r="W115" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8118,16 +8118,16 @@
         <v>145</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>71</v>
+        <v>439</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -8147,7 +8147,7 @@
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
       <c r="W116" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8155,16 +8155,16 @@
         <v>146</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8184,7 +8184,7 @@
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
       <c r="W117" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8192,26 +8192,26 @@
         <v>152</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="42"/>
       <c r="J118" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K118" s="38" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="L118" s="38"/>
       <c r="M118" s="38"/>
@@ -8225,7 +8225,7 @@
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
       <c r="W118" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8233,26 +8233,26 @@
         <v>154</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="42"/>
       <c r="J119" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K119" s="38" t="s">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="L119" s="38"/>
       <c r="M119" s="38"/>
@@ -8266,7 +8266,7 @@
       <c r="U119" s="39"/>
       <c r="V119" s="40"/>
       <c r="W119" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8274,26 +8274,26 @@
         <v>155</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="42"/>
       <c r="J120" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K120" s="38" t="s">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="L120" s="38"/>
       <c r="M120" s="38"/>
@@ -8307,7 +8307,7 @@
       <c r="U120" s="39"/>
       <c r="V120" s="40"/>
       <c r="W120" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8315,26 +8315,26 @@
         <v>156</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="42"/>
       <c r="J121" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K121" s="38" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="L121" s="38"/>
       <c r="M121" s="38"/>
@@ -8348,7 +8348,7 @@
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
       <c r="W121" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8356,26 +8356,26 @@
         <v>158</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="42"/>
       <c r="J122" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K122" s="38" t="s">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="L122" s="38"/>
       <c r="M122" s="38"/>
@@ -8389,7 +8389,7 @@
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
       <c r="W122" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8397,26 +8397,26 @@
         <v>159</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
       <c r="J123" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K123" s="38" t="s">
-        <v>73</v>
+        <v>441</v>
       </c>
       <c r="L123" s="38"/>
       <c r="M123" s="38"/>
@@ -8430,7 +8430,7 @@
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
       <c r="W123" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8438,26 +8438,26 @@
         <v>160</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="42"/>
       <c r="J124" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K124" s="38" t="s">
-        <v>72</v>
+        <v>440</v>
       </c>
       <c r="L124" s="38"/>
       <c r="M124" s="38"/>
@@ -8471,7 +8471,7 @@
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
       <c r="W124" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8479,26 +8479,26 @@
         <v>161</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>142</v>
+        <v>344</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
       <c r="J125" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K125" s="38" t="s">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="L125" s="38"/>
       <c r="M125" s="38"/>
@@ -8512,7 +8512,7 @@
       <c r="U125" s="39"/>
       <c r="V125" s="40"/>
       <c r="W125" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8520,26 +8520,26 @@
         <v>162</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>247</v>
+        <v>63</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>143</v>
+        <v>345</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
       <c r="J126" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K126" s="38" t="s">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="L126" s="38"/>
       <c r="M126" s="38"/>
@@ -8553,7 +8553,7 @@
       <c r="U126" s="39"/>
       <c r="V126" s="40"/>
       <c r="W126" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8561,26 +8561,26 @@
         <v>163</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
       <c r="J127" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K127" s="38" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="L127" s="38"/>
       <c r="M127" s="38"/>
@@ -8594,7 +8594,7 @@
       <c r="U127" s="39"/>
       <c r="V127" s="40"/>
       <c r="W127" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8602,26 +8602,26 @@
         <v>164</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>249</v>
+        <v>65</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>157</v>
+        <v>359</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
       <c r="J128" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K128" s="38" t="s">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="L128" s="38"/>
       <c r="M128" s="38"/>
@@ -8635,7 +8635,7 @@
       <c r="U128" s="39"/>
       <c r="V128" s="40"/>
       <c r="W128" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8643,26 +8643,26 @@
         <v>165</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>250</v>
+        <v>66</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>158</v>
+        <v>360</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
       <c r="J129" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K129" s="38" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="L129" s="38"/>
       <c r="M129" s="38"/>
@@ -8676,7 +8676,7 @@
       <c r="U129" s="39"/>
       <c r="V129" s="40"/>
       <c r="W129" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8684,26 +8684,26 @@
         <v>166</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>159</v>
+        <v>361</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="42"/>
       <c r="J130" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K130" s="38" t="s">
-        <v>75</v>
+        <v>443</v>
       </c>
       <c r="L130" s="38"/>
       <c r="M130" s="38"/>
@@ -8717,7 +8717,7 @@
       <c r="U130" s="39"/>
       <c r="V130" s="40"/>
       <c r="W130" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8725,26 +8725,26 @@
         <v>167</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
       <c r="J131" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K131" s="38" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="L131" s="38"/>
       <c r="M131" s="38"/>
@@ -8758,7 +8758,7 @@
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
       <c r="W131" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8766,26 +8766,26 @@
         <v>168</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
       <c r="J132" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K132" s="38" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="L132" s="38"/>
       <c r="M132" s="38"/>
@@ -8799,7 +8799,7 @@
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
       <c r="W132" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8807,29 +8807,29 @@
         <v>169</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
       <c r="J133" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K133" s="38" t="s">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -8842,7 +8842,7 @@
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
       <c r="W133" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8850,16 +8850,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -8879,7 +8879,7 @@
       <c r="U134" s="39"/>
       <c r="V134" s="40"/>
       <c r="W134" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8887,16 +8887,16 @@
         <v>177</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -8916,7 +8916,7 @@
       <c r="U135" s="39"/>
       <c r="V135" s="40"/>
       <c r="W135" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8924,16 +8924,16 @@
         <v>178</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -8953,7 +8953,7 @@
       <c r="U136" s="39"/>
       <c r="V136" s="40"/>
       <c r="W136" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8961,16 +8961,16 @@
         <v>179</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -8990,7 +8990,7 @@
       <c r="U137" s="39"/>
       <c r="V137" s="40"/>
       <c r="W137" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8998,16 +8998,16 @@
         <v>180</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -9027,7 +9027,7 @@
       <c r="U138" s="39"/>
       <c r="V138" s="40"/>
       <c r="W138" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9035,16 +9035,16 @@
         <v>181</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -9064,7 +9064,7 @@
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
       <c r="W139" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9072,16 +9072,16 @@
         <v>182</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -9101,7 +9101,7 @@
       <c r="U140" s="39"/>
       <c r="V140" s="40"/>
       <c r="W140" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9109,16 +9109,16 @@
         <v>183</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>84</v>
+        <v>451</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -9138,7 +9138,7 @@
       <c r="U141" s="39"/>
       <c r="V141" s="40"/>
       <c r="W141" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9146,16 +9146,16 @@
         <v>184</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>85</v>
+        <v>452</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -9175,7 +9175,7 @@
       <c r="U142" s="39"/>
       <c r="V142" s="40"/>
       <c r="W142" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9183,16 +9183,16 @@
         <v>185</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>86</v>
+        <v>453</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -9212,7 +9212,7 @@
       <c r="U143" s="39"/>
       <c r="V143" s="40"/>
       <c r="W143" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9220,16 +9220,16 @@
         <v>186</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>268</v>
+        <v>84</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>87</v>
+        <v>454</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -9249,7 +9249,7 @@
       <c r="U144" s="39"/>
       <c r="V144" s="40"/>
       <c r="W144" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9257,16 +9257,16 @@
         <v>187</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>88</v>
+        <v>455</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -9286,7 +9286,7 @@
       <c r="U145" s="39"/>
       <c r="V145" s="40"/>
       <c r="W145" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9294,16 +9294,16 @@
         <v>188</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9323,7 +9323,7 @@
       <c r="U146" s="39"/>
       <c r="V146" s="40"/>
       <c r="W146" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9331,16 +9331,16 @@
         <v>189</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>90</v>
+        <v>292</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9360,7 +9360,7 @@
       <c r="U147" s="39"/>
       <c r="V147" s="40"/>
       <c r="W147" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9368,16 +9368,16 @@
         <v>190</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>91</v>
+        <v>293</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9397,7 +9397,7 @@
       <c r="U148" s="39"/>
       <c r="V148" s="40"/>
       <c r="W148" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9405,16 +9405,16 @@
         <v>191</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9434,7 +9434,7 @@
       <c r="U149" s="39"/>
       <c r="V149" s="40"/>
       <c r="W149" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9442,16 +9442,16 @@
         <v>376</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9471,7 +9471,7 @@
       <c r="U150" s="39"/>
       <c r="V150" s="40"/>
       <c r="W150" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9479,16 +9479,16 @@
         <v>417</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -9508,7 +9508,7 @@
       <c r="U151" s="39"/>
       <c r="V151" s="40"/>
       <c r="W151" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9516,16 +9516,16 @@
         <v>418</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -9545,7 +9545,7 @@
       <c r="U152" s="39"/>
       <c r="V152" s="40"/>
       <c r="W152" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9553,16 +9553,16 @@
         <v>419</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>141</v>
+        <v>343</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9582,7 +9582,7 @@
       <c r="U153" s="39"/>
       <c r="V153" s="40"/>
       <c r="W153" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9590,16 +9590,16 @@
         <v>423</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9619,7 +9619,7 @@
       <c r="U154" s="39"/>
       <c r="V154" s="40"/>
       <c r="W154" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9627,16 +9627,16 @@
         <v>424</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9656,7 +9656,7 @@
       <c r="U155" s="39"/>
       <c r="V155" s="40"/>
       <c r="W155" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9664,16 +9664,16 @@
         <v>425</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>111</v>
+        <v>313</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9693,7 +9693,7 @@
       <c r="U156" s="39"/>
       <c r="V156" s="40"/>
       <c r="W156" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9701,16 +9701,16 @@
         <v>432</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>103</v>
+        <v>305</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>119</v>
+        <v>321</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9730,7 +9730,7 @@
       <c r="U157" s="39"/>
       <c r="V157" s="40"/>
       <c r="W157" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9738,16 +9738,16 @@
         <v>433</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>136</v>
+        <v>338</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -9767,7 +9767,7 @@
       <c r="U158" s="39"/>
       <c r="V158" s="40"/>
       <c r="W158" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9775,16 +9775,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>137</v>
+        <v>339</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -9804,7 +9804,7 @@
       <c r="U159" s="39"/>
       <c r="V159" s="40"/>
       <c r="W159" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9812,16 +9812,16 @@
         <v>435</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>106</v>
+        <v>308</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>138</v>
+        <v>340</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -9841,7 +9841,7 @@
       <c r="U160" s="39"/>
       <c r="V160" s="40"/>
       <c r="W160" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9849,16 +9849,16 @@
         <v>437</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>112</v>
+        <v>314</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -9878,7 +9878,7 @@
       <c r="U161" s="39"/>
       <c r="V161" s="40"/>
       <c r="W161" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9886,16 +9886,16 @@
         <v>438</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -9915,7 +9915,7 @@
       <c r="U162" s="39"/>
       <c r="V162" s="40"/>
       <c r="W162" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9923,16 +9923,16 @@
         <v>440</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>139</v>
+        <v>341</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -9952,7 +9952,7 @@
       <c r="U163" s="39"/>
       <c r="V163" s="40"/>
       <c r="W163" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9960,16 +9960,16 @@
         <v>441</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>140</v>
+        <v>342</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -9989,7 +9989,7 @@
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9997,16 +9997,16 @@
         <v>442</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>114</v>
+        <v>316</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>116</v>
+        <v>318</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -10026,7 +10026,7 @@
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10034,16 +10034,16 @@
         <v>443</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>117</v>
+        <v>319</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -10063,7 +10063,7 @@
       <c r="U166" s="39"/>
       <c r="V166" s="40"/>
       <c r="W166" s="38" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10071,16 +10071,16 @@
         <v>444</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -10100,7 +10100,7 @@
       <c r="U167" s="39"/>
       <c r="V167" s="40"/>
       <c r="W167" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10108,16 +10108,16 @@
         <v>445</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>299</v>
+        <v>115</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10137,7 +10137,7 @@
       <c r="U168" s="39"/>
       <c r="V168" s="40"/>
       <c r="W168" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10145,31 +10145,31 @@
         <v>448</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>3</v>
+        <v>371</v>
       </c>
       <c r="F169" s="37">
         <v>45779</v>
       </c>
       <c r="G169" s="37" t="s">
-        <v>58</v>
+        <v>426</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>59</v>
+        <v>427</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>60</v>
+        <v>428</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
@@ -10184,7 +10184,7 @@
       <c r="U169" s="39"/>
       <c r="V169" s="40"/>
       <c r="W169" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10192,31 +10192,31 @@
         <v>449</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>2</v>
+        <v>370</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="F170" s="37">
         <v>45779</v>
       </c>
       <c r="G170" s="37" t="s">
-        <v>62</v>
+        <v>430</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>61</v>
+        <v>429</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>63</v>
+        <v>431</v>
       </c>
       <c r="J170" s="38" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="38"/>
@@ -10231,7 +10231,7 @@
       <c r="U170" s="39"/>
       <c r="V170" s="40"/>
       <c r="W170" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10239,16 +10239,16 @@
         <v>450</v>
       </c>
       <c r="B171" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C171" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D171" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="C171" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D171" s="35" t="s">
-        <v>133</v>
-      </c>
       <c r="E171" s="43" t="s">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10268,7 +10268,7 @@
       <c r="U171" s="39"/>
       <c r="V171" s="40"/>
       <c r="W171" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10276,16 +10276,16 @@
         <v>451</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>134</v>
+        <v>336</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>145</v>
+        <v>347</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10305,7 +10305,7 @@
       <c r="U172" s="39"/>
       <c r="V172" s="40"/>
       <c r="W172" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10313,16 +10313,16 @@
         <v>452</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10342,7 +10342,7 @@
       <c r="U173" s="39"/>
       <c r="V173" s="40"/>
       <c r="W173" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10350,16 +10350,16 @@
         <v>454</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>154</v>
+        <v>356</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10379,7 +10379,7 @@
       <c r="U174" s="39"/>
       <c r="V174" s="40"/>
       <c r="W174" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10387,16 +10387,16 @@
         <v>455</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>155</v>
+        <v>357</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -10416,7 +10416,7 @@
       <c r="U175" s="39"/>
       <c r="V175" s="40"/>
       <c r="W175" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10424,16 +10424,16 @@
         <v>456</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>150</v>
+        <v>352</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>151</v>
+        <v>353</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -10453,7 +10453,7 @@
       <c r="U176" s="39"/>
       <c r="V176" s="40"/>
       <c r="W176" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10461,16 +10461,16 @@
         <v>457</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>153</v>
+        <v>355</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -10490,7 +10490,7 @@
       <c r="U177" s="39"/>
       <c r="V177" s="40"/>
       <c r="W177" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10498,16 +10498,16 @@
         <v>458</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>146</v>
+        <v>348</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -10527,7 +10527,7 @@
       <c r="U178" s="39"/>
       <c r="V178" s="40"/>
       <c r="W178" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10535,16 +10535,16 @@
         <v>459</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>147</v>
+        <v>349</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -10564,7 +10564,7 @@
       <c r="U179" s="39"/>
       <c r="V179" s="40"/>
       <c r="W179" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10572,16 +10572,16 @@
         <v>460</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -10601,7 +10601,7 @@
       <c r="U180" s="39"/>
       <c r="V180" s="40"/>
       <c r="W180" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10609,26 +10609,26 @@
         <v>461</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>6</v>
+        <v>374</v>
       </c>
       <c r="E181" s="43" t="s">
-        <v>5</v>
+        <v>373</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
       <c r="J181" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K181" s="38" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="L181" s="35"/>
       <c r="M181" s="38"/>
@@ -10642,7 +10642,7 @@
       <c r="U181" s="35"/>
       <c r="V181" s="35"/>
       <c r="W181" s="35" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10650,16 +10650,16 @@
         <v>462</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>9</v>
+        <v>377</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -10679,7 +10679,7 @@
       <c r="U182" s="35"/>
       <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10687,16 +10687,16 @@
         <v>463</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="E183" s="43" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -10716,7 +10716,7 @@
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
       <c r="W183" s="35" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10724,16 +10724,16 @@
         <v>464</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>13</v>
+        <v>381</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>14</v>
+        <v>382</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -10753,7 +10753,7 @@
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
       <c r="W184" s="35" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10761,16 +10761,16 @@
         <v>465</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>15</v>
+        <v>383</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>16</v>
+        <v>384</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -10790,7 +10790,7 @@
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
       <c r="W185" s="35" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10798,16 +10798,16 @@
         <v>466</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>25</v>
+        <v>393</v>
       </c>
       <c r="E186" s="44" t="s">
-        <v>35</v>
+        <v>403</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -10827,7 +10827,7 @@
       <c r="U186" s="35"/>
       <c r="V186" s="35"/>
       <c r="W186" s="35" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10835,16 +10835,16 @@
         <v>467</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="E187" s="43" t="s">
-        <v>18</v>
+        <v>386</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -10864,7 +10864,7 @@
       <c r="U187" s="35"/>
       <c r="V187" s="35"/>
       <c r="W187" s="35" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10872,29 +10872,29 @@
         <v>468</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="E188" s="43" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="F188" s="35"/>
       <c r="G188" s="35"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
       <c r="J188" s="38" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K188" s="38" t="s">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="L188" s="35" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -10907,7 +10907,7 @@
       <c r="U188" s="35"/>
       <c r="V188" s="35"/>
       <c r="W188" s="35" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10915,16 +10915,16 @@
         <v>469</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>21</v>
+        <v>389</v>
       </c>
       <c r="E189" s="43" t="s">
-        <v>22</v>
+        <v>390</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -10944,7 +10944,7 @@
       <c r="U189" s="35"/>
       <c r="V189" s="35"/>
       <c r="W189" s="35" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10952,16 +10952,16 @@
         <v>470</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>23</v>
+        <v>391</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>24</v>
+        <v>392</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -10981,7 +10981,7 @@
       <c r="U190" s="35"/>
       <c r="V190" s="35"/>
       <c r="W190" s="35" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10989,16 +10989,16 @@
         <v>471</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>36</v>
+        <v>404</v>
       </c>
       <c r="E191" s="43" t="s">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
@@ -11018,7 +11018,7 @@
       <c r="U191" s="39"/>
       <c r="V191" s="40"/>
       <c r="W191" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -11026,16 +11026,16 @@
         <v>472</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>42</v>
+        <v>410</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>43</v>
+        <v>411</v>
       </c>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
@@ -11055,7 +11055,7 @@
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193" spans="6:23" ht="14.25" customHeight="1">
@@ -15170,42 +15170,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -15236,162 +15236,162 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>118</v>
+        <v>320</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>316</v>
+        <v>132</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>296</v>
+        <v>112</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>40</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>7</v>
+        <v>375</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>26</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>122</v>
+        <v>324</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>27</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>28</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>126</v>
+        <v>328</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>29</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>125</v>
+        <v>327</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>30</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>124</v>
+        <v>326</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>121</v>
+        <v>323</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>32</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>33</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
       <c r="A10" s="5" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>279</v>
+        <v>95</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>280</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>8</v>
+        <v>376</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>34</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
@@ -16370,26 +16370,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>331</v>
+        <v>147</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>324</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>282</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -49,7 +49,830 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="459">
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
+  </si>
+  <si>
+    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
+  </si>
+  <si>
+    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
+  </si>
+  <si>
+    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
+  </si>
+  <si>
+    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
+  </si>
+  <si>
+    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
+  </si>
+  <si>
+    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
+  </si>
+  <si>
+    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
+  </si>
+  <si>
+    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
+  </si>
+  <si>
+    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>8.2.5</t>
+  </si>
+  <si>
+    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>471, 472</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC</t>
+  </si>
+  <si>
+    <t>subject_application_id: GMSoftFSE</t>
+  </si>
+  <si>
+    <t>subject_application_version: V.1.1.0</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-05-02T06:52:31.432+02:00</t>
+  </si>
+  <si>
+    <t>90df63df33ebf5f7a7ed0145f1bae84a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2def81c12d9d55998602ca3330968f008054bf144cb57455968dba34bac106f3.62d78dbc40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6a8b96336fc8b0d44bc495fed2f3447f</t>
+  </si>
+  <si>
+    <t>2025-05-02T12:14:46.970+02:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.eff4ea824427f41e2652ec40542c7f6ab8be63c5a4994df59144a1655a92bd1a.27ffbd6b7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
+  </si>
+  <si>
+    <t>c ampo obbligatorio</t>
+  </si>
+  <si>
+    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
+  </si>
+  <si>
+    <t>Il campo è valorizzabile tramite selezione da menù a tendina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il campo è valorizzabile tramite selezione da menù a tendina </t>
+  </si>
+  <si>
+    <t>altro (specificare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo inserisce in autonomia nel cda   &lt;signatureCode code="S" /&gt;  il valore S  se firmato digitalmente.  Se il medico non firma digitalmente  non verrà creato nessun cda. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>1c4f9dc87321a43715c4d51a0c8e748a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d00bf386ca43135a496231db428138fef4b349d48fa9bab3bc36193c727a0373.9e920da8d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-03T08:36:01.345+02:00</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>TIPO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>448, 449</t>
+  </si>
+  <si>
+    <t>450, 451</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>454, 455</t>
+  </si>
+  <si>
+    <t>456, 457</t>
+  </si>
+  <si>
+    <t>458, 459</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
+  </si>
+  <si>
+    <t>4, 452</t>
+  </si>
+  <si>
+    <t>417, 418, 419, 460</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
+  </si>
+  <si>
+    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
+Nome fornitore dell'applicativo
+nome applicazione: subject_application_id
+Nome fornitore: subject_application_vendor
+versione applicazione: subject_application_version
+</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAP_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
+  </si>
+  <si>
+    <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
+    DATA ESECUZIONE, 
+    TIMESTAMP, 
+    TRACEID,
+    WORKFLOWINSTANCEID (ove ritornato in response, qualora non ritornato il WORKFLOWINSTANCEID puo' essere lasciato blank), 
+    ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    ERRORE VISIBILE A UTENTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
+    GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT8_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT11_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT15_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT8_KO</t>
+  </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
@@ -923,820 +1746,6 @@
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT8_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT9_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT11_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT15_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT8_KO</t>
-  </si>
-  <si>
-    <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
-    DATA ESECUZIONE, 
-    TIMESTAMP, 
-    TRACEID,
-    WORKFLOWINSTANCEID (ove ritornato in response, qualora non ritornato il WORKFLOWINSTANCEID puo' essere lasciato blank), 
-    ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    ERRORE VISIBILE A UTENTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
-    GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
-  </si>
-  <si>
-    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
-Nome fornitore dell'applicativo
-nome applicazione: subject_application_id
-Nome fornitore: subject_application_vendor
-versione applicazione: subject_application_version
-</t>
-  </si>
-  <si>
-    <t>RAP</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_RAP_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>TIPO DOCUMENTO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>448, 449</t>
-  </si>
-  <si>
-    <t>450, 451</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>454, 455</t>
-  </si>
-  <si>
-    <t>456, 457</t>
-  </si>
-  <si>
-    <t>458, 459</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
-  </si>
-  <si>
-    <t>4, 452</t>
-  </si>
-  <si>
-    <t>417, 418, 419, 460</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
-  </si>
-  <si>
-    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
-  </si>
-  <si>
-    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
-  </si>
-  <si>
-    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
-  </si>
-  <si>
-    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
-  </si>
-  <si>
-    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
-  </si>
-  <si>
-    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
-  </si>
-  <si>
-    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
-  </si>
-  <si>
-    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
-  </si>
-  <si>
-    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>8.2.5</t>
-  </si>
-  <si>
-    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>471, 472</t>
-  </si>
-  <si>
-    <t>subject_application_vendor: GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC</t>
-  </si>
-  <si>
-    <t>subject_application_id: GMSoftFSE</t>
-  </si>
-  <si>
-    <t>subject_application_version: V.1.1.0</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2025-05-02T06:52:31.432+02:00</t>
-  </si>
-  <si>
-    <t>90df63df33ebf5f7a7ed0145f1bae84a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2def81c12d9d55998602ca3330968f008054bf144cb57455968dba34bac106f3.62d78dbc40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6a8b96336fc8b0d44bc495fed2f3447f</t>
-  </si>
-  <si>
-    <t>2025-05-02T12:14:46.970+02:00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.eff4ea824427f41e2652ec40542c7f6ab8be63c5a4994df59144a1655a92bd1a.27ffbd6b7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
-  </si>
-  <si>
-    <t>c ampo obbligatorio</t>
-  </si>
-  <si>
-    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
-  </si>
-  <si>
-    <t>Il campo è valorizzabile tramite selezione da menù a tendina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il campo è valorizzabile tramite selezione da menù a tendina </t>
-  </si>
-  <si>
-    <t>altro (specificare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'applicativo inserisce in autonomia nel cda   &lt;signatureCode code="S" /&gt;  il valore S  se firmato digitalmente.  Se il medico non firma digitalmente  non verrà creato nessun cda. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
 </sst>
 </file>
@@ -2745,37 +2754,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45">
       <c r="A4" s="2" t="s">
-        <v>409</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="210">
       <c r="A5" s="2" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90">
       <c r="A6" s="17" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2783,17 +2792,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2826,12 +2835,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2842,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
@@ -2850,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
@@ -2858,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
@@ -2866,7 +2875,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>127</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
@@ -2874,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2882,7 +2891,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>128</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3885,10 +3894,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L193" sqref="L193"/>
+      <selection pane="bottomRight" activeCell="K191" sqref="K191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3933,7 +3942,7 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3959,11 +3968,11 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>130</v>
+        <v>356</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>414</v>
+        <v>30</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="6"/>
@@ -3989,7 +3998,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="56" t="s">
-        <v>413</v>
+        <v>29</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="4"/>
@@ -4016,7 +4025,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>415</v>
+        <v>31</v>
       </c>
       <c r="D5" s="48"/>
       <c r="F5" s="6"/>
@@ -4106,73 +4115,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>141</v>
+        <v>367</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>100</v>
+        <v>326</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>142</v>
+        <v>368</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>143</v>
+        <v>369</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>147</v>
+        <v>373</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>150</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4180,16 +4189,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>333</v>
+        <v>91</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>334</v>
+        <v>92</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4209,7 +4218,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4217,16 +4226,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>159</v>
+        <v>385</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4246,7 +4255,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4254,16 +4263,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>162</v>
+        <v>388</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -4283,7 +4292,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4291,16 +4300,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4320,24 +4329,24 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A14" s="35">
         <v>31</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>165</v>
+        <v>391</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -4357,7 +4366,7 @@
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4365,16 +4374,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>167</v>
+        <v>393</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -4394,7 +4403,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4402,16 +4411,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>168</v>
+        <v>394</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4431,7 +4440,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4439,16 +4448,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4468,7 +4477,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4476,16 +4485,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -4505,7 +4514,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4513,16 +4522,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>171</v>
+        <v>397</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4542,7 +4551,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4550,16 +4559,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>173</v>
+        <v>399</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4579,7 +4588,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4587,16 +4596,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>174</v>
+        <v>400</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -4616,24 +4625,24 @@
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A22" s="35">
         <v>39</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>175</v>
+        <v>401</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -4653,7 +4662,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4661,16 +4670,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>176</v>
+        <v>402</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -4690,7 +4699,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4698,16 +4707,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>177</v>
+        <v>403</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4727,7 +4736,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4735,16 +4744,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>178</v>
+        <v>404</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4764,7 +4773,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4772,16 +4781,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>179</v>
+        <v>405</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4801,7 +4810,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4809,16 +4818,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>180</v>
+        <v>406</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4836,11 +4845,11 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4848,16 +4857,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4875,11 +4884,11 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4887,16 +4896,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4914,28 +4923,28 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A30" s="35">
         <v>47</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>184</v>
+        <v>410</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -4953,11 +4962,11 @@
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4965,16 +4974,16 @@
         <v>48</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -4992,11 +5001,11 @@
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5004,16 +5013,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>186</v>
+        <v>412</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -5031,11 +5040,11 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5043,16 +5052,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>187</v>
+        <v>413</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5070,11 +5079,11 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5082,16 +5091,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5109,11 +5118,11 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5121,16 +5130,16 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>406</v>
+        <v>22</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>407</v>
+        <v>23</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -5150,7 +5159,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5158,16 +5167,16 @@
         <v>55</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>189</v>
+        <v>415</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>190</v>
+        <v>416</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5187,7 +5196,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5195,16 +5204,16 @@
         <v>56</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>191</v>
+        <v>417</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>192</v>
+        <v>418</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5224,7 +5233,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5232,16 +5241,16 @@
         <v>57</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>193</v>
+        <v>419</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>194</v>
+        <v>420</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5261,7 +5270,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5269,16 +5278,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>195</v>
+        <v>421</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5298,7 +5307,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5306,16 +5315,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>197</v>
+        <v>423</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>198</v>
+        <v>424</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5335,7 +5344,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5343,16 +5352,16 @@
         <v>60</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5372,7 +5381,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5380,16 +5389,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5409,7 +5418,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5417,16 +5426,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5446,7 +5455,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5454,16 +5463,16 @@
         <v>64</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5483,7 +5492,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5491,16 +5500,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5520,7 +5529,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5528,16 +5537,16 @@
         <v>67</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>207</v>
+        <v>433</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5557,7 +5566,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5565,16 +5574,16 @@
         <v>68</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5594,7 +5603,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5602,16 +5611,16 @@
         <v>69</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5631,7 +5640,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5639,16 +5648,16 @@
         <v>70</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>210</v>
+        <v>436</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5668,7 +5677,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5676,16 +5685,16 @@
         <v>71</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5705,7 +5714,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5713,16 +5722,16 @@
         <v>72</v>
       </c>
       <c r="B51" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="E51" s="43" t="s">
         <v>151</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>262</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5742,7 +5751,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5750,16 +5759,16 @@
         <v>73</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5779,7 +5788,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5787,16 +5796,16 @@
         <v>74</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5816,24 +5825,24 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A54" s="35">
         <v>76</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -5853,24 +5862,24 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A55" s="35">
         <v>78</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>216</v>
+        <v>442</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>217</v>
+        <v>443</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5890,24 +5899,24 @@
       <c r="U55" s="39"/>
       <c r="V55" s="40"/>
       <c r="W55" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A56" s="35">
         <v>79</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C56" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="E56" s="43" t="s">
         <v>155</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>266</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -5927,24 +5936,24 @@
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A57" s="35">
         <v>80</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>219</v>
+        <v>445</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -5964,24 +5973,24 @@
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A58" s="35">
         <v>81</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -6001,24 +6010,24 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A59" s="35">
         <v>82</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>221</v>
+        <v>447</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -6038,24 +6047,24 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A60" s="35">
         <v>83</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>222</v>
+        <v>448</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>223</v>
+        <v>449</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -6075,24 +6084,24 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A61" s="35">
         <v>84</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>224</v>
+        <v>450</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>225</v>
+        <v>451</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -6112,24 +6121,24 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A62" s="35">
         <v>85</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>226</v>
+        <v>452</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -6149,24 +6158,24 @@
       <c r="U62" s="39"/>
       <c r="V62" s="40"/>
       <c r="W62" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A63" s="35">
         <v>86</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>227</v>
+        <v>453</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -6186,24 +6195,24 @@
       <c r="U63" s="39"/>
       <c r="V63" s="40"/>
       <c r="W63" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A64" s="35">
         <v>87</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>228</v>
+        <v>454</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -6223,24 +6232,24 @@
       <c r="U64" s="39"/>
       <c r="V64" s="40"/>
       <c r="W64" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A65" s="35">
         <v>88</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>416</v>
+        <v>32</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
@@ -6260,24 +6269,24 @@
       <c r="U65" s="39"/>
       <c r="V65" s="40"/>
       <c r="W65" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A66" s="35">
         <v>89</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>230</v>
+        <v>456</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>231</v>
+        <v>457</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -6297,24 +6306,24 @@
       <c r="U66" s="39"/>
       <c r="V66" s="40"/>
       <c r="W66" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A67" s="35">
         <v>90</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>232</v>
+        <v>458</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -6334,24 +6343,24 @@
       <c r="U67" s="39"/>
       <c r="V67" s="40"/>
       <c r="W67" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A68" s="35">
         <v>91</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>417</v>
+        <v>33</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -6371,24 +6380,24 @@
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A69" s="35">
         <v>92</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -6408,24 +6417,24 @@
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A70" s="35">
         <v>93</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>418</v>
+        <v>34</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -6445,7 +6454,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="40"/>
       <c r="W70" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6453,16 +6462,16 @@
         <v>95</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>419</v>
+        <v>35</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -6482,7 +6491,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="40"/>
       <c r="W71" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6490,16 +6499,16 @@
         <v>97</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>420</v>
+        <v>36</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -6519,7 +6528,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="40"/>
       <c r="W72" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6527,16 +6536,16 @@
         <v>98</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -6556,7 +6565,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="40"/>
       <c r="W73" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6564,16 +6573,16 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>422</v>
+        <v>38</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -6593,7 +6602,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="40"/>
       <c r="W74" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6601,16 +6610,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6630,7 +6639,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="40"/>
       <c r="W75" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6638,16 +6647,16 @@
         <v>101</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>423</v>
+        <v>39</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -6667,7 +6676,7 @@
       <c r="U76" s="39"/>
       <c r="V76" s="40"/>
       <c r="W76" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6675,16 +6684,16 @@
         <v>102</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -6704,7 +6713,7 @@
       <c r="U77" s="39"/>
       <c r="V77" s="40"/>
       <c r="W77" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6712,16 +6721,16 @@
         <v>103</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>425</v>
+        <v>41</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -6741,7 +6750,7 @@
       <c r="U78" s="39"/>
       <c r="V78" s="40"/>
       <c r="W78" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6749,16 +6758,16 @@
         <v>104</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6778,7 +6787,7 @@
       <c r="U79" s="39"/>
       <c r="V79" s="40"/>
       <c r="W79" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6786,16 +6795,16 @@
         <v>105</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -6815,7 +6824,7 @@
       <c r="U80" s="39"/>
       <c r="V80" s="40"/>
       <c r="W80" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6823,16 +6832,16 @@
         <v>106</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -6852,7 +6861,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="40"/>
       <c r="W81" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6860,16 +6869,16 @@
         <v>108</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -6889,7 +6898,7 @@
       <c r="U82" s="39"/>
       <c r="V82" s="40"/>
       <c r="W82" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6897,16 +6906,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -6926,7 +6935,7 @@
       <c r="U83" s="39"/>
       <c r="V83" s="40"/>
       <c r="W83" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6934,16 +6943,16 @@
         <v>111</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -6963,7 +6972,7 @@
       <c r="U84" s="39"/>
       <c r="V84" s="40"/>
       <c r="W84" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6971,16 +6980,16 @@
         <v>112</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7000,7 +7009,7 @@
       <c r="U85" s="39"/>
       <c r="V85" s="40"/>
       <c r="W85" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7008,16 +7017,16 @@
         <v>113</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7037,7 +7046,7 @@
       <c r="U86" s="39"/>
       <c r="V86" s="40"/>
       <c r="W86" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7045,16 +7054,16 @@
         <v>114</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7074,7 +7083,7 @@
       <c r="U87" s="39"/>
       <c r="V87" s="40"/>
       <c r="W87" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7082,16 +7091,16 @@
         <v>115</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7111,7 +7120,7 @@
       <c r="U88" s="39"/>
       <c r="V88" s="40"/>
       <c r="W88" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7119,16 +7128,16 @@
         <v>116</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7148,7 +7157,7 @@
       <c r="U89" s="39"/>
       <c r="V89" s="40"/>
       <c r="W89" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7156,16 +7165,16 @@
         <v>117</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>432</v>
+        <v>48</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7185,7 +7194,7 @@
       <c r="U90" s="39"/>
       <c r="V90" s="40"/>
       <c r="W90" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7193,16 +7202,16 @@
         <v>118</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>433</v>
+        <v>49</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -7222,7 +7231,7 @@
       <c r="U91" s="39"/>
       <c r="V91" s="40"/>
       <c r="W91" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7230,16 +7239,16 @@
         <v>119</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>434</v>
+        <v>50</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -7259,7 +7268,7 @@
       <c r="U92" s="39"/>
       <c r="V92" s="40"/>
       <c r="W92" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7267,16 +7276,16 @@
         <v>120</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>435</v>
+        <v>51</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -7296,7 +7305,7 @@
       <c r="U93" s="39"/>
       <c r="V93" s="40"/>
       <c r="W93" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7304,16 +7313,16 @@
         <v>121</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>436</v>
+        <v>52</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -7333,7 +7342,7 @@
       <c r="U94" s="39"/>
       <c r="V94" s="40"/>
       <c r="W94" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7341,16 +7350,16 @@
         <v>123</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7370,7 +7379,7 @@
       <c r="U95" s="39"/>
       <c r="V95" s="40"/>
       <c r="W95" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7378,16 +7387,16 @@
         <v>125</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>437</v>
+        <v>53</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -7407,7 +7416,7 @@
       <c r="U96" s="39"/>
       <c r="V96" s="40"/>
       <c r="W96" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7415,16 +7424,16 @@
         <v>126</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7444,7 +7453,7 @@
       <c r="U97" s="39"/>
       <c r="V97" s="40"/>
       <c r="W97" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7452,16 +7461,16 @@
         <v>127</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7481,7 +7490,7 @@
       <c r="U98" s="39"/>
       <c r="V98" s="40"/>
       <c r="W98" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7489,16 +7498,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7518,7 +7527,7 @@
       <c r="U99" s="39"/>
       <c r="V99" s="40"/>
       <c r="W99" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7526,16 +7535,16 @@
         <v>129</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>438</v>
+        <v>54</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -7555,7 +7564,7 @@
       <c r="U100" s="39"/>
       <c r="V100" s="40"/>
       <c r="W100" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7563,16 +7572,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7592,7 +7601,7 @@
       <c r="U101" s="39"/>
       <c r="V101" s="40"/>
       <c r="W101" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7600,16 +7609,16 @@
         <v>131</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7629,7 +7638,7 @@
       <c r="U102" s="39"/>
       <c r="V102" s="40"/>
       <c r="W102" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7637,16 +7646,16 @@
         <v>132</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7666,7 +7675,7 @@
       <c r="U103" s="39"/>
       <c r="V103" s="40"/>
       <c r="W103" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7674,16 +7683,16 @@
         <v>133</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -7703,7 +7712,7 @@
       <c r="U104" s="39"/>
       <c r="V104" s="40"/>
       <c r="W104" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7711,16 +7720,16 @@
         <v>134</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -7740,7 +7749,7 @@
       <c r="U105" s="39"/>
       <c r="V105" s="40"/>
       <c r="W105" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7748,16 +7757,16 @@
         <v>135</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7777,7 +7786,7 @@
       <c r="U106" s="39"/>
       <c r="V106" s="40"/>
       <c r="W106" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7785,16 +7794,16 @@
         <v>136</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -7814,7 +7823,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="40"/>
       <c r="W107" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7822,16 +7831,16 @@
         <v>137</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>366</v>
+        <v>124</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -7851,7 +7860,7 @@
       <c r="U108" s="39"/>
       <c r="V108" s="40"/>
       <c r="W108" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7859,16 +7868,16 @@
         <v>138</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -7888,7 +7897,7 @@
       <c r="U109" s="39"/>
       <c r="V109" s="40"/>
       <c r="W109" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7896,16 +7905,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -7925,7 +7934,7 @@
       <c r="U110" s="39"/>
       <c r="V110" s="40"/>
       <c r="W110" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7933,16 +7942,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -7962,7 +7971,7 @@
       <c r="U111" s="39"/>
       <c r="V111" s="40"/>
       <c r="W111" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7970,16 +7979,16 @@
         <v>141</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>364</v>
+        <v>122</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -7999,7 +8008,7 @@
       <c r="U112" s="39"/>
       <c r="V112" s="40"/>
       <c r="W112" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8007,16 +8016,16 @@
         <v>142</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>46</v>
+        <v>272</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8036,7 +8045,7 @@
       <c r="U113" s="39"/>
       <c r="V113" s="40"/>
       <c r="W113" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8044,16 +8053,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>47</v>
+        <v>273</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>48</v>
+        <v>274</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8073,7 +8082,7 @@
       <c r="U114" s="39"/>
       <c r="V114" s="40"/>
       <c r="W114" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8081,16 +8090,16 @@
         <v>144</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8110,7 +8119,7 @@
       <c r="U115" s="39"/>
       <c r="V115" s="40"/>
       <c r="W115" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8118,16 +8127,16 @@
         <v>145</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>439</v>
+        <v>55</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -8147,7 +8156,7 @@
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
       <c r="W116" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8155,16 +8164,16 @@
         <v>146</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8184,7 +8193,7 @@
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
       <c r="W117" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8192,26 +8201,26 @@
         <v>152</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="42"/>
       <c r="J118" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K118" s="38" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="L118" s="38"/>
       <c r="M118" s="38"/>
@@ -8225,7 +8234,7 @@
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
       <c r="W118" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8233,26 +8242,26 @@
         <v>154</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="42"/>
       <c r="J119" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K119" s="38" t="s">
-        <v>442</v>
+        <v>58</v>
       </c>
       <c r="L119" s="38"/>
       <c r="M119" s="38"/>
@@ -8266,7 +8275,7 @@
       <c r="U119" s="39"/>
       <c r="V119" s="40"/>
       <c r="W119" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8274,26 +8283,26 @@
         <v>155</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="42"/>
       <c r="J120" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K120" s="38" t="s">
-        <v>442</v>
+        <v>58</v>
       </c>
       <c r="L120" s="38"/>
       <c r="M120" s="38"/>
@@ -8307,7 +8316,7 @@
       <c r="U120" s="39"/>
       <c r="V120" s="40"/>
       <c r="W120" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8315,26 +8324,26 @@
         <v>156</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="42"/>
       <c r="J121" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K121" s="38" t="s">
-        <v>444</v>
+        <v>60</v>
       </c>
       <c r="L121" s="38"/>
       <c r="M121" s="38"/>
@@ -8348,7 +8357,7 @@
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
       <c r="W121" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8356,26 +8365,26 @@
         <v>158</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="42"/>
       <c r="J122" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K122" s="38" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="L122" s="38"/>
       <c r="M122" s="38"/>
@@ -8389,7 +8398,7 @@
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
       <c r="W122" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8397,26 +8406,26 @@
         <v>159</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
       <c r="J123" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K123" s="38" t="s">
-        <v>441</v>
+        <v>57</v>
       </c>
       <c r="L123" s="38"/>
       <c r="M123" s="38"/>
@@ -8430,7 +8439,7 @@
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
       <c r="W123" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8438,26 +8447,26 @@
         <v>160</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="42"/>
       <c r="J124" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K124" s="38" t="s">
-        <v>440</v>
+        <v>56</v>
       </c>
       <c r="L124" s="38"/>
       <c r="M124" s="38"/>
@@ -8471,7 +8480,7 @@
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
       <c r="W124" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8479,26 +8488,26 @@
         <v>161</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>344</v>
+        <v>102</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
       <c r="J125" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K125" s="38" t="s">
-        <v>442</v>
+        <v>58</v>
       </c>
       <c r="L125" s="38"/>
       <c r="M125" s="38"/>
@@ -8512,7 +8521,7 @@
       <c r="U125" s="39"/>
       <c r="V125" s="40"/>
       <c r="W125" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8520,26 +8529,26 @@
         <v>162</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>345</v>
+        <v>103</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
       <c r="J126" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K126" s="38" t="s">
-        <v>442</v>
+        <v>58</v>
       </c>
       <c r="L126" s="38"/>
       <c r="M126" s="38"/>
@@ -8553,7 +8562,7 @@
       <c r="U126" s="39"/>
       <c r="V126" s="40"/>
       <c r="W126" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8561,26 +8570,26 @@
         <v>163</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
       <c r="J127" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K127" s="38" t="s">
-        <v>444</v>
+        <v>60</v>
       </c>
       <c r="L127" s="38"/>
       <c r="M127" s="38"/>
@@ -8594,7 +8603,7 @@
       <c r="U127" s="39"/>
       <c r="V127" s="40"/>
       <c r="W127" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8602,26 +8611,26 @@
         <v>164</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>359</v>
+        <v>117</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
       <c r="J128" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K128" s="38" t="s">
-        <v>442</v>
+        <v>58</v>
       </c>
       <c r="L128" s="38"/>
       <c r="M128" s="38"/>
@@ -8635,7 +8644,7 @@
       <c r="U128" s="39"/>
       <c r="V128" s="40"/>
       <c r="W128" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8643,26 +8652,26 @@
         <v>165</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>360</v>
+        <v>118</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
       <c r="J129" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K129" s="38" t="s">
-        <v>444</v>
+        <v>60</v>
       </c>
       <c r="L129" s="38"/>
       <c r="M129" s="38"/>
@@ -8676,7 +8685,7 @@
       <c r="U129" s="39"/>
       <c r="V129" s="40"/>
       <c r="W129" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8684,26 +8693,26 @@
         <v>166</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>361</v>
+        <v>119</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="42"/>
       <c r="J130" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K130" s="38" t="s">
-        <v>443</v>
+        <v>59</v>
       </c>
       <c r="L130" s="38"/>
       <c r="M130" s="38"/>
@@ -8717,7 +8726,7 @@
       <c r="U130" s="39"/>
       <c r="V130" s="40"/>
       <c r="W130" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8725,26 +8734,26 @@
         <v>167</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>68</v>
+        <v>294</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>362</v>
+        <v>120</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
       <c r="J131" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K131" s="38" t="s">
-        <v>444</v>
+        <v>60</v>
       </c>
       <c r="L131" s="38"/>
       <c r="M131" s="38"/>
@@ -8758,7 +8767,7 @@
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
       <c r="W131" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8766,26 +8775,26 @@
         <v>168</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>363</v>
+        <v>121</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
       <c r="J132" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K132" s="38" t="s">
-        <v>444</v>
+        <v>60</v>
       </c>
       <c r="L132" s="38"/>
       <c r="M132" s="38"/>
@@ -8799,7 +8808,7 @@
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
       <c r="W132" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8807,29 +8816,29 @@
         <v>169</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>365</v>
+        <v>123</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
       <c r="J133" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K133" s="38" t="s">
-        <v>446</v>
+        <v>62</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -8842,7 +8851,7 @@
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
       <c r="W133" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8850,16 +8859,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -8879,7 +8888,7 @@
       <c r="U134" s="39"/>
       <c r="V134" s="40"/>
       <c r="W134" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8887,16 +8896,16 @@
         <v>177</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -8916,7 +8925,7 @@
       <c r="U135" s="39"/>
       <c r="V135" s="40"/>
       <c r="W135" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8924,16 +8933,16 @@
         <v>178</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -8953,7 +8962,7 @@
       <c r="U136" s="39"/>
       <c r="V136" s="40"/>
       <c r="W136" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8961,16 +8970,16 @@
         <v>179</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>448</v>
+        <v>64</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -8990,7 +8999,7 @@
       <c r="U137" s="39"/>
       <c r="V137" s="40"/>
       <c r="W137" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8998,16 +9007,16 @@
         <v>180</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>449</v>
+        <v>65</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -9027,7 +9036,7 @@
       <c r="U138" s="39"/>
       <c r="V138" s="40"/>
       <c r="W138" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9035,16 +9044,16 @@
         <v>181</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -9064,7 +9073,7 @@
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
       <c r="W139" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9072,16 +9081,16 @@
         <v>182</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>450</v>
+        <v>66</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -9101,7 +9110,7 @@
       <c r="U140" s="39"/>
       <c r="V140" s="40"/>
       <c r="W140" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9109,16 +9118,16 @@
         <v>183</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>451</v>
+        <v>67</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -9138,7 +9147,7 @@
       <c r="U141" s="39"/>
       <c r="V141" s="40"/>
       <c r="W141" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9146,16 +9155,16 @@
         <v>184</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>452</v>
+        <v>68</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -9175,7 +9184,7 @@
       <c r="U142" s="39"/>
       <c r="V142" s="40"/>
       <c r="W142" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9183,16 +9192,16 @@
         <v>185</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>453</v>
+        <v>69</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -9212,7 +9221,7 @@
       <c r="U143" s="39"/>
       <c r="V143" s="40"/>
       <c r="W143" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9220,16 +9229,16 @@
         <v>186</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>454</v>
+        <v>70</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -9249,7 +9258,7 @@
       <c r="U144" s="39"/>
       <c r="V144" s="40"/>
       <c r="W144" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9257,16 +9266,16 @@
         <v>187</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>455</v>
+        <v>71</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -9286,7 +9295,7 @@
       <c r="U145" s="39"/>
       <c r="V145" s="40"/>
       <c r="W145" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9294,16 +9303,16 @@
         <v>188</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9323,7 +9332,7 @@
       <c r="U146" s="39"/>
       <c r="V146" s="40"/>
       <c r="W146" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9331,16 +9340,16 @@
         <v>189</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9360,7 +9369,7 @@
       <c r="U147" s="39"/>
       <c r="V147" s="40"/>
       <c r="W147" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9368,16 +9377,16 @@
         <v>190</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9397,7 +9406,7 @@
       <c r="U148" s="39"/>
       <c r="V148" s="40"/>
       <c r="W148" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9405,16 +9414,16 @@
         <v>191</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9434,7 +9443,7 @@
       <c r="U149" s="39"/>
       <c r="V149" s="40"/>
       <c r="W149" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9442,16 +9451,16 @@
         <v>376</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9471,7 +9480,7 @@
       <c r="U150" s="39"/>
       <c r="V150" s="40"/>
       <c r="W150" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9479,16 +9488,16 @@
         <v>417</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -9508,7 +9517,7 @@
       <c r="U151" s="39"/>
       <c r="V151" s="40"/>
       <c r="W151" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9516,16 +9525,16 @@
         <v>418</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -9545,7 +9554,7 @@
       <c r="U152" s="39"/>
       <c r="V152" s="40"/>
       <c r="W152" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9553,16 +9562,16 @@
         <v>419</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>343</v>
+        <v>101</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9582,7 +9591,7 @@
       <c r="U153" s="39"/>
       <c r="V153" s="40"/>
       <c r="W153" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9590,16 +9599,16 @@
         <v>423</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9619,7 +9628,7 @@
       <c r="U154" s="39"/>
       <c r="V154" s="40"/>
       <c r="W154" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9627,16 +9636,16 @@
         <v>424</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9656,7 +9665,7 @@
       <c r="U155" s="39"/>
       <c r="V155" s="40"/>
       <c r="W155" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9664,16 +9673,16 @@
         <v>425</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>304</v>
+        <v>193</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9693,7 +9702,7 @@
       <c r="U156" s="39"/>
       <c r="V156" s="40"/>
       <c r="W156" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9701,16 +9710,16 @@
         <v>432</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9730,7 +9739,7 @@
       <c r="U157" s="39"/>
       <c r="V157" s="40"/>
       <c r="W157" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9738,16 +9747,16 @@
         <v>433</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>306</v>
+        <v>195</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>338</v>
+        <v>96</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -9767,7 +9776,7 @@
       <c r="U158" s="39"/>
       <c r="V158" s="40"/>
       <c r="W158" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9775,16 +9784,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>339</v>
+        <v>97</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -9804,7 +9813,7 @@
       <c r="U159" s="39"/>
       <c r="V159" s="40"/>
       <c r="W159" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9812,16 +9821,16 @@
         <v>435</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>308</v>
+        <v>197</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>340</v>
+        <v>98</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -9841,7 +9850,7 @@
       <c r="U160" s="39"/>
       <c r="V160" s="40"/>
       <c r="W160" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9849,16 +9858,16 @@
         <v>437</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>314</v>
+        <v>203</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -9878,7 +9887,7 @@
       <c r="U161" s="39"/>
       <c r="V161" s="40"/>
       <c r="W161" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9886,16 +9895,16 @@
         <v>438</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>315</v>
+        <v>204</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -9915,7 +9924,7 @@
       <c r="U162" s="39"/>
       <c r="V162" s="40"/>
       <c r="W162" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9923,16 +9932,16 @@
         <v>440</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>341</v>
+        <v>99</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -9952,7 +9961,7 @@
       <c r="U163" s="39"/>
       <c r="V163" s="40"/>
       <c r="W163" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9960,16 +9969,16 @@
         <v>441</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -9989,7 +9998,7 @@
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9997,16 +10006,16 @@
         <v>442</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>316</v>
+        <v>205</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -10026,7 +10035,7 @@
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10034,16 +10043,16 @@
         <v>443</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -10063,7 +10072,7 @@
       <c r="U166" s="39"/>
       <c r="V166" s="40"/>
       <c r="W166" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10071,16 +10080,16 @@
         <v>444</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -10100,7 +10109,7 @@
       <c r="U167" s="39"/>
       <c r="V167" s="40"/>
       <c r="W167" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10108,16 +10117,16 @@
         <v>445</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>72</v>
+        <v>298</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10137,7 +10146,7 @@
       <c r="U168" s="39"/>
       <c r="V168" s="40"/>
       <c r="W168" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10145,31 +10154,31 @@
         <v>448</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>369</v>
+        <v>127</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>371</v>
+        <v>129</v>
       </c>
       <c r="F169" s="37">
         <v>45779</v>
       </c>
       <c r="G169" s="37" t="s">
-        <v>426</v>
+        <v>42</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>427</v>
+        <v>43</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
@@ -10184,7 +10193,7 @@
       <c r="U169" s="39"/>
       <c r="V169" s="40"/>
       <c r="W169" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10192,31 +10201,31 @@
         <v>449</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>370</v>
+        <v>128</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="F170" s="37">
         <v>45779</v>
       </c>
       <c r="G170" s="37" t="s">
-        <v>430</v>
+        <v>46</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>431</v>
+        <v>47</v>
       </c>
       <c r="J170" s="38" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="38"/>
@@ -10231,7 +10240,7 @@
       <c r="U170" s="39"/>
       <c r="V170" s="40"/>
       <c r="W170" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10239,16 +10248,16 @@
         <v>450</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>337</v>
+        <v>95</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10268,7 +10277,7 @@
       <c r="U171" s="39"/>
       <c r="V171" s="40"/>
       <c r="W171" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10276,16 +10285,16 @@
         <v>451</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>336</v>
+        <v>94</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10305,7 +10314,7 @@
       <c r="U172" s="39"/>
       <c r="V172" s="40"/>
       <c r="W172" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10313,16 +10322,16 @@
         <v>452</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>331</v>
+        <v>89</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>332</v>
+        <v>90</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10342,7 +10351,7 @@
       <c r="U173" s="39"/>
       <c r="V173" s="40"/>
       <c r="W173" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10350,16 +10359,16 @@
         <v>454</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>356</v>
+        <v>114</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>368</v>
+        <v>126</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10379,7 +10388,7 @@
       <c r="U174" s="39"/>
       <c r="V174" s="40"/>
       <c r="W174" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10387,16 +10396,16 @@
         <v>455</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>357</v>
+        <v>115</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>358</v>
+        <v>116</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -10416,7 +10425,7 @@
       <c r="U175" s="39"/>
       <c r="V175" s="40"/>
       <c r="W175" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10424,16 +10433,16 @@
         <v>456</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>352</v>
+        <v>110</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>353</v>
+        <v>111</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -10453,7 +10462,7 @@
       <c r="U176" s="39"/>
       <c r="V176" s="40"/>
       <c r="W176" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10461,16 +10470,16 @@
         <v>457</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>354</v>
+        <v>112</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -10490,7 +10499,7 @@
       <c r="U177" s="39"/>
       <c r="V177" s="40"/>
       <c r="W177" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10498,16 +10507,16 @@
         <v>458</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>348</v>
+        <v>106</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -10527,7 +10536,7 @@
       <c r="U178" s="39"/>
       <c r="V178" s="40"/>
       <c r="W178" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10535,16 +10544,16 @@
         <v>459</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>349</v>
+        <v>107</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -10564,7 +10573,7 @@
       <c r="U179" s="39"/>
       <c r="V179" s="40"/>
       <c r="W179" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10572,16 +10581,16 @@
         <v>460</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -10601,7 +10610,7 @@
       <c r="U180" s="39"/>
       <c r="V180" s="40"/>
       <c r="W180" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10609,26 +10618,26 @@
         <v>461</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>374</v>
+        <v>132</v>
       </c>
       <c r="E181" s="43" t="s">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
       <c r="J181" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K181" s="38" t="s">
-        <v>444</v>
+        <v>60</v>
       </c>
       <c r="L181" s="35"/>
       <c r="M181" s="38"/>
@@ -10642,24 +10651,24 @@
       <c r="U181" s="35"/>
       <c r="V181" s="35"/>
       <c r="W181" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A182" s="35">
         <v>462</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>377</v>
+        <v>135</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>378</v>
+        <v>136</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -10679,7 +10688,7 @@
       <c r="U182" s="35"/>
       <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10687,16 +10696,16 @@
         <v>463</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>379</v>
+        <v>137</v>
       </c>
       <c r="E183" s="43" t="s">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -10716,7 +10725,7 @@
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
       <c r="W183" s="35" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10724,16 +10733,16 @@
         <v>464</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>381</v>
+        <v>139</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>382</v>
+        <v>140</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -10753,7 +10762,7 @@
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
       <c r="W184" s="35" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10761,16 +10770,16 @@
         <v>465</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>383</v>
+        <v>141</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -10790,7 +10799,7 @@
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
       <c r="W185" s="35" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10798,16 +10807,16 @@
         <v>466</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="E186" s="44" t="s">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -10827,7 +10836,7 @@
       <c r="U186" s="35"/>
       <c r="V186" s="35"/>
       <c r="W186" s="35" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10835,16 +10844,16 @@
         <v>467</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>385</v>
+        <v>1</v>
       </c>
       <c r="E187" s="43" t="s">
-        <v>386</v>
+        <v>2</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -10864,7 +10873,7 @@
       <c r="U187" s="35"/>
       <c r="V187" s="35"/>
       <c r="W187" s="35" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10872,29 +10881,29 @@
         <v>468</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>387</v>
+        <v>3</v>
       </c>
       <c r="E188" s="43" t="s">
-        <v>388</v>
+        <v>4</v>
       </c>
       <c r="F188" s="35"/>
       <c r="G188" s="35"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
       <c r="J188" s="38" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K188" s="38" t="s">
-        <v>446</v>
+        <v>62</v>
       </c>
       <c r="L188" s="35" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -10907,7 +10916,7 @@
       <c r="U188" s="35"/>
       <c r="V188" s="35"/>
       <c r="W188" s="35" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10915,16 +10924,16 @@
         <v>469</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>389</v>
+        <v>5</v>
       </c>
       <c r="E189" s="43" t="s">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -10944,7 +10953,7 @@
       <c r="U189" s="35"/>
       <c r="V189" s="35"/>
       <c r="W189" s="35" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10952,16 +10961,16 @@
         <v>470</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>391</v>
+        <v>7</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>392</v>
+        <v>8</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -10981,30 +10990,38 @@
       <c r="U190" s="35"/>
       <c r="V190" s="35"/>
       <c r="W190" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A191" s="35">
         <v>471</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="E191" s="43" t="s">
-        <v>405</v>
+        <v>21</v>
       </c>
       <c r="F191" s="37"/>
-      <c r="G191" s="37"/>
-      <c r="H191" s="37"/>
-      <c r="I191" s="42"/>
-      <c r="J191" s="38"/>
+      <c r="G191" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H191" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I191" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="J191" s="38" t="s">
+        <v>407</v>
+      </c>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
       <c r="M191" s="38"/>
@@ -11018,24 +11035,24 @@
       <c r="U191" s="39"/>
       <c r="V191" s="40"/>
       <c r="W191" s="38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A192" s="35">
         <v>472</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>410</v>
+        <v>26</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>411</v>
+        <v>27</v>
       </c>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
@@ -11055,7 +11072,7 @@
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="6:23" ht="14.25" customHeight="1">
@@ -15139,6 +15156,7 @@
     <filterColumn colId="2">
       <filters>
         <filter val="RSA"/>
+        <filter val="RAD"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15170,42 +15188,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -15236,162 +15254,162 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>92</v>
+        <v>318</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>408</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>375</v>
+        <v>133</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>394</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>395</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>396</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>328</v>
+        <v>86</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>397</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>327</v>
+        <v>85</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>398</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>326</v>
+        <v>84</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>399</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>401</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
       <c r="A10" s="5" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>376</v>
+        <v>134</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>402</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
@@ -16370,26 +16388,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>373</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="462">
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
@@ -309,6 +309,15 @@
   </si>
   <si>
     <t>2025-05-03T08:36:01.345+02:00</t>
+  </si>
+  <si>
+    <t>2025-05-03T10:36:14.372+02:00</t>
+  </si>
+  <si>
+    <t>68a0bebcfc31b479a1d5ea3352dfa0b7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.60966b11cabe953ab58d38ba3ee371d39d6adc7047e3feb7ed1fca9ff2ed5203.0d664c84c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
@@ -2754,17 +2763,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45">
@@ -2774,17 +2783,17 @@
     </row>
     <row r="5" spans="1:1" ht="210">
       <c r="A5" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90">
       <c r="A6" s="17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2792,17 +2801,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2835,12 +2844,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2851,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
@@ -2859,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
@@ -2867,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
@@ -2875,7 +2884,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
@@ -2883,7 +2892,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2891,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3894,10 +3903,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K191" sqref="K191"/>
+      <selection pane="bottomRight" activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3942,7 +3951,7 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3968,7 +3977,7 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
@@ -4115,73 +4124,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4189,16 +4198,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4218,7 +4227,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4226,16 +4235,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4255,7 +4264,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4263,16 +4272,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -4292,7 +4301,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4300,16 +4309,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C13" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>389</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>386</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4329,7 +4338,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4337,16 +4346,16 @@
         <v>31</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -4366,7 +4375,7 @@
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4374,16 +4383,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -4403,7 +4412,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4411,16 +4420,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4440,7 +4449,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4448,16 +4457,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4477,7 +4486,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4485,16 +4494,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -4514,7 +4523,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4522,16 +4531,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4551,7 +4560,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4559,16 +4568,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4588,7 +4597,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4596,16 +4605,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -4625,7 +4634,7 @@
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4633,16 +4642,16 @@
         <v>39</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D22" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>401</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>398</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -4662,7 +4671,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4670,16 +4679,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -4699,7 +4708,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4707,16 +4716,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4736,7 +4745,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4744,16 +4753,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4773,7 +4782,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4781,16 +4790,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4810,7 +4819,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4818,16 +4827,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4845,11 +4854,11 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4857,16 +4866,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4884,11 +4893,11 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4896,16 +4905,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4923,11 +4932,11 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4935,16 +4944,16 @@
         <v>47</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -4962,11 +4971,11 @@
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4974,16 +4983,16 @@
         <v>48</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -5001,11 +5010,11 @@
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5013,16 +5022,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -5040,11 +5049,11 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5052,16 +5061,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5079,11 +5088,11 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5091,16 +5100,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5118,11 +5127,11 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5130,10 +5139,10 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>22</v>
@@ -5159,7 +5168,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5167,16 +5176,16 @@
         <v>55</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5196,7 +5205,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5204,16 +5213,16 @@
         <v>56</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5233,7 +5242,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5241,16 +5250,16 @@
         <v>57</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5270,7 +5279,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5278,16 +5287,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5307,7 +5316,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5315,16 +5324,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5344,7 +5353,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5352,16 +5361,16 @@
         <v>60</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5381,7 +5390,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5389,16 +5398,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5418,7 +5427,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5426,16 +5435,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5455,7 +5464,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5463,16 +5472,16 @@
         <v>64</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5492,7 +5501,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5500,16 +5509,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5529,7 +5538,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5537,16 +5546,16 @@
         <v>67</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5566,7 +5575,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5574,16 +5583,16 @@
         <v>68</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5603,7 +5612,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5611,16 +5620,16 @@
         <v>69</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5640,7 +5649,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5648,16 +5657,16 @@
         <v>70</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5677,7 +5686,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5685,16 +5694,16 @@
         <v>71</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5714,7 +5723,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5722,16 +5731,16 @@
         <v>72</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5751,7 +5760,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5759,16 +5768,16 @@
         <v>73</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5788,7 +5797,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5796,16 +5805,16 @@
         <v>74</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5825,7 +5834,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5833,16 +5842,16 @@
         <v>76</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -5862,7 +5871,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5870,16 +5879,16 @@
         <v>78</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5899,7 +5908,7 @@
       <c r="U55" s="39"/>
       <c r="V55" s="40"/>
       <c r="W55" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5907,16 +5916,16 @@
         <v>79</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -5936,7 +5945,7 @@
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5944,16 +5953,16 @@
         <v>80</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -5973,7 +5982,7 @@
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5981,16 +5990,16 @@
         <v>81</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -6010,7 +6019,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6018,16 +6027,16 @@
         <v>82</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -6047,7 +6056,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6055,16 +6064,16 @@
         <v>83</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -6084,7 +6093,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6092,16 +6101,16 @@
         <v>84</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -6121,7 +6130,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6129,16 +6138,16 @@
         <v>85</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -6158,7 +6167,7 @@
       <c r="U62" s="39"/>
       <c r="V62" s="40"/>
       <c r="W62" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6166,16 +6175,16 @@
         <v>86</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -6195,7 +6204,7 @@
       <c r="U63" s="39"/>
       <c r="V63" s="40"/>
       <c r="W63" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6203,16 +6212,16 @@
         <v>87</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -6232,7 +6241,7 @@
       <c r="U64" s="39"/>
       <c r="V64" s="40"/>
       <c r="W64" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6240,13 +6249,13 @@
         <v>88</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>32</v>
@@ -6269,7 +6278,7 @@
       <c r="U65" s="39"/>
       <c r="V65" s="40"/>
       <c r="W65" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6277,16 +6286,16 @@
         <v>89</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -6306,7 +6315,7 @@
       <c r="U66" s="39"/>
       <c r="V66" s="40"/>
       <c r="W66" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6314,16 +6323,16 @@
         <v>90</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -6343,7 +6352,7 @@
       <c r="U67" s="39"/>
       <c r="V67" s="40"/>
       <c r="W67" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6351,13 +6360,13 @@
         <v>91</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E68" s="43" t="s">
         <v>33</v>
@@ -6380,7 +6389,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6388,16 +6397,16 @@
         <v>92</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -6417,7 +6426,7 @@
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6425,13 +6434,13 @@
         <v>93</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E70" s="43" t="s">
         <v>34</v>
@@ -6454,7 +6463,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="40"/>
       <c r="W70" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6462,13 +6471,13 @@
         <v>95</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E71" s="43" t="s">
         <v>35</v>
@@ -6491,7 +6500,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="40"/>
       <c r="W71" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6499,13 +6508,13 @@
         <v>97</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E72" s="43" t="s">
         <v>36</v>
@@ -6528,7 +6537,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="40"/>
       <c r="W72" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6536,13 +6545,13 @@
         <v>98</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>37</v>
@@ -6565,7 +6574,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="40"/>
       <c r="W73" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6573,13 +6582,13 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>38</v>
@@ -6602,7 +6611,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="40"/>
       <c r="W74" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6610,16 +6619,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6639,7 +6648,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="40"/>
       <c r="W75" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6647,13 +6656,13 @@
         <v>101</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E76" s="43" t="s">
         <v>39</v>
@@ -6676,7 +6685,7 @@
       <c r="U76" s="39"/>
       <c r="V76" s="40"/>
       <c r="W76" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6684,13 +6693,13 @@
         <v>102</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E77" s="43" t="s">
         <v>40</v>
@@ -6713,7 +6722,7 @@
       <c r="U77" s="39"/>
       <c r="V77" s="40"/>
       <c r="W77" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6721,13 +6730,13 @@
         <v>103</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E78" s="43" t="s">
         <v>41</v>
@@ -6750,7 +6759,7 @@
       <c r="U78" s="39"/>
       <c r="V78" s="40"/>
       <c r="W78" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6758,16 +6767,16 @@
         <v>104</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6787,7 +6796,7 @@
       <c r="U79" s="39"/>
       <c r="V79" s="40"/>
       <c r="W79" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6795,16 +6804,16 @@
         <v>105</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -6824,7 +6833,7 @@
       <c r="U80" s="39"/>
       <c r="V80" s="40"/>
       <c r="W80" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6832,16 +6841,16 @@
         <v>106</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -6861,7 +6870,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="40"/>
       <c r="W81" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6869,16 +6878,16 @@
         <v>108</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -6898,7 +6907,7 @@
       <c r="U82" s="39"/>
       <c r="V82" s="40"/>
       <c r="W82" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6906,16 +6915,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -6935,7 +6944,7 @@
       <c r="U83" s="39"/>
       <c r="V83" s="40"/>
       <c r="W83" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6943,16 +6952,16 @@
         <v>111</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -6972,7 +6981,7 @@
       <c r="U84" s="39"/>
       <c r="V84" s="40"/>
       <c r="W84" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6980,16 +6989,16 @@
         <v>112</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7009,7 +7018,7 @@
       <c r="U85" s="39"/>
       <c r="V85" s="40"/>
       <c r="W85" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7017,16 +7026,16 @@
         <v>113</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7046,7 +7055,7 @@
       <c r="U86" s="39"/>
       <c r="V86" s="40"/>
       <c r="W86" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7054,16 +7063,16 @@
         <v>114</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7083,7 +7092,7 @@
       <c r="U87" s="39"/>
       <c r="V87" s="40"/>
       <c r="W87" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7091,16 +7100,16 @@
         <v>115</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7120,7 +7129,7 @@
       <c r="U88" s="39"/>
       <c r="V88" s="40"/>
       <c r="W88" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7128,16 +7137,16 @@
         <v>116</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7157,7 +7166,7 @@
       <c r="U89" s="39"/>
       <c r="V89" s="40"/>
       <c r="W89" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7165,13 +7174,13 @@
         <v>117</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>48</v>
@@ -7194,7 +7203,7 @@
       <c r="U90" s="39"/>
       <c r="V90" s="40"/>
       <c r="W90" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7202,13 +7211,13 @@
         <v>118</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E91" s="43" t="s">
         <v>49</v>
@@ -7231,7 +7240,7 @@
       <c r="U91" s="39"/>
       <c r="V91" s="40"/>
       <c r="W91" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7239,13 +7248,13 @@
         <v>119</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>50</v>
@@ -7268,7 +7277,7 @@
       <c r="U92" s="39"/>
       <c r="V92" s="40"/>
       <c r="W92" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7276,13 +7285,13 @@
         <v>120</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E93" s="43" t="s">
         <v>51</v>
@@ -7305,7 +7314,7 @@
       <c r="U93" s="39"/>
       <c r="V93" s="40"/>
       <c r="W93" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7313,13 +7322,13 @@
         <v>121</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>52</v>
@@ -7342,7 +7351,7 @@
       <c r="U94" s="39"/>
       <c r="V94" s="40"/>
       <c r="W94" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7350,16 +7359,16 @@
         <v>123</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7379,7 +7388,7 @@
       <c r="U95" s="39"/>
       <c r="V95" s="40"/>
       <c r="W95" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7387,13 +7396,13 @@
         <v>125</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E96" s="43" t="s">
         <v>53</v>
@@ -7416,7 +7425,7 @@
       <c r="U96" s="39"/>
       <c r="V96" s="40"/>
       <c r="W96" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7424,16 +7433,16 @@
         <v>126</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7453,7 +7462,7 @@
       <c r="U97" s="39"/>
       <c r="V97" s="40"/>
       <c r="W97" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7461,16 +7470,16 @@
         <v>127</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7490,7 +7499,7 @@
       <c r="U98" s="39"/>
       <c r="V98" s="40"/>
       <c r="W98" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7498,16 +7507,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7527,7 +7536,7 @@
       <c r="U99" s="39"/>
       <c r="V99" s="40"/>
       <c r="W99" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7535,13 +7544,13 @@
         <v>129</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E100" s="43" t="s">
         <v>54</v>
@@ -7564,7 +7573,7 @@
       <c r="U100" s="39"/>
       <c r="V100" s="40"/>
       <c r="W100" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7572,16 +7581,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7601,7 +7610,7 @@
       <c r="U101" s="39"/>
       <c r="V101" s="40"/>
       <c r="W101" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7609,16 +7618,16 @@
         <v>131</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7638,7 +7647,7 @@
       <c r="U102" s="39"/>
       <c r="V102" s="40"/>
       <c r="W102" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7646,16 +7655,16 @@
         <v>132</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7675,7 +7684,7 @@
       <c r="U103" s="39"/>
       <c r="V103" s="40"/>
       <c r="W103" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7683,16 +7692,16 @@
         <v>133</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -7712,7 +7721,7 @@
       <c r="U104" s="39"/>
       <c r="V104" s="40"/>
       <c r="W104" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7720,16 +7729,16 @@
         <v>134</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -7749,7 +7758,7 @@
       <c r="U105" s="39"/>
       <c r="V105" s="40"/>
       <c r="W105" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7757,16 +7766,16 @@
         <v>135</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7786,7 +7795,7 @@
       <c r="U106" s="39"/>
       <c r="V106" s="40"/>
       <c r="W106" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7794,16 +7803,16 @@
         <v>136</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -7823,7 +7832,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="40"/>
       <c r="W107" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7831,16 +7840,16 @@
         <v>137</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -7860,7 +7869,7 @@
       <c r="U108" s="39"/>
       <c r="V108" s="40"/>
       <c r="W108" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7868,16 +7877,16 @@
         <v>138</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -7897,7 +7906,7 @@
       <c r="U109" s="39"/>
       <c r="V109" s="40"/>
       <c r="W109" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7905,16 +7914,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -7934,7 +7943,7 @@
       <c r="U110" s="39"/>
       <c r="V110" s="40"/>
       <c r="W110" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7942,16 +7951,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -7971,7 +7980,7 @@
       <c r="U111" s="39"/>
       <c r="V111" s="40"/>
       <c r="W111" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7979,16 +7988,16 @@
         <v>141</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -8008,7 +8017,7 @@
       <c r="U112" s="39"/>
       <c r="V112" s="40"/>
       <c r="W112" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8016,16 +8025,16 @@
         <v>142</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8045,7 +8054,7 @@
       <c r="U113" s="39"/>
       <c r="V113" s="40"/>
       <c r="W113" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8053,16 +8062,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8082,7 +8091,7 @@
       <c r="U114" s="39"/>
       <c r="V114" s="40"/>
       <c r="W114" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8090,16 +8099,16 @@
         <v>144</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8119,7 +8128,7 @@
       <c r="U115" s="39"/>
       <c r="V115" s="40"/>
       <c r="W115" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8127,13 +8136,13 @@
         <v>145</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E116" s="43" t="s">
         <v>55</v>
@@ -8156,7 +8165,7 @@
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
       <c r="W116" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8164,16 +8173,16 @@
         <v>146</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8193,7 +8202,7 @@
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
       <c r="W117" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8201,26 +8210,26 @@
         <v>152</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="42"/>
       <c r="J118" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K118" s="38" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L118" s="38"/>
       <c r="M118" s="38"/>
@@ -8234,7 +8243,7 @@
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
       <c r="W118" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8242,23 +8251,23 @@
         <v>154</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="42"/>
       <c r="J119" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K119" s="38" t="s">
         <v>58</v>
@@ -8275,7 +8284,7 @@
       <c r="U119" s="39"/>
       <c r="V119" s="40"/>
       <c r="W119" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8283,23 +8292,23 @@
         <v>155</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="42"/>
       <c r="J120" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K120" s="38" t="s">
         <v>58</v>
@@ -8316,7 +8325,7 @@
       <c r="U120" s="39"/>
       <c r="V120" s="40"/>
       <c r="W120" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8324,23 +8333,23 @@
         <v>156</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="42"/>
       <c r="J121" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K121" s="38" t="s">
         <v>60</v>
@@ -8357,7 +8366,7 @@
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
       <c r="W121" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8365,23 +8374,23 @@
         <v>158</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="42"/>
       <c r="J122" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K122" s="38" t="s">
         <v>61</v>
@@ -8398,7 +8407,7 @@
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
       <c r="W122" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8406,23 +8415,23 @@
         <v>159</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
       <c r="J123" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K123" s="38" t="s">
         <v>57</v>
@@ -8439,7 +8448,7 @@
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
       <c r="W123" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8447,23 +8456,23 @@
         <v>160</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="42"/>
       <c r="J124" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K124" s="38" t="s">
         <v>56</v>
@@ -8480,7 +8489,7 @@
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
       <c r="W124" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8488,23 +8497,23 @@
         <v>161</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
       <c r="J125" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K125" s="38" t="s">
         <v>58</v>
@@ -8521,7 +8530,7 @@
       <c r="U125" s="39"/>
       <c r="V125" s="40"/>
       <c r="W125" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8529,23 +8538,23 @@
         <v>162</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
       <c r="J126" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K126" s="38" t="s">
         <v>58</v>
@@ -8562,7 +8571,7 @@
       <c r="U126" s="39"/>
       <c r="V126" s="40"/>
       <c r="W126" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8570,23 +8579,23 @@
         <v>163</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
       <c r="J127" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K127" s="38" t="s">
         <v>60</v>
@@ -8603,7 +8612,7 @@
       <c r="U127" s="39"/>
       <c r="V127" s="40"/>
       <c r="W127" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8611,23 +8620,23 @@
         <v>164</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
       <c r="J128" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K128" s="38" t="s">
         <v>58</v>
@@ -8644,7 +8653,7 @@
       <c r="U128" s="39"/>
       <c r="V128" s="40"/>
       <c r="W128" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8652,23 +8661,23 @@
         <v>165</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
       <c r="J129" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K129" s="38" t="s">
         <v>60</v>
@@ -8685,7 +8694,7 @@
       <c r="U129" s="39"/>
       <c r="V129" s="40"/>
       <c r="W129" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8693,23 +8702,23 @@
         <v>166</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="42"/>
       <c r="J130" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K130" s="38" t="s">
         <v>59</v>
@@ -8726,7 +8735,7 @@
       <c r="U130" s="39"/>
       <c r="V130" s="40"/>
       <c r="W130" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8734,23 +8743,23 @@
         <v>167</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
       <c r="J131" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K131" s="38" t="s">
         <v>60</v>
@@ -8767,7 +8776,7 @@
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
       <c r="W131" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8775,23 +8784,23 @@
         <v>168</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
       <c r="J132" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K132" s="38" t="s">
         <v>60</v>
@@ -8808,7 +8817,7 @@
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
       <c r="W132" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8816,23 +8825,23 @@
         <v>169</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
       <c r="J133" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K133" s="38" t="s">
         <v>62</v>
@@ -8851,7 +8860,7 @@
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
       <c r="W133" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8859,16 +8868,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -8888,7 +8897,7 @@
       <c r="U134" s="39"/>
       <c r="V134" s="40"/>
       <c r="W134" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8896,16 +8905,16 @@
         <v>177</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -8925,7 +8934,7 @@
       <c r="U135" s="39"/>
       <c r="V135" s="40"/>
       <c r="W135" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8933,16 +8942,16 @@
         <v>178</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -8962,7 +8971,7 @@
       <c r="U136" s="39"/>
       <c r="V136" s="40"/>
       <c r="W136" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8970,13 +8979,13 @@
         <v>179</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E137" s="43" t="s">
         <v>64</v>
@@ -8999,7 +9008,7 @@
       <c r="U137" s="39"/>
       <c r="V137" s="40"/>
       <c r="W137" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9007,13 +9016,13 @@
         <v>180</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E138" s="43" t="s">
         <v>65</v>
@@ -9036,7 +9045,7 @@
       <c r="U138" s="39"/>
       <c r="V138" s="40"/>
       <c r="W138" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9044,16 +9053,16 @@
         <v>181</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -9073,7 +9082,7 @@
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
       <c r="W139" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9081,13 +9090,13 @@
         <v>182</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E140" s="43" t="s">
         <v>66</v>
@@ -9110,7 +9119,7 @@
       <c r="U140" s="39"/>
       <c r="V140" s="40"/>
       <c r="W140" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9118,13 +9127,13 @@
         <v>183</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E141" s="43" t="s">
         <v>67</v>
@@ -9147,7 +9156,7 @@
       <c r="U141" s="39"/>
       <c r="V141" s="40"/>
       <c r="W141" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9155,13 +9164,13 @@
         <v>184</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E142" s="43" t="s">
         <v>68</v>
@@ -9184,7 +9193,7 @@
       <c r="U142" s="39"/>
       <c r="V142" s="40"/>
       <c r="W142" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9192,13 +9201,13 @@
         <v>185</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E143" s="43" t="s">
         <v>69</v>
@@ -9221,7 +9230,7 @@
       <c r="U143" s="39"/>
       <c r="V143" s="40"/>
       <c r="W143" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9229,13 +9238,13 @@
         <v>186</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E144" s="43" t="s">
         <v>70</v>
@@ -9258,7 +9267,7 @@
       <c r="U144" s="39"/>
       <c r="V144" s="40"/>
       <c r="W144" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9266,13 +9275,13 @@
         <v>187</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E145" s="43" t="s">
         <v>71</v>
@@ -9295,7 +9304,7 @@
       <c r="U145" s="39"/>
       <c r="V145" s="40"/>
       <c r="W145" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9303,16 +9312,16 @@
         <v>188</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9332,7 +9341,7 @@
       <c r="U146" s="39"/>
       <c r="V146" s="40"/>
       <c r="W146" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9340,16 +9349,16 @@
         <v>189</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9369,7 +9378,7 @@
       <c r="U147" s="39"/>
       <c r="V147" s="40"/>
       <c r="W147" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9377,16 +9386,16 @@
         <v>190</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9406,7 +9415,7 @@
       <c r="U148" s="39"/>
       <c r="V148" s="40"/>
       <c r="W148" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9414,16 +9423,16 @@
         <v>191</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9443,7 +9452,7 @@
       <c r="U149" s="39"/>
       <c r="V149" s="40"/>
       <c r="W149" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9451,16 +9460,16 @@
         <v>376</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9480,7 +9489,7 @@
       <c r="U150" s="39"/>
       <c r="V150" s="40"/>
       <c r="W150" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9488,16 +9497,16 @@
         <v>417</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -9517,7 +9526,7 @@
       <c r="U151" s="39"/>
       <c r="V151" s="40"/>
       <c r="W151" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9525,16 +9534,16 @@
         <v>418</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -9554,7 +9563,7 @@
       <c r="U152" s="39"/>
       <c r="V152" s="40"/>
       <c r="W152" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9562,16 +9571,16 @@
         <v>419</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9591,7 +9600,7 @@
       <c r="U153" s="39"/>
       <c r="V153" s="40"/>
       <c r="W153" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9599,16 +9608,16 @@
         <v>423</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9628,7 +9637,7 @@
       <c r="U154" s="39"/>
       <c r="V154" s="40"/>
       <c r="W154" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9636,16 +9645,16 @@
         <v>424</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9665,7 +9674,7 @@
       <c r="U155" s="39"/>
       <c r="V155" s="40"/>
       <c r="W155" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9673,16 +9682,16 @@
         <v>425</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9702,7 +9711,7 @@
       <c r="U156" s="39"/>
       <c r="V156" s="40"/>
       <c r="W156" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9710,16 +9719,16 @@
         <v>432</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9739,7 +9748,7 @@
       <c r="U157" s="39"/>
       <c r="V157" s="40"/>
       <c r="W157" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9747,16 +9756,16 @@
         <v>433</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -9776,7 +9785,7 @@
       <c r="U158" s="39"/>
       <c r="V158" s="40"/>
       <c r="W158" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9784,16 +9793,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -9813,7 +9822,7 @@
       <c r="U159" s="39"/>
       <c r="V159" s="40"/>
       <c r="W159" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9821,16 +9830,16 @@
         <v>435</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -9850,7 +9859,7 @@
       <c r="U160" s="39"/>
       <c r="V160" s="40"/>
       <c r="W160" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9858,16 +9867,16 @@
         <v>437</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -9887,7 +9896,7 @@
       <c r="U161" s="39"/>
       <c r="V161" s="40"/>
       <c r="W161" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9895,16 +9904,16 @@
         <v>438</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -9924,7 +9933,7 @@
       <c r="U162" s="39"/>
       <c r="V162" s="40"/>
       <c r="W162" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9932,16 +9941,16 @@
         <v>440</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -9961,7 +9970,7 @@
       <c r="U163" s="39"/>
       <c r="V163" s="40"/>
       <c r="W163" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9969,16 +9978,16 @@
         <v>441</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -9998,7 +10007,7 @@
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10006,16 +10015,16 @@
         <v>442</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -10035,7 +10044,7 @@
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10043,16 +10052,16 @@
         <v>443</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -10072,7 +10081,7 @@
       <c r="U166" s="39"/>
       <c r="V166" s="40"/>
       <c r="W166" s="38" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10080,16 +10089,16 @@
         <v>444</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -10109,7 +10118,7 @@
       <c r="U167" s="39"/>
       <c r="V167" s="40"/>
       <c r="W167" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10117,16 +10126,16 @@
         <v>445</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10146,7 +10155,7 @@
       <c r="U168" s="39"/>
       <c r="V168" s="40"/>
       <c r="W168" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10154,16 +10163,16 @@
         <v>448</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F169" s="37">
         <v>45779</v>
@@ -10178,7 +10187,7 @@
         <v>44</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
@@ -10193,7 +10202,7 @@
       <c r="U169" s="39"/>
       <c r="V169" s="40"/>
       <c r="W169" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10201,16 +10210,16 @@
         <v>449</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F170" s="37">
         <v>45779</v>
@@ -10225,7 +10234,7 @@
         <v>47</v>
       </c>
       <c r="J170" s="38" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="38"/>
@@ -10240,7 +10249,7 @@
       <c r="U170" s="39"/>
       <c r="V170" s="40"/>
       <c r="W170" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10248,16 +10257,16 @@
         <v>450</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10277,7 +10286,7 @@
       <c r="U171" s="39"/>
       <c r="V171" s="40"/>
       <c r="W171" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10285,16 +10294,16 @@
         <v>451</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10314,7 +10323,7 @@
       <c r="U172" s="39"/>
       <c r="V172" s="40"/>
       <c r="W172" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10322,16 +10331,16 @@
         <v>452</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10351,7 +10360,7 @@
       <c r="U173" s="39"/>
       <c r="V173" s="40"/>
       <c r="W173" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10359,16 +10368,16 @@
         <v>454</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10388,7 +10397,7 @@
       <c r="U174" s="39"/>
       <c r="V174" s="40"/>
       <c r="W174" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10396,16 +10405,16 @@
         <v>455</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -10425,7 +10434,7 @@
       <c r="U175" s="39"/>
       <c r="V175" s="40"/>
       <c r="W175" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10433,16 +10442,16 @@
         <v>456</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -10462,7 +10471,7 @@
       <c r="U176" s="39"/>
       <c r="V176" s="40"/>
       <c r="W176" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10470,16 +10479,16 @@
         <v>457</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -10499,7 +10508,7 @@
       <c r="U177" s="39"/>
       <c r="V177" s="40"/>
       <c r="W177" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10507,16 +10516,16 @@
         <v>458</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -10536,7 +10545,7 @@
       <c r="U178" s="39"/>
       <c r="V178" s="40"/>
       <c r="W178" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10544,16 +10553,16 @@
         <v>459</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -10573,7 +10582,7 @@
       <c r="U179" s="39"/>
       <c r="V179" s="40"/>
       <c r="W179" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10581,16 +10590,16 @@
         <v>460</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -10610,7 +10619,7 @@
       <c r="U180" s="39"/>
       <c r="V180" s="40"/>
       <c r="W180" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10618,23 +10627,23 @@
         <v>461</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E181" s="43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
       <c r="J181" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K181" s="38" t="s">
         <v>60</v>
@@ -10651,7 +10660,7 @@
       <c r="U181" s="35"/>
       <c r="V181" s="35"/>
       <c r="W181" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10659,16 +10668,16 @@
         <v>462</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -10688,7 +10697,7 @@
       <c r="U182" s="35"/>
       <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10696,16 +10705,16 @@
         <v>463</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E183" s="43" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -10725,7 +10734,7 @@
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
       <c r="W183" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10733,16 +10742,16 @@
         <v>464</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -10762,7 +10771,7 @@
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
       <c r="W184" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10770,13 +10779,13 @@
         <v>465</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E185" s="43" t="s">
         <v>0</v>
@@ -10799,7 +10808,7 @@
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
       <c r="W185" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10807,10 +10816,10 @@
         <v>466</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D186" s="35" t="s">
         <v>9</v>
@@ -10836,7 +10845,7 @@
       <c r="U186" s="35"/>
       <c r="V186" s="35"/>
       <c r="W186" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10844,10 +10853,10 @@
         <v>467</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D187" s="35" t="s">
         <v>1</v>
@@ -10873,7 +10882,7 @@
       <c r="U187" s="35"/>
       <c r="V187" s="35"/>
       <c r="W187" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10881,10 +10890,10 @@
         <v>468</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D188" s="35" t="s">
         <v>3</v>
@@ -10897,13 +10906,13 @@
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
       <c r="J188" s="38" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K188" s="38" t="s">
         <v>62</v>
       </c>
       <c r="L188" s="35" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -10916,7 +10925,7 @@
       <c r="U188" s="35"/>
       <c r="V188" s="35"/>
       <c r="W188" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10924,10 +10933,10 @@
         <v>469</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D189" s="35" t="s">
         <v>5</v>
@@ -10953,7 +10962,7 @@
       <c r="U189" s="35"/>
       <c r="V189" s="35"/>
       <c r="W189" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10961,10 +10970,10 @@
         <v>470</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D190" s="35" t="s">
         <v>7</v>
@@ -10990,7 +10999,7 @@
       <c r="U190" s="35"/>
       <c r="V190" s="35"/>
       <c r="W190" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10998,10 +11007,10 @@
         <v>471</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D191" s="35" t="s">
         <v>20</v>
@@ -11020,7 +11029,7 @@
         <v>73</v>
       </c>
       <c r="J191" s="38" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
@@ -11035,7 +11044,7 @@
       <c r="U191" s="39"/>
       <c r="V191" s="40"/>
       <c r="W191" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -11043,10 +11052,10 @@
         <v>472</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D192" s="35" t="s">
         <v>26</v>
@@ -11055,10 +11064,18 @@
         <v>27</v>
       </c>
       <c r="F192" s="37"/>
-      <c r="G192" s="37"/>
-      <c r="H192" s="37"/>
-      <c r="I192" s="42"/>
-      <c r="J192" s="38"/>
+      <c r="G192" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H192" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I192" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J192" s="38" t="s">
+        <v>410</v>
+      </c>
       <c r="K192" s="38"/>
       <c r="L192" s="38"/>
       <c r="M192" s="38"/>
@@ -11072,7 +11089,7 @@
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="193" spans="6:23" ht="14.25" customHeight="1">
@@ -15188,42 +15205,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -15254,19 +15271,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>24</v>
@@ -15274,13 +15291,13 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>10</v>
@@ -15288,13 +15305,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>11</v>
@@ -15302,10 +15319,10 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -15316,13 +15333,13 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>13</v>
@@ -15330,13 +15347,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>14</v>
@@ -15344,13 +15361,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>15</v>
@@ -15358,13 +15375,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>16</v>
@@ -15372,13 +15389,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>17</v>
@@ -15386,27 +15403,27 @@
     </row>
     <row r="10" spans="1:7" ht="45">
       <c r="A10" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>18</v>
@@ -16388,26 +16405,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="468">
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
@@ -318,6 +318,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.60966b11cabe953ab58d38ba3ee371d39d6adc7047e3feb7ed1fca9ff2ed5203.0d664c84c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>19ceedeb511392c3f04202c346b560b6</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>ERRORE VALIDAZIONE</t>
+  </si>
+  <si>
+    <t>2025-05-03T11:05:14.372+02:00</t>
+  </si>
+  <si>
+    <t>2298297c900cab748eb0386080991589</t>
+  </si>
+  <si>
+    <t>2025-05-03T11:26:14.372+02:00</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
@@ -2752,7 +2770,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2763,17 +2781,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45">
@@ -2783,17 +2801,17 @@
     </row>
     <row r="5" spans="1:1" ht="210">
       <c r="A5" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90">
       <c r="A6" s="17" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2801,17 +2819,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2844,12 +2862,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2860,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
@@ -2868,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
@@ -2876,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
@@ -2884,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
@@ -2892,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2900,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3903,10 +3921,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L133" sqref="L133"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3951,7 +3969,7 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3977,7 +3995,7 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
@@ -4124,73 +4142,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4198,16 +4216,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4227,7 +4245,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4235,16 +4253,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4264,7 +4282,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4272,16 +4290,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -4301,7 +4319,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4309,16 +4327,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4338,7 +4356,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4346,28 +4364,44 @@
         <v>31</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="38"/>
+        <v>395</v>
+      </c>
+      <c r="F14" s="37">
+        <v>45780</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>416</v>
+      </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
+      <c r="N14" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>416</v>
+      </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -4375,7 +4409,7 @@
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4383,16 +4417,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C15" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="43" t="s">
         <v>395</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>389</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -4412,7 +4446,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4420,16 +4454,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4449,7 +4483,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4457,16 +4491,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4486,7 +4520,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4494,16 +4528,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -4523,7 +4557,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4531,16 +4565,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4560,7 +4594,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4568,16 +4602,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4597,7 +4631,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4605,16 +4639,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -4634,7 +4668,7 @@
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4642,28 +4676,44 @@
         <v>39</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="38"/>
+        <v>407</v>
+      </c>
+      <c r="F22" s="37">
+        <v>45780</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>416</v>
+      </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
+      <c r="N22" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>416</v>
+      </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
@@ -4671,7 +4721,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4679,16 +4729,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -4708,7 +4758,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4716,16 +4766,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4745,7 +4795,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4753,16 +4803,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D25" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="E25" s="43" t="s">
         <v>407</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>401</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4782,7 +4832,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4790,16 +4840,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4819,7 +4869,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4827,16 +4877,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4854,11 +4904,11 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4866,16 +4916,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4893,11 +4943,11 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4905,16 +4955,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4932,11 +4982,11 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4944,16 +4994,16 @@
         <v>47</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -4971,11 +5021,11 @@
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4983,16 +5033,16 @@
         <v>48</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -5010,11 +5060,11 @@
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5022,16 +5072,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -5049,11 +5099,11 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5061,16 +5111,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5088,11 +5138,11 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5100,16 +5150,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5127,11 +5177,11 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5139,10 +5189,10 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>22</v>
@@ -5168,7 +5218,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5176,16 +5226,16 @@
         <v>55</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5205,7 +5255,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5213,16 +5263,16 @@
         <v>56</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5242,7 +5292,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5250,16 +5300,16 @@
         <v>57</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5279,7 +5329,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5287,16 +5337,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5316,7 +5366,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5324,16 +5374,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5353,7 +5403,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5361,16 +5411,16 @@
         <v>60</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5390,7 +5440,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5398,16 +5448,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5427,7 +5477,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5435,16 +5485,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5464,7 +5514,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5472,16 +5522,16 @@
         <v>64</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5501,7 +5551,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5509,16 +5559,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5538,7 +5588,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5546,16 +5596,16 @@
         <v>67</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5575,7 +5625,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5583,16 +5633,16 @@
         <v>68</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5612,7 +5662,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5620,16 +5670,16 @@
         <v>69</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5649,7 +5699,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5657,16 +5707,16 @@
         <v>70</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5686,7 +5736,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5694,16 +5744,16 @@
         <v>71</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5723,7 +5773,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5731,16 +5781,16 @@
         <v>72</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5760,7 +5810,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5768,16 +5818,16 @@
         <v>73</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5797,7 +5847,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5805,16 +5855,16 @@
         <v>74</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5834,7 +5884,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5842,16 +5892,16 @@
         <v>76</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -5871,7 +5921,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5879,16 +5929,16 @@
         <v>78</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5908,7 +5958,7 @@
       <c r="U55" s="39"/>
       <c r="V55" s="40"/>
       <c r="W55" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5916,16 +5966,16 @@
         <v>79</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -5945,7 +5995,7 @@
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5953,16 +6003,16 @@
         <v>80</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -5982,7 +6032,7 @@
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5990,16 +6040,16 @@
         <v>81</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -6019,7 +6069,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6027,16 +6077,16 @@
         <v>82</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -6056,7 +6106,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6064,16 +6114,16 @@
         <v>83</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -6093,7 +6143,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6101,16 +6151,16 @@
         <v>84</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -6130,7 +6180,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6138,16 +6188,16 @@
         <v>85</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -6167,7 +6217,7 @@
       <c r="U62" s="39"/>
       <c r="V62" s="40"/>
       <c r="W62" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6175,16 +6225,16 @@
         <v>86</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -6204,7 +6254,7 @@
       <c r="U63" s="39"/>
       <c r="V63" s="40"/>
       <c r="W63" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6212,16 +6262,16 @@
         <v>87</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -6241,7 +6291,7 @@
       <c r="U64" s="39"/>
       <c r="V64" s="40"/>
       <c r="W64" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6249,13 +6299,13 @@
         <v>88</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>32</v>
@@ -6278,7 +6328,7 @@
       <c r="U65" s="39"/>
       <c r="V65" s="40"/>
       <c r="W65" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6286,16 +6336,16 @@
         <v>89</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -6315,7 +6365,7 @@
       <c r="U66" s="39"/>
       <c r="V66" s="40"/>
       <c r="W66" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6323,16 +6373,16 @@
         <v>90</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -6352,7 +6402,7 @@
       <c r="U67" s="39"/>
       <c r="V67" s="40"/>
       <c r="W67" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6360,13 +6410,13 @@
         <v>91</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E68" s="43" t="s">
         <v>33</v>
@@ -6389,7 +6439,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6397,16 +6447,16 @@
         <v>92</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -6426,7 +6476,7 @@
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6434,13 +6484,13 @@
         <v>93</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E70" s="43" t="s">
         <v>34</v>
@@ -6463,7 +6513,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="40"/>
       <c r="W70" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6471,13 +6521,13 @@
         <v>95</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E71" s="43" t="s">
         <v>35</v>
@@ -6500,7 +6550,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="40"/>
       <c r="W71" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6508,13 +6558,13 @@
         <v>97</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E72" s="43" t="s">
         <v>36</v>
@@ -6537,7 +6587,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="40"/>
       <c r="W72" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6545,13 +6595,13 @@
         <v>98</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>37</v>
@@ -6574,7 +6624,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="40"/>
       <c r="W73" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6582,13 +6632,13 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>38</v>
@@ -6611,7 +6661,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="40"/>
       <c r="W74" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6619,16 +6669,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6648,7 +6698,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="40"/>
       <c r="W75" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6656,13 +6706,13 @@
         <v>101</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E76" s="43" t="s">
         <v>39</v>
@@ -6685,7 +6735,7 @@
       <c r="U76" s="39"/>
       <c r="V76" s="40"/>
       <c r="W76" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6693,13 +6743,13 @@
         <v>102</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E77" s="43" t="s">
         <v>40</v>
@@ -6722,7 +6772,7 @@
       <c r="U77" s="39"/>
       <c r="V77" s="40"/>
       <c r="W77" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6730,13 +6780,13 @@
         <v>103</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E78" s="43" t="s">
         <v>41</v>
@@ -6759,7 +6809,7 @@
       <c r="U78" s="39"/>
       <c r="V78" s="40"/>
       <c r="W78" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6767,16 +6817,16 @@
         <v>104</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6796,7 +6846,7 @@
       <c r="U79" s="39"/>
       <c r="V79" s="40"/>
       <c r="W79" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6804,16 +6854,16 @@
         <v>105</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -6833,7 +6883,7 @@
       <c r="U80" s="39"/>
       <c r="V80" s="40"/>
       <c r="W80" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6841,16 +6891,16 @@
         <v>106</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -6870,7 +6920,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="40"/>
       <c r="W81" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6878,16 +6928,16 @@
         <v>108</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -6907,7 +6957,7 @@
       <c r="U82" s="39"/>
       <c r="V82" s="40"/>
       <c r="W82" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6915,16 +6965,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -6944,7 +6994,7 @@
       <c r="U83" s="39"/>
       <c r="V83" s="40"/>
       <c r="W83" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6952,16 +7002,16 @@
         <v>111</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -6981,7 +7031,7 @@
       <c r="U84" s="39"/>
       <c r="V84" s="40"/>
       <c r="W84" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6989,16 +7039,16 @@
         <v>112</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7018,7 +7068,7 @@
       <c r="U85" s="39"/>
       <c r="V85" s="40"/>
       <c r="W85" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7026,16 +7076,16 @@
         <v>113</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7055,7 +7105,7 @@
       <c r="U86" s="39"/>
       <c r="V86" s="40"/>
       <c r="W86" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7063,16 +7113,16 @@
         <v>114</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7092,7 +7142,7 @@
       <c r="U87" s="39"/>
       <c r="V87" s="40"/>
       <c r="W87" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7100,16 +7150,16 @@
         <v>115</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7129,7 +7179,7 @@
       <c r="U88" s="39"/>
       <c r="V88" s="40"/>
       <c r="W88" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7137,16 +7187,16 @@
         <v>116</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7166,7 +7216,7 @@
       <c r="U89" s="39"/>
       <c r="V89" s="40"/>
       <c r="W89" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7174,13 +7224,13 @@
         <v>117</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>48</v>
@@ -7203,7 +7253,7 @@
       <c r="U90" s="39"/>
       <c r="V90" s="40"/>
       <c r="W90" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7211,13 +7261,13 @@
         <v>118</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E91" s="43" t="s">
         <v>49</v>
@@ -7240,7 +7290,7 @@
       <c r="U91" s="39"/>
       <c r="V91" s="40"/>
       <c r="W91" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7248,13 +7298,13 @@
         <v>119</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>50</v>
@@ -7277,7 +7327,7 @@
       <c r="U92" s="39"/>
       <c r="V92" s="40"/>
       <c r="W92" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7285,13 +7335,13 @@
         <v>120</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E93" s="43" t="s">
         <v>51</v>
@@ -7314,7 +7364,7 @@
       <c r="U93" s="39"/>
       <c r="V93" s="40"/>
       <c r="W93" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7322,13 +7372,13 @@
         <v>121</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>52</v>
@@ -7351,7 +7401,7 @@
       <c r="U94" s="39"/>
       <c r="V94" s="40"/>
       <c r="W94" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7359,16 +7409,16 @@
         <v>123</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7388,7 +7438,7 @@
       <c r="U95" s="39"/>
       <c r="V95" s="40"/>
       <c r="W95" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7396,13 +7446,13 @@
         <v>125</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E96" s="43" t="s">
         <v>53</v>
@@ -7425,7 +7475,7 @@
       <c r="U96" s="39"/>
       <c r="V96" s="40"/>
       <c r="W96" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7433,16 +7483,16 @@
         <v>126</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7462,7 +7512,7 @@
       <c r="U97" s="39"/>
       <c r="V97" s="40"/>
       <c r="W97" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7470,16 +7520,16 @@
         <v>127</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7499,7 +7549,7 @@
       <c r="U98" s="39"/>
       <c r="V98" s="40"/>
       <c r="W98" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7507,16 +7557,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7536,7 +7586,7 @@
       <c r="U99" s="39"/>
       <c r="V99" s="40"/>
       <c r="W99" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7544,13 +7594,13 @@
         <v>129</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E100" s="43" t="s">
         <v>54</v>
@@ -7573,7 +7623,7 @@
       <c r="U100" s="39"/>
       <c r="V100" s="40"/>
       <c r="W100" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7581,16 +7631,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7610,7 +7660,7 @@
       <c r="U101" s="39"/>
       <c r="V101" s="40"/>
       <c r="W101" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7618,16 +7668,16 @@
         <v>131</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7647,7 +7697,7 @@
       <c r="U102" s="39"/>
       <c r="V102" s="40"/>
       <c r="W102" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7655,16 +7705,16 @@
         <v>132</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7684,7 +7734,7 @@
       <c r="U103" s="39"/>
       <c r="V103" s="40"/>
       <c r="W103" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7692,16 +7742,16 @@
         <v>133</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -7721,7 +7771,7 @@
       <c r="U104" s="39"/>
       <c r="V104" s="40"/>
       <c r="W104" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7729,16 +7779,16 @@
         <v>134</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -7758,7 +7808,7 @@
       <c r="U105" s="39"/>
       <c r="V105" s="40"/>
       <c r="W105" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7766,16 +7816,16 @@
         <v>135</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7795,7 +7845,7 @@
       <c r="U106" s="39"/>
       <c r="V106" s="40"/>
       <c r="W106" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7803,16 +7853,16 @@
         <v>136</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -7832,7 +7882,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="40"/>
       <c r="W107" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7840,16 +7890,16 @@
         <v>137</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -7869,7 +7919,7 @@
       <c r="U108" s="39"/>
       <c r="V108" s="40"/>
       <c r="W108" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7877,16 +7927,16 @@
         <v>138</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -7906,7 +7956,7 @@
       <c r="U109" s="39"/>
       <c r="V109" s="40"/>
       <c r="W109" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7914,16 +7964,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -7943,7 +7993,7 @@
       <c r="U110" s="39"/>
       <c r="V110" s="40"/>
       <c r="W110" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7951,16 +8001,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -7980,7 +8030,7 @@
       <c r="U111" s="39"/>
       <c r="V111" s="40"/>
       <c r="W111" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7988,16 +8038,16 @@
         <v>141</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -8017,7 +8067,7 @@
       <c r="U112" s="39"/>
       <c r="V112" s="40"/>
       <c r="W112" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8025,16 +8075,16 @@
         <v>142</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8054,7 +8104,7 @@
       <c r="U113" s="39"/>
       <c r="V113" s="40"/>
       <c r="W113" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8062,16 +8112,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8091,7 +8141,7 @@
       <c r="U114" s="39"/>
       <c r="V114" s="40"/>
       <c r="W114" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8099,16 +8149,16 @@
         <v>144</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8128,7 +8178,7 @@
       <c r="U115" s="39"/>
       <c r="V115" s="40"/>
       <c r="W115" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8136,13 +8186,13 @@
         <v>145</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E116" s="43" t="s">
         <v>55</v>
@@ -8165,7 +8215,7 @@
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
       <c r="W116" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8173,16 +8223,16 @@
         <v>146</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8202,7 +8252,7 @@
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
       <c r="W117" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8210,26 +8260,26 @@
         <v>152</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="42"/>
       <c r="J118" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K118" s="38" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L118" s="38"/>
       <c r="M118" s="38"/>
@@ -8243,7 +8293,7 @@
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
       <c r="W118" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8251,23 +8301,23 @@
         <v>154</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="42"/>
       <c r="J119" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K119" s="38" t="s">
         <v>58</v>
@@ -8284,7 +8334,7 @@
       <c r="U119" s="39"/>
       <c r="V119" s="40"/>
       <c r="W119" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8292,23 +8342,23 @@
         <v>155</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="42"/>
       <c r="J120" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K120" s="38" t="s">
         <v>58</v>
@@ -8325,7 +8375,7 @@
       <c r="U120" s="39"/>
       <c r="V120" s="40"/>
       <c r="W120" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8333,23 +8383,23 @@
         <v>156</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="42"/>
       <c r="J121" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K121" s="38" t="s">
         <v>60</v>
@@ -8366,7 +8416,7 @@
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
       <c r="W121" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8374,23 +8424,23 @@
         <v>158</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="42"/>
       <c r="J122" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K122" s="38" t="s">
         <v>61</v>
@@ -8407,7 +8457,7 @@
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
       <c r="W122" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8415,23 +8465,23 @@
         <v>159</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
       <c r="J123" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K123" s="38" t="s">
         <v>57</v>
@@ -8448,7 +8498,7 @@
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
       <c r="W123" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8456,23 +8506,23 @@
         <v>160</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="42"/>
       <c r="J124" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K124" s="38" t="s">
         <v>56</v>
@@ -8489,7 +8539,7 @@
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
       <c r="W124" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8497,23 +8547,23 @@
         <v>161</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
       <c r="J125" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K125" s="38" t="s">
         <v>58</v>
@@ -8530,7 +8580,7 @@
       <c r="U125" s="39"/>
       <c r="V125" s="40"/>
       <c r="W125" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8538,23 +8588,23 @@
         <v>162</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
       <c r="J126" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K126" s="38" t="s">
         <v>58</v>
@@ -8571,7 +8621,7 @@
       <c r="U126" s="39"/>
       <c r="V126" s="40"/>
       <c r="W126" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8579,23 +8629,23 @@
         <v>163</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
       <c r="J127" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K127" s="38" t="s">
         <v>60</v>
@@ -8612,7 +8662,7 @@
       <c r="U127" s="39"/>
       <c r="V127" s="40"/>
       <c r="W127" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8620,23 +8670,23 @@
         <v>164</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
       <c r="J128" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K128" s="38" t="s">
         <v>58</v>
@@ -8653,7 +8703,7 @@
       <c r="U128" s="39"/>
       <c r="V128" s="40"/>
       <c r="W128" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8661,23 +8711,23 @@
         <v>165</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
       <c r="J129" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K129" s="38" t="s">
         <v>60</v>
@@ -8694,7 +8744,7 @@
       <c r="U129" s="39"/>
       <c r="V129" s="40"/>
       <c r="W129" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8702,23 +8752,23 @@
         <v>166</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="42"/>
       <c r="J130" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K130" s="38" t="s">
         <v>59</v>
@@ -8735,7 +8785,7 @@
       <c r="U130" s="39"/>
       <c r="V130" s="40"/>
       <c r="W130" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8743,23 +8793,23 @@
         <v>167</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
       <c r="J131" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K131" s="38" t="s">
         <v>60</v>
@@ -8776,7 +8826,7 @@
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
       <c r="W131" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8784,23 +8834,23 @@
         <v>168</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
       <c r="J132" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K132" s="38" t="s">
         <v>60</v>
@@ -8817,7 +8867,7 @@
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
       <c r="W132" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8825,23 +8875,23 @@
         <v>169</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
       <c r="J133" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K133" s="38" t="s">
         <v>62</v>
@@ -8860,7 +8910,7 @@
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
       <c r="W133" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8868,16 +8918,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -8897,7 +8947,7 @@
       <c r="U134" s="39"/>
       <c r="V134" s="40"/>
       <c r="W134" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8905,16 +8955,16 @@
         <v>177</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -8934,7 +8984,7 @@
       <c r="U135" s="39"/>
       <c r="V135" s="40"/>
       <c r="W135" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8942,16 +8992,16 @@
         <v>178</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -8971,7 +9021,7 @@
       <c r="U136" s="39"/>
       <c r="V136" s="40"/>
       <c r="W136" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8979,13 +9029,13 @@
         <v>179</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E137" s="43" t="s">
         <v>64</v>
@@ -9008,7 +9058,7 @@
       <c r="U137" s="39"/>
       <c r="V137" s="40"/>
       <c r="W137" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9016,13 +9066,13 @@
         <v>180</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E138" s="43" t="s">
         <v>65</v>
@@ -9045,7 +9095,7 @@
       <c r="U138" s="39"/>
       <c r="V138" s="40"/>
       <c r="W138" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9053,16 +9103,16 @@
         <v>181</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -9082,7 +9132,7 @@
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
       <c r="W139" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9090,13 +9140,13 @@
         <v>182</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E140" s="43" t="s">
         <v>66</v>
@@ -9119,7 +9169,7 @@
       <c r="U140" s="39"/>
       <c r="V140" s="40"/>
       <c r="W140" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9127,13 +9177,13 @@
         <v>183</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E141" s="43" t="s">
         <v>67</v>
@@ -9156,7 +9206,7 @@
       <c r="U141" s="39"/>
       <c r="V141" s="40"/>
       <c r="W141" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9164,13 +9214,13 @@
         <v>184</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E142" s="43" t="s">
         <v>68</v>
@@ -9193,7 +9243,7 @@
       <c r="U142" s="39"/>
       <c r="V142" s="40"/>
       <c r="W142" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9201,13 +9251,13 @@
         <v>185</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E143" s="43" t="s">
         <v>69</v>
@@ -9230,7 +9280,7 @@
       <c r="U143" s="39"/>
       <c r="V143" s="40"/>
       <c r="W143" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9238,13 +9288,13 @@
         <v>186</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E144" s="43" t="s">
         <v>70</v>
@@ -9267,7 +9317,7 @@
       <c r="U144" s="39"/>
       <c r="V144" s="40"/>
       <c r="W144" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9275,13 +9325,13 @@
         <v>187</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E145" s="43" t="s">
         <v>71</v>
@@ -9304,7 +9354,7 @@
       <c r="U145" s="39"/>
       <c r="V145" s="40"/>
       <c r="W145" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9312,16 +9362,16 @@
         <v>188</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9341,7 +9391,7 @@
       <c r="U146" s="39"/>
       <c r="V146" s="40"/>
       <c r="W146" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9349,16 +9399,16 @@
         <v>189</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9378,7 +9428,7 @@
       <c r="U147" s="39"/>
       <c r="V147" s="40"/>
       <c r="W147" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9386,16 +9436,16 @@
         <v>190</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9415,7 +9465,7 @@
       <c r="U148" s="39"/>
       <c r="V148" s="40"/>
       <c r="W148" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9423,16 +9473,16 @@
         <v>191</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9452,7 +9502,7 @@
       <c r="U149" s="39"/>
       <c r="V149" s="40"/>
       <c r="W149" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9460,16 +9510,16 @@
         <v>376</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9489,7 +9539,7 @@
       <c r="U150" s="39"/>
       <c r="V150" s="40"/>
       <c r="W150" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9497,16 +9547,16 @@
         <v>417</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -9526,7 +9576,7 @@
       <c r="U151" s="39"/>
       <c r="V151" s="40"/>
       <c r="W151" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9534,16 +9584,16 @@
         <v>418</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -9563,7 +9613,7 @@
       <c r="U152" s="39"/>
       <c r="V152" s="40"/>
       <c r="W152" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9571,16 +9621,16 @@
         <v>419</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9600,7 +9650,7 @@
       <c r="U153" s="39"/>
       <c r="V153" s="40"/>
       <c r="W153" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9608,16 +9658,16 @@
         <v>423</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9637,7 +9687,7 @@
       <c r="U154" s="39"/>
       <c r="V154" s="40"/>
       <c r="W154" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9645,16 +9695,16 @@
         <v>424</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9674,7 +9724,7 @@
       <c r="U155" s="39"/>
       <c r="V155" s="40"/>
       <c r="W155" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9682,16 +9732,16 @@
         <v>425</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9711,7 +9761,7 @@
       <c r="U156" s="39"/>
       <c r="V156" s="40"/>
       <c r="W156" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9719,16 +9769,16 @@
         <v>432</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9748,7 +9798,7 @@
       <c r="U157" s="39"/>
       <c r="V157" s="40"/>
       <c r="W157" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9756,16 +9806,16 @@
         <v>433</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -9785,7 +9835,7 @@
       <c r="U158" s="39"/>
       <c r="V158" s="40"/>
       <c r="W158" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9793,16 +9843,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -9822,7 +9872,7 @@
       <c r="U159" s="39"/>
       <c r="V159" s="40"/>
       <c r="W159" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9830,16 +9880,16 @@
         <v>435</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -9859,7 +9909,7 @@
       <c r="U160" s="39"/>
       <c r="V160" s="40"/>
       <c r="W160" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9867,16 +9917,16 @@
         <v>437</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -9896,7 +9946,7 @@
       <c r="U161" s="39"/>
       <c r="V161" s="40"/>
       <c r="W161" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9904,16 +9954,16 @@
         <v>438</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -9933,7 +9983,7 @@
       <c r="U162" s="39"/>
       <c r="V162" s="40"/>
       <c r="W162" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9941,16 +9991,16 @@
         <v>440</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -9970,7 +10020,7 @@
       <c r="U163" s="39"/>
       <c r="V163" s="40"/>
       <c r="W163" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9978,16 +10028,16 @@
         <v>441</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -10007,7 +10057,7 @@
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10015,16 +10065,16 @@
         <v>442</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -10044,7 +10094,7 @@
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10052,16 +10102,16 @@
         <v>443</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -10081,7 +10131,7 @@
       <c r="U166" s="39"/>
       <c r="V166" s="40"/>
       <c r="W166" s="38" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10089,16 +10139,16 @@
         <v>444</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -10118,7 +10168,7 @@
       <c r="U167" s="39"/>
       <c r="V167" s="40"/>
       <c r="W167" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10126,16 +10176,16 @@
         <v>445</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10155,7 +10205,7 @@
       <c r="U168" s="39"/>
       <c r="V168" s="40"/>
       <c r="W168" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10163,16 +10213,16 @@
         <v>448</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F169" s="37">
         <v>45779</v>
@@ -10187,7 +10237,7 @@
         <v>44</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
@@ -10202,7 +10252,7 @@
       <c r="U169" s="39"/>
       <c r="V169" s="40"/>
       <c r="W169" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10210,16 +10260,16 @@
         <v>449</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F170" s="37">
         <v>45779</v>
@@ -10234,7 +10284,7 @@
         <v>47</v>
       </c>
       <c r="J170" s="38" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="38"/>
@@ -10249,7 +10299,7 @@
       <c r="U170" s="39"/>
       <c r="V170" s="40"/>
       <c r="W170" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10257,16 +10307,16 @@
         <v>450</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10286,7 +10336,7 @@
       <c r="U171" s="39"/>
       <c r="V171" s="40"/>
       <c r="W171" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10294,16 +10344,16 @@
         <v>451</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10323,7 +10373,7 @@
       <c r="U172" s="39"/>
       <c r="V172" s="40"/>
       <c r="W172" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10331,16 +10381,16 @@
         <v>452</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10360,7 +10410,7 @@
       <c r="U173" s="39"/>
       <c r="V173" s="40"/>
       <c r="W173" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10368,16 +10418,16 @@
         <v>454</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10397,7 +10447,7 @@
       <c r="U174" s="39"/>
       <c r="V174" s="40"/>
       <c r="W174" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10405,16 +10455,16 @@
         <v>455</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -10434,7 +10484,7 @@
       <c r="U175" s="39"/>
       <c r="V175" s="40"/>
       <c r="W175" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10442,16 +10492,16 @@
         <v>456</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -10471,7 +10521,7 @@
       <c r="U176" s="39"/>
       <c r="V176" s="40"/>
       <c r="W176" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10479,16 +10529,16 @@
         <v>457</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -10508,7 +10558,7 @@
       <c r="U177" s="39"/>
       <c r="V177" s="40"/>
       <c r="W177" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10516,16 +10566,16 @@
         <v>458</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -10545,7 +10595,7 @@
       <c r="U178" s="39"/>
       <c r="V178" s="40"/>
       <c r="W178" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10553,16 +10603,16 @@
         <v>459</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -10582,7 +10632,7 @@
       <c r="U179" s="39"/>
       <c r="V179" s="40"/>
       <c r="W179" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10590,16 +10640,16 @@
         <v>460</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -10619,7 +10669,7 @@
       <c r="U180" s="39"/>
       <c r="V180" s="40"/>
       <c r="W180" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10627,23 +10677,23 @@
         <v>461</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E181" s="43" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
       <c r="J181" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K181" s="38" t="s">
         <v>60</v>
@@ -10660,7 +10710,7 @@
       <c r="U181" s="35"/>
       <c r="V181" s="35"/>
       <c r="W181" s="35" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10668,16 +10718,16 @@
         <v>462</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -10697,7 +10747,7 @@
       <c r="U182" s="35"/>
       <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10705,16 +10755,16 @@
         <v>463</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E183" s="43" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -10734,7 +10784,7 @@
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
       <c r="W183" s="35" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10742,16 +10792,16 @@
         <v>464</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -10771,7 +10821,7 @@
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
       <c r="W184" s="35" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10779,13 +10829,13 @@
         <v>465</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E185" s="43" t="s">
         <v>0</v>
@@ -10808,7 +10858,7 @@
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
       <c r="W185" s="35" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10816,10 +10866,10 @@
         <v>466</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D186" s="35" t="s">
         <v>9</v>
@@ -10845,7 +10895,7 @@
       <c r="U186" s="35"/>
       <c r="V186" s="35"/>
       <c r="W186" s="35" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10853,10 +10903,10 @@
         <v>467</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D187" s="35" t="s">
         <v>1</v>
@@ -10882,7 +10932,7 @@
       <c r="U187" s="35"/>
       <c r="V187" s="35"/>
       <c r="W187" s="35" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10890,10 +10940,10 @@
         <v>468</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D188" s="35" t="s">
         <v>3</v>
@@ -10906,13 +10956,13 @@
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
       <c r="J188" s="38" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K188" s="38" t="s">
         <v>62</v>
       </c>
       <c r="L188" s="35" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -10925,7 +10975,7 @@
       <c r="U188" s="35"/>
       <c r="V188" s="35"/>
       <c r="W188" s="35" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10933,10 +10983,10 @@
         <v>469</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D189" s="35" t="s">
         <v>5</v>
@@ -10962,7 +11012,7 @@
       <c r="U189" s="35"/>
       <c r="V189" s="35"/>
       <c r="W189" s="35" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10970,10 +11020,10 @@
         <v>470</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D190" s="35" t="s">
         <v>7</v>
@@ -10999,7 +11049,7 @@
       <c r="U190" s="35"/>
       <c r="V190" s="35"/>
       <c r="W190" s="35" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -11007,10 +11057,10 @@
         <v>471</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D191" s="35" t="s">
         <v>20</v>
@@ -11018,7 +11068,9 @@
       <c r="E191" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F191" s="37"/>
+      <c r="F191" s="37">
+        <v>45780</v>
+      </c>
       <c r="G191" s="37" t="s">
         <v>74</v>
       </c>
@@ -11029,7 +11081,7 @@
         <v>73</v>
       </c>
       <c r="J191" s="38" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
@@ -11044,7 +11096,7 @@
       <c r="U191" s="39"/>
       <c r="V191" s="40"/>
       <c r="W191" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -11052,10 +11104,10 @@
         <v>472</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D192" s="35" t="s">
         <v>26</v>
@@ -11063,7 +11115,9 @@
       <c r="E192" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F192" s="37"/>
+      <c r="F192" s="37">
+        <v>45780</v>
+      </c>
       <c r="G192" s="37" t="s">
         <v>75</v>
       </c>
@@ -11074,7 +11128,7 @@
         <v>77</v>
       </c>
       <c r="J192" s="38" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K192" s="38"/>
       <c r="L192" s="38"/>
@@ -11089,7 +11143,7 @@
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193" spans="6:23" ht="14.25" customHeight="1">
@@ -15205,42 +15259,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -15271,19 +15325,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>24</v>
@@ -15291,13 +15345,13 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>10</v>
@@ -15305,13 +15359,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>11</v>
@@ -15319,10 +15373,10 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -15333,13 +15387,13 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>13</v>
@@ -15347,13 +15401,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>14</v>
@@ -15361,13 +15415,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>15</v>
@@ -15375,13 +15429,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>16</v>
@@ -15389,13 +15443,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>17</v>
@@ -15403,27 +15457,27 @@
     </row>
     <row r="10" spans="1:7" ht="45">
       <c r="A10" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>18</v>
@@ -16405,26 +16459,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="469">
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
@@ -326,9 +326,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>ERRORE VALIDAZIONE</t>
-  </si>
-  <si>
     <t>2025-05-03T11:05:14.372+02:00</t>
   </si>
   <si>
@@ -336,6 +333,12 @@
   </si>
   <si>
     <t>2025-05-03T11:26:14.372+02:00</t>
+  </si>
+  <si>
+    <t>ERRORE VALIDAZIONE GW</t>
+  </si>
+  <si>
+    <t>campo obbligatorio</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
@@ -2781,17 +2784,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45">
@@ -2801,17 +2804,17 @@
     </row>
     <row r="5" spans="1:1" ht="210">
       <c r="A5" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90">
       <c r="A6" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2819,17 +2822,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2862,12 +2865,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2878,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
@@ -2886,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
@@ -2894,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
@@ -2902,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
@@ -2910,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2918,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3921,10 +3924,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3969,7 +3972,7 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3995,7 +3998,7 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
@@ -4142,73 +4145,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4216,16 +4219,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4245,7 +4248,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4253,16 +4256,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4282,7 +4285,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4290,16 +4293,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -4319,7 +4322,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4327,16 +4330,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4356,7 +4359,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4364,22 +4367,22 @@
         <v>31</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F14" s="37">
         <v>45780</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>78</v>
@@ -4388,19 +4391,19 @@
         <v>79</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
@@ -4409,7 +4412,7 @@
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4417,16 +4420,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -4446,7 +4449,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4454,16 +4457,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4483,7 +4486,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4491,16 +4494,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4520,7 +4523,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4528,16 +4531,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -4557,7 +4560,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4565,16 +4568,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4594,7 +4597,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4602,16 +4605,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D20" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="E20" s="43" t="s">
         <v>408</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>407</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4631,7 +4634,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4639,16 +4642,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -4668,7 +4671,7 @@
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4676,43 +4679,43 @@
         <v>39</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F22" s="37">
         <v>45780</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" s="42" t="s">
         <v>79</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
       <c r="N22" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
@@ -4721,7 +4724,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4729,16 +4732,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -4758,7 +4761,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4766,16 +4769,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4795,7 +4798,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4803,16 +4806,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4832,7 +4835,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4840,16 +4843,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4869,7 +4872,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4877,16 +4880,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4904,11 +4907,11 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4916,16 +4919,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4943,11 +4946,11 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4955,16 +4958,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4982,11 +4985,11 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4994,16 +4997,16 @@
         <v>47</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -5021,11 +5024,11 @@
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5033,16 +5036,16 @@
         <v>48</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -5060,11 +5063,11 @@
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5072,16 +5075,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -5099,11 +5102,11 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5111,16 +5114,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5138,11 +5141,11 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5150,16 +5153,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5177,11 +5180,11 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5189,10 +5192,10 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>22</v>
@@ -5218,7 +5221,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5226,16 +5229,16 @@
         <v>55</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5255,7 +5258,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5263,16 +5266,16 @@
         <v>56</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5292,7 +5295,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5300,16 +5303,16 @@
         <v>57</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5329,7 +5332,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5337,16 +5340,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5366,7 +5369,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5374,16 +5377,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5403,7 +5406,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5411,16 +5414,16 @@
         <v>60</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5440,7 +5443,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5448,16 +5451,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5477,7 +5480,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5485,16 +5488,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5514,7 +5517,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5522,16 +5525,16 @@
         <v>64</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5551,7 +5554,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5559,16 +5562,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5588,7 +5591,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5596,16 +5599,16 @@
         <v>67</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5625,7 +5628,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5633,16 +5636,16 @@
         <v>68</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5662,7 +5665,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5670,16 +5673,16 @@
         <v>69</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5699,7 +5702,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5707,16 +5710,16 @@
         <v>70</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5736,7 +5739,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5744,16 +5747,16 @@
         <v>71</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5773,7 +5776,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5781,16 +5784,16 @@
         <v>72</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5810,7 +5813,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5818,16 +5821,16 @@
         <v>73</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5847,7 +5850,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5855,16 +5858,16 @@
         <v>74</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5884,7 +5887,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5892,23 +5895,27 @@
         <v>76</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
       <c r="I54" s="42"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
+      <c r="J54" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K54" s="38" t="s">
+        <v>278</v>
+      </c>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
       <c r="N54" s="38"/>
@@ -5921,7 +5928,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5929,23 +5936,27 @@
         <v>78</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
       <c r="I55" s="42"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
+      <c r="J55" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K55" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
       <c r="N55" s="38"/>
@@ -5958,7 +5969,7 @@
       <c r="U55" s="39"/>
       <c r="V55" s="40"/>
       <c r="W55" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5966,23 +5977,27 @@
         <v>79</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
       <c r="I56" s="42"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
+      <c r="J56" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K56" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
       <c r="N56" s="38"/>
@@ -5995,7 +6010,7 @@
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6003,23 +6018,27 @@
         <v>80</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
       <c r="I57" s="42"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
+      <c r="J57" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K57" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
       <c r="N57" s="38"/>
@@ -6032,7 +6051,7 @@
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6040,23 +6059,27 @@
         <v>81</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
       <c r="I58" s="42"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
+      <c r="J58" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K58" s="38" t="s">
+        <v>278</v>
+      </c>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
       <c r="N58" s="38"/>
@@ -6069,7 +6092,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6077,23 +6100,27 @@
         <v>82</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
       <c r="I59" s="42"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
+      <c r="J59" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K59" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
       <c r="N59" s="38"/>
@@ -6106,7 +6133,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6114,23 +6141,27 @@
         <v>83</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="42"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
+      <c r="J60" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K60" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
       <c r="N60" s="38"/>
@@ -6143,7 +6174,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6151,23 +6182,27 @@
         <v>84</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
       <c r="I61" s="42"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
+      <c r="J61" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K61" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
       <c r="N61" s="38"/>
@@ -6180,7 +6215,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6188,23 +6223,27 @@
         <v>85</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
       <c r="I62" s="42"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
+      <c r="J62" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K62" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
       <c r="N62" s="38"/>
@@ -6217,7 +6256,7 @@
       <c r="U62" s="39"/>
       <c r="V62" s="40"/>
       <c r="W62" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6225,23 +6264,27 @@
         <v>86</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
       <c r="I63" s="42"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
+      <c r="J63" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K63" s="38" t="s">
+        <v>278</v>
+      </c>
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
       <c r="N63" s="38"/>
@@ -6254,7 +6297,7 @@
       <c r="U63" s="39"/>
       <c r="V63" s="40"/>
       <c r="W63" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6262,23 +6305,27 @@
         <v>87</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
       <c r="I64" s="42"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
+      <c r="J64" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K64" s="38" t="s">
+        <v>278</v>
+      </c>
       <c r="L64" s="38"/>
       <c r="M64" s="38"/>
       <c r="N64" s="38"/>
@@ -6291,7 +6338,7 @@
       <c r="U64" s="39"/>
       <c r="V64" s="40"/>
       <c r="W64" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6299,13 +6346,13 @@
         <v>88</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>32</v>
@@ -6314,8 +6361,12 @@
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
       <c r="I65" s="42"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
+      <c r="J65" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K65" s="38" t="s">
+        <v>278</v>
+      </c>
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
       <c r="N65" s="38"/>
@@ -6328,7 +6379,7 @@
       <c r="U65" s="39"/>
       <c r="V65" s="40"/>
       <c r="W65" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6336,23 +6387,27 @@
         <v>89</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
       <c r="I66" s="42"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
+      <c r="J66" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K66" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="L66" s="38"/>
       <c r="M66" s="38"/>
       <c r="N66" s="38"/>
@@ -6365,7 +6420,7 @@
       <c r="U66" s="39"/>
       <c r="V66" s="40"/>
       <c r="W66" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6373,23 +6428,27 @@
         <v>90</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
       <c r="I67" s="42"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
+      <c r="J67" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K67" s="38" t="s">
+        <v>278</v>
+      </c>
       <c r="L67" s="38"/>
       <c r="M67" s="38"/>
       <c r="N67" s="38"/>
@@ -6402,7 +6461,7 @@
       <c r="U67" s="39"/>
       <c r="V67" s="40"/>
       <c r="W67" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6410,13 +6469,13 @@
         <v>91</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E68" s="43" t="s">
         <v>33</v>
@@ -6425,8 +6484,12 @@
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
       <c r="I68" s="42"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
+      <c r="J68" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K68" s="38" t="s">
+        <v>278</v>
+      </c>
       <c r="L68" s="38"/>
       <c r="M68" s="38"/>
       <c r="N68" s="38"/>
@@ -6439,7 +6502,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6447,23 +6510,27 @@
         <v>92</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="42"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
+      <c r="J69" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K69" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="L69" s="38"/>
       <c r="M69" s="38"/>
       <c r="N69" s="38"/>
@@ -6476,7 +6543,7 @@
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6484,13 +6551,13 @@
         <v>93</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E70" s="43" t="s">
         <v>34</v>
@@ -6499,8 +6566,12 @@
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="42"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
+      <c r="J70" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K70" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="L70" s="38"/>
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
@@ -6513,7 +6584,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="40"/>
       <c r="W70" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6521,13 +6592,13 @@
         <v>95</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E71" s="43" t="s">
         <v>35</v>
@@ -6550,7 +6621,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="40"/>
       <c r="W71" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6558,13 +6629,13 @@
         <v>97</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E72" s="43" t="s">
         <v>36</v>
@@ -6587,7 +6658,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="40"/>
       <c r="W72" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6595,13 +6666,13 @@
         <v>98</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>37</v>
@@ -6624,7 +6695,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="40"/>
       <c r="W73" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6632,13 +6703,13 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>38</v>
@@ -6661,7 +6732,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="40"/>
       <c r="W74" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6669,16 +6740,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6698,7 +6769,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="40"/>
       <c r="W75" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6706,13 +6777,13 @@
         <v>101</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E76" s="43" t="s">
         <v>39</v>
@@ -6735,7 +6806,7 @@
       <c r="U76" s="39"/>
       <c r="V76" s="40"/>
       <c r="W76" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6743,13 +6814,13 @@
         <v>102</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E77" s="43" t="s">
         <v>40</v>
@@ -6772,7 +6843,7 @@
       <c r="U77" s="39"/>
       <c r="V77" s="40"/>
       <c r="W77" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6780,13 +6851,13 @@
         <v>103</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E78" s="43" t="s">
         <v>41</v>
@@ -6809,7 +6880,7 @@
       <c r="U78" s="39"/>
       <c r="V78" s="40"/>
       <c r="W78" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6817,16 +6888,16 @@
         <v>104</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6846,7 +6917,7 @@
       <c r="U79" s="39"/>
       <c r="V79" s="40"/>
       <c r="W79" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6854,16 +6925,16 @@
         <v>105</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -6883,7 +6954,7 @@
       <c r="U80" s="39"/>
       <c r="V80" s="40"/>
       <c r="W80" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6891,16 +6962,16 @@
         <v>106</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -6920,7 +6991,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="40"/>
       <c r="W81" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6928,16 +6999,16 @@
         <v>108</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -6957,7 +7028,7 @@
       <c r="U82" s="39"/>
       <c r="V82" s="40"/>
       <c r="W82" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6965,16 +7036,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -6994,7 +7065,7 @@
       <c r="U83" s="39"/>
       <c r="V83" s="40"/>
       <c r="W83" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7002,16 +7073,16 @@
         <v>111</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -7031,7 +7102,7 @@
       <c r="U84" s="39"/>
       <c r="V84" s="40"/>
       <c r="W84" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7039,16 +7110,16 @@
         <v>112</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7068,7 +7139,7 @@
       <c r="U85" s="39"/>
       <c r="V85" s="40"/>
       <c r="W85" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7076,16 +7147,16 @@
         <v>113</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7105,7 +7176,7 @@
       <c r="U86" s="39"/>
       <c r="V86" s="40"/>
       <c r="W86" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7113,16 +7184,16 @@
         <v>114</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7142,7 +7213,7 @@
       <c r="U87" s="39"/>
       <c r="V87" s="40"/>
       <c r="W87" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7150,16 +7221,16 @@
         <v>115</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7179,7 +7250,7 @@
       <c r="U88" s="39"/>
       <c r="V88" s="40"/>
       <c r="W88" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7187,16 +7258,16 @@
         <v>116</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7216,7 +7287,7 @@
       <c r="U89" s="39"/>
       <c r="V89" s="40"/>
       <c r="W89" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7224,13 +7295,13 @@
         <v>117</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>48</v>
@@ -7253,7 +7324,7 @@
       <c r="U90" s="39"/>
       <c r="V90" s="40"/>
       <c r="W90" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7261,13 +7332,13 @@
         <v>118</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E91" s="43" t="s">
         <v>49</v>
@@ -7290,7 +7361,7 @@
       <c r="U91" s="39"/>
       <c r="V91" s="40"/>
       <c r="W91" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7298,13 +7369,13 @@
         <v>119</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>50</v>
@@ -7327,7 +7398,7 @@
       <c r="U92" s="39"/>
       <c r="V92" s="40"/>
       <c r="W92" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7335,13 +7406,13 @@
         <v>120</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E93" s="43" t="s">
         <v>51</v>
@@ -7364,7 +7435,7 @@
       <c r="U93" s="39"/>
       <c r="V93" s="40"/>
       <c r="W93" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7372,13 +7443,13 @@
         <v>121</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>52</v>
@@ -7401,7 +7472,7 @@
       <c r="U94" s="39"/>
       <c r="V94" s="40"/>
       <c r="W94" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7409,16 +7480,16 @@
         <v>123</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7438,7 +7509,7 @@
       <c r="U95" s="39"/>
       <c r="V95" s="40"/>
       <c r="W95" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7446,13 +7517,13 @@
         <v>125</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E96" s="43" t="s">
         <v>53</v>
@@ -7475,7 +7546,7 @@
       <c r="U96" s="39"/>
       <c r="V96" s="40"/>
       <c r="W96" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7483,16 +7554,16 @@
         <v>126</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7512,7 +7583,7 @@
       <c r="U97" s="39"/>
       <c r="V97" s="40"/>
       <c r="W97" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7520,16 +7591,16 @@
         <v>127</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7549,7 +7620,7 @@
       <c r="U98" s="39"/>
       <c r="V98" s="40"/>
       <c r="W98" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7557,16 +7628,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7586,7 +7657,7 @@
       <c r="U99" s="39"/>
       <c r="V99" s="40"/>
       <c r="W99" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7594,13 +7665,13 @@
         <v>129</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E100" s="43" t="s">
         <v>54</v>
@@ -7623,7 +7694,7 @@
       <c r="U100" s="39"/>
       <c r="V100" s="40"/>
       <c r="W100" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7631,16 +7702,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7660,7 +7731,7 @@
       <c r="U101" s="39"/>
       <c r="V101" s="40"/>
       <c r="W101" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7668,16 +7739,16 @@
         <v>131</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7697,7 +7768,7 @@
       <c r="U102" s="39"/>
       <c r="V102" s="40"/>
       <c r="W102" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7705,16 +7776,16 @@
         <v>132</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7734,7 +7805,7 @@
       <c r="U103" s="39"/>
       <c r="V103" s="40"/>
       <c r="W103" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7742,16 +7813,16 @@
         <v>133</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -7771,7 +7842,7 @@
       <c r="U104" s="39"/>
       <c r="V104" s="40"/>
       <c r="W104" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7779,16 +7850,16 @@
         <v>134</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -7808,7 +7879,7 @@
       <c r="U105" s="39"/>
       <c r="V105" s="40"/>
       <c r="W105" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7816,16 +7887,16 @@
         <v>135</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7845,7 +7916,7 @@
       <c r="U106" s="39"/>
       <c r="V106" s="40"/>
       <c r="W106" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7853,16 +7924,16 @@
         <v>136</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -7882,7 +7953,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="40"/>
       <c r="W107" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7890,16 +7961,16 @@
         <v>137</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -7919,7 +7990,7 @@
       <c r="U108" s="39"/>
       <c r="V108" s="40"/>
       <c r="W108" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7927,16 +7998,16 @@
         <v>138</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -7956,7 +8027,7 @@
       <c r="U109" s="39"/>
       <c r="V109" s="40"/>
       <c r="W109" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7964,16 +8035,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -7993,7 +8064,7 @@
       <c r="U110" s="39"/>
       <c r="V110" s="40"/>
       <c r="W110" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8001,16 +8072,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -8030,7 +8101,7 @@
       <c r="U111" s="39"/>
       <c r="V111" s="40"/>
       <c r="W111" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8038,16 +8109,16 @@
         <v>141</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -8067,7 +8138,7 @@
       <c r="U112" s="39"/>
       <c r="V112" s="40"/>
       <c r="W112" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8075,16 +8146,16 @@
         <v>142</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8104,7 +8175,7 @@
       <c r="U113" s="39"/>
       <c r="V113" s="40"/>
       <c r="W113" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8112,16 +8183,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8141,7 +8212,7 @@
       <c r="U114" s="39"/>
       <c r="V114" s="40"/>
       <c r="W114" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8149,16 +8220,16 @@
         <v>144</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8178,7 +8249,7 @@
       <c r="U115" s="39"/>
       <c r="V115" s="40"/>
       <c r="W115" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8186,13 +8257,13 @@
         <v>145</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E116" s="43" t="s">
         <v>55</v>
@@ -8215,7 +8286,7 @@
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
       <c r="W116" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8223,16 +8294,16 @@
         <v>146</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8252,7 +8323,7 @@
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
       <c r="W117" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8260,26 +8331,26 @@
         <v>152</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="42"/>
       <c r="J118" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K118" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L118" s="38"/>
       <c r="M118" s="38"/>
@@ -8293,7 +8364,7 @@
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
       <c r="W118" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8301,26 +8372,26 @@
         <v>154</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="42"/>
       <c r="J119" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K119" s="38" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="L119" s="38"/>
       <c r="M119" s="38"/>
@@ -8334,7 +8405,7 @@
       <c r="U119" s="39"/>
       <c r="V119" s="40"/>
       <c r="W119" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8342,23 +8413,23 @@
         <v>155</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="42"/>
       <c r="J120" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K120" s="38" t="s">
         <v>58</v>
@@ -8375,7 +8446,7 @@
       <c r="U120" s="39"/>
       <c r="V120" s="40"/>
       <c r="W120" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8383,23 +8454,23 @@
         <v>156</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="42"/>
       <c r="J121" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K121" s="38" t="s">
         <v>60</v>
@@ -8416,7 +8487,7 @@
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
       <c r="W121" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8424,23 +8495,23 @@
         <v>158</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="42"/>
       <c r="J122" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K122" s="38" t="s">
         <v>61</v>
@@ -8457,7 +8528,7 @@
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
       <c r="W122" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8465,23 +8536,23 @@
         <v>159</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
       <c r="J123" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K123" s="38" t="s">
         <v>57</v>
@@ -8498,7 +8569,7 @@
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
       <c r="W123" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8506,23 +8577,23 @@
         <v>160</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="42"/>
       <c r="J124" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K124" s="38" t="s">
         <v>56</v>
@@ -8539,7 +8610,7 @@
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
       <c r="W124" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8547,26 +8618,26 @@
         <v>161</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
       <c r="J125" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K125" s="38" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="L125" s="38"/>
       <c r="M125" s="38"/>
@@ -8580,7 +8651,7 @@
       <c r="U125" s="39"/>
       <c r="V125" s="40"/>
       <c r="W125" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8588,23 +8659,23 @@
         <v>162</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
       <c r="J126" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K126" s="38" t="s">
         <v>58</v>
@@ -8621,7 +8692,7 @@
       <c r="U126" s="39"/>
       <c r="V126" s="40"/>
       <c r="W126" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8629,23 +8700,23 @@
         <v>163</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
       <c r="J127" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K127" s="38" t="s">
         <v>60</v>
@@ -8662,7 +8733,7 @@
       <c r="U127" s="39"/>
       <c r="V127" s="40"/>
       <c r="W127" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8670,26 +8741,26 @@
         <v>164</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
       <c r="J128" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K128" s="38" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="L128" s="38"/>
       <c r="M128" s="38"/>
@@ -8703,7 +8774,7 @@
       <c r="U128" s="39"/>
       <c r="V128" s="40"/>
       <c r="W128" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8711,23 +8782,23 @@
         <v>165</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
       <c r="J129" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K129" s="38" t="s">
         <v>60</v>
@@ -8744,7 +8815,7 @@
       <c r="U129" s="39"/>
       <c r="V129" s="40"/>
       <c r="W129" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8752,23 +8823,23 @@
         <v>166</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="42"/>
       <c r="J130" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K130" s="38" t="s">
         <v>59</v>
@@ -8785,7 +8856,7 @@
       <c r="U130" s="39"/>
       <c r="V130" s="40"/>
       <c r="W130" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8793,23 +8864,23 @@
         <v>167</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
       <c r="J131" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K131" s="38" t="s">
         <v>60</v>
@@ -8826,7 +8897,7 @@
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
       <c r="W131" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8834,23 +8905,23 @@
         <v>168</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
       <c r="J132" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K132" s="38" t="s">
         <v>60</v>
@@ -8867,7 +8938,7 @@
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
       <c r="W132" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8875,23 +8946,23 @@
         <v>169</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
       <c r="J133" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K133" s="38" t="s">
         <v>62</v>
@@ -8910,7 +8981,7 @@
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
       <c r="W133" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8918,16 +8989,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -8947,7 +9018,7 @@
       <c r="U134" s="39"/>
       <c r="V134" s="40"/>
       <c r="W134" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8955,16 +9026,16 @@
         <v>177</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -8984,7 +9055,7 @@
       <c r="U135" s="39"/>
       <c r="V135" s="40"/>
       <c r="W135" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8992,16 +9063,16 @@
         <v>178</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -9021,7 +9092,7 @@
       <c r="U136" s="39"/>
       <c r="V136" s="40"/>
       <c r="W136" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9029,13 +9100,13 @@
         <v>179</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E137" s="43" t="s">
         <v>64</v>
@@ -9058,7 +9129,7 @@
       <c r="U137" s="39"/>
       <c r="V137" s="40"/>
       <c r="W137" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9066,13 +9137,13 @@
         <v>180</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E138" s="43" t="s">
         <v>65</v>
@@ -9095,7 +9166,7 @@
       <c r="U138" s="39"/>
       <c r="V138" s="40"/>
       <c r="W138" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9103,16 +9174,16 @@
         <v>181</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -9132,7 +9203,7 @@
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
       <c r="W139" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9140,13 +9211,13 @@
         <v>182</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E140" s="43" t="s">
         <v>66</v>
@@ -9169,7 +9240,7 @@
       <c r="U140" s="39"/>
       <c r="V140" s="40"/>
       <c r="W140" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9177,13 +9248,13 @@
         <v>183</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E141" s="43" t="s">
         <v>67</v>
@@ -9206,7 +9277,7 @@
       <c r="U141" s="39"/>
       <c r="V141" s="40"/>
       <c r="W141" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9214,13 +9285,13 @@
         <v>184</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E142" s="43" t="s">
         <v>68</v>
@@ -9243,7 +9314,7 @@
       <c r="U142" s="39"/>
       <c r="V142" s="40"/>
       <c r="W142" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9251,13 +9322,13 @@
         <v>185</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E143" s="43" t="s">
         <v>69</v>
@@ -9280,7 +9351,7 @@
       <c r="U143" s="39"/>
       <c r="V143" s="40"/>
       <c r="W143" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9288,13 +9359,13 @@
         <v>186</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E144" s="43" t="s">
         <v>70</v>
@@ -9317,7 +9388,7 @@
       <c r="U144" s="39"/>
       <c r="V144" s="40"/>
       <c r="W144" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9325,13 +9396,13 @@
         <v>187</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E145" s="43" t="s">
         <v>71</v>
@@ -9354,7 +9425,7 @@
       <c r="U145" s="39"/>
       <c r="V145" s="40"/>
       <c r="W145" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9362,16 +9433,16 @@
         <v>188</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9391,7 +9462,7 @@
       <c r="U146" s="39"/>
       <c r="V146" s="40"/>
       <c r="W146" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9399,16 +9470,16 @@
         <v>189</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9428,7 +9499,7 @@
       <c r="U147" s="39"/>
       <c r="V147" s="40"/>
       <c r="W147" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9436,16 +9507,16 @@
         <v>190</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9465,7 +9536,7 @@
       <c r="U148" s="39"/>
       <c r="V148" s="40"/>
       <c r="W148" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9473,16 +9544,16 @@
         <v>191</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9502,7 +9573,7 @@
       <c r="U149" s="39"/>
       <c r="V149" s="40"/>
       <c r="W149" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9510,16 +9581,16 @@
         <v>376</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9539,7 +9610,7 @@
       <c r="U150" s="39"/>
       <c r="V150" s="40"/>
       <c r="W150" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9547,16 +9618,16 @@
         <v>417</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -9576,7 +9647,7 @@
       <c r="U151" s="39"/>
       <c r="V151" s="40"/>
       <c r="W151" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9584,16 +9655,16 @@
         <v>418</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -9613,7 +9684,7 @@
       <c r="U152" s="39"/>
       <c r="V152" s="40"/>
       <c r="W152" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9621,16 +9692,16 @@
         <v>419</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9650,7 +9721,7 @@
       <c r="U153" s="39"/>
       <c r="V153" s="40"/>
       <c r="W153" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9658,16 +9729,16 @@
         <v>423</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9687,7 +9758,7 @@
       <c r="U154" s="39"/>
       <c r="V154" s="40"/>
       <c r="W154" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9695,16 +9766,16 @@
         <v>424</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9724,7 +9795,7 @@
       <c r="U155" s="39"/>
       <c r="V155" s="40"/>
       <c r="W155" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9732,16 +9803,16 @@
         <v>425</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9761,7 +9832,7 @@
       <c r="U156" s="39"/>
       <c r="V156" s="40"/>
       <c r="W156" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9769,16 +9840,16 @@
         <v>432</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9798,7 +9869,7 @@
       <c r="U157" s="39"/>
       <c r="V157" s="40"/>
       <c r="W157" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9806,16 +9877,16 @@
         <v>433</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -9835,7 +9906,7 @@
       <c r="U158" s="39"/>
       <c r="V158" s="40"/>
       <c r="W158" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9843,16 +9914,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -9872,7 +9943,7 @@
       <c r="U159" s="39"/>
       <c r="V159" s="40"/>
       <c r="W159" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9880,16 +9951,16 @@
         <v>435</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -9909,7 +9980,7 @@
       <c r="U160" s="39"/>
       <c r="V160" s="40"/>
       <c r="W160" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9917,16 +9988,16 @@
         <v>437</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -9946,7 +10017,7 @@
       <c r="U161" s="39"/>
       <c r="V161" s="40"/>
       <c r="W161" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9954,16 +10025,16 @@
         <v>438</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -9983,7 +10054,7 @@
       <c r="U162" s="39"/>
       <c r="V162" s="40"/>
       <c r="W162" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9991,16 +10062,16 @@
         <v>440</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -10020,7 +10091,7 @@
       <c r="U163" s="39"/>
       <c r="V163" s="40"/>
       <c r="W163" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10028,16 +10099,16 @@
         <v>441</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -10057,7 +10128,7 @@
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10065,16 +10136,16 @@
         <v>442</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -10094,7 +10165,7 @@
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10102,16 +10173,16 @@
         <v>443</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -10131,7 +10202,7 @@
       <c r="U166" s="39"/>
       <c r="V166" s="40"/>
       <c r="W166" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10139,16 +10210,16 @@
         <v>444</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -10168,7 +10239,7 @@
       <c r="U167" s="39"/>
       <c r="V167" s="40"/>
       <c r="W167" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10176,16 +10247,16 @@
         <v>445</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10205,7 +10276,7 @@
       <c r="U168" s="39"/>
       <c r="V168" s="40"/>
       <c r="W168" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10213,16 +10284,16 @@
         <v>448</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F169" s="37">
         <v>45779</v>
@@ -10237,7 +10308,7 @@
         <v>44</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
@@ -10252,7 +10323,7 @@
       <c r="U169" s="39"/>
       <c r="V169" s="40"/>
       <c r="W169" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10260,16 +10331,16 @@
         <v>449</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F170" s="37">
         <v>45779</v>
@@ -10284,7 +10355,7 @@
         <v>47</v>
       </c>
       <c r="J170" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="38"/>
@@ -10299,7 +10370,7 @@
       <c r="U170" s="39"/>
       <c r="V170" s="40"/>
       <c r="W170" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10307,16 +10378,16 @@
         <v>450</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10336,7 +10407,7 @@
       <c r="U171" s="39"/>
       <c r="V171" s="40"/>
       <c r="W171" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10344,16 +10415,16 @@
         <v>451</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10373,7 +10444,7 @@
       <c r="U172" s="39"/>
       <c r="V172" s="40"/>
       <c r="W172" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10381,16 +10452,16 @@
         <v>452</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10410,7 +10481,7 @@
       <c r="U173" s="39"/>
       <c r="V173" s="40"/>
       <c r="W173" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10418,16 +10489,16 @@
         <v>454</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10447,7 +10518,7 @@
       <c r="U174" s="39"/>
       <c r="V174" s="40"/>
       <c r="W174" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10455,16 +10526,16 @@
         <v>455</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -10484,7 +10555,7 @@
       <c r="U175" s="39"/>
       <c r="V175" s="40"/>
       <c r="W175" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10492,16 +10563,16 @@
         <v>456</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -10521,7 +10592,7 @@
       <c r="U176" s="39"/>
       <c r="V176" s="40"/>
       <c r="W176" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10529,16 +10600,16 @@
         <v>457</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -10558,7 +10629,7 @@
       <c r="U177" s="39"/>
       <c r="V177" s="40"/>
       <c r="W177" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10566,16 +10637,16 @@
         <v>458</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -10595,7 +10666,7 @@
       <c r="U178" s="39"/>
       <c r="V178" s="40"/>
       <c r="W178" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10603,16 +10674,16 @@
         <v>459</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -10632,7 +10703,7 @@
       <c r="U179" s="39"/>
       <c r="V179" s="40"/>
       <c r="W179" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10640,16 +10711,16 @@
         <v>460</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -10669,7 +10740,7 @@
       <c r="U180" s="39"/>
       <c r="V180" s="40"/>
       <c r="W180" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10677,23 +10748,23 @@
         <v>461</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D181" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E181" s="43" t="s">
         <v>141</v>
-      </c>
-      <c r="E181" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
       <c r="J181" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K181" s="38" t="s">
         <v>60</v>
@@ -10710,7 +10781,7 @@
       <c r="U181" s="35"/>
       <c r="V181" s="35"/>
       <c r="W181" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10718,23 +10789,27 @@
         <v>462</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
-      <c r="J182" s="38"/>
-      <c r="K182" s="38"/>
+      <c r="J182" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K182" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="L182" s="35"/>
       <c r="M182" s="38"/>
       <c r="N182" s="38"/>
@@ -10747,7 +10822,7 @@
       <c r="U182" s="35"/>
       <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10755,16 +10830,16 @@
         <v>463</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E183" s="43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -10784,7 +10859,7 @@
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
       <c r="W183" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10792,16 +10867,16 @@
         <v>464</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -10821,7 +10896,7 @@
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
       <c r="W184" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10829,13 +10904,13 @@
         <v>465</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E185" s="43" t="s">
         <v>0</v>
@@ -10858,7 +10933,7 @@
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
       <c r="W185" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10866,10 +10941,10 @@
         <v>466</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D186" s="35" t="s">
         <v>9</v>
@@ -10895,7 +10970,7 @@
       <c r="U186" s="35"/>
       <c r="V186" s="35"/>
       <c r="W186" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10903,10 +10978,10 @@
         <v>467</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D187" s="35" t="s">
         <v>1</v>
@@ -10932,7 +11007,7 @@
       <c r="U187" s="35"/>
       <c r="V187" s="35"/>
       <c r="W187" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10940,10 +11015,10 @@
         <v>468</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D188" s="35" t="s">
         <v>3</v>
@@ -10956,13 +11031,13 @@
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
       <c r="J188" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K188" s="38" t="s">
         <v>62</v>
       </c>
       <c r="L188" s="35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -10975,7 +11050,7 @@
       <c r="U188" s="35"/>
       <c r="V188" s="35"/>
       <c r="W188" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10983,10 +11058,10 @@
         <v>469</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D189" s="35" t="s">
         <v>5</v>
@@ -11012,7 +11087,7 @@
       <c r="U189" s="35"/>
       <c r="V189" s="35"/>
       <c r="W189" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -11020,10 +11095,10 @@
         <v>470</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D190" s="35" t="s">
         <v>7</v>
@@ -11049,7 +11124,7 @@
       <c r="U190" s="35"/>
       <c r="V190" s="35"/>
       <c r="W190" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -11057,10 +11132,10 @@
         <v>471</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D191" s="35" t="s">
         <v>20</v>
@@ -11081,7 +11156,7 @@
         <v>73</v>
       </c>
       <c r="J191" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
@@ -11096,7 +11171,7 @@
       <c r="U191" s="39"/>
       <c r="V191" s="40"/>
       <c r="W191" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -11104,10 +11179,10 @@
         <v>472</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D192" s="35" t="s">
         <v>26</v>
@@ -11128,7 +11203,7 @@
         <v>77</v>
       </c>
       <c r="J192" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K192" s="38"/>
       <c r="L192" s="38"/>
@@ -11143,7 +11218,7 @@
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="6:23" ht="14.25" customHeight="1">
@@ -15259,42 +15334,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -15325,19 +15400,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>24</v>
@@ -15345,13 +15420,13 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>10</v>
@@ -15359,13 +15434,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>11</v>
@@ -15373,10 +15448,10 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -15387,13 +15462,13 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>13</v>
@@ -15401,13 +15476,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>14</v>
@@ -15415,13 +15490,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>15</v>
@@ -15429,13 +15504,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>16</v>
@@ -15443,13 +15518,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>17</v>
@@ -15457,27 +15532,27 @@
     </row>
     <row r="10" spans="1:7" ht="45">
       <c r="A10" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>18</v>
@@ -16459,26 +16534,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -49,799 +49,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="473">
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
-  </si>
-  <si>
-    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
-  </si>
-  <si>
-    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
-  </si>
-  <si>
-    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
-  </si>
-  <si>
-    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
-  </si>
-  <si>
-    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
-  </si>
-  <si>
-    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
-  </si>
-  <si>
-    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
-  </si>
-  <si>
-    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
-  </si>
-  <si>
-    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>8.2.5</t>
-  </si>
-  <si>
-    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>471, 472</t>
-  </si>
-  <si>
-    <t>subject_application_vendor: GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC</t>
-  </si>
-  <si>
-    <t>subject_application_id: GMSoftFSE</t>
-  </si>
-  <si>
-    <t>subject_application_version: V.1.1.0</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2025-05-02T06:52:31.432+02:00</t>
-  </si>
-  <si>
-    <t>90df63df33ebf5f7a7ed0145f1bae84a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2def81c12d9d55998602ca3330968f008054bf144cb57455968dba34bac106f3.62d78dbc40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6a8b96336fc8b0d44bc495fed2f3447f</t>
-  </si>
-  <si>
-    <t>2025-05-02T12:14:46.970+02:00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.eff4ea824427f41e2652ec40542c7f6ab8be63c5a4994df59144a1655a92bd1a.27ffbd6b7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
-  </si>
-  <si>
-    <t>c ampo obbligatorio</t>
-  </si>
-  <si>
-    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
-  </si>
-  <si>
-    <t>Il campo è valorizzabile tramite selezione da menù a tendina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il campo è valorizzabile tramite selezione da menù a tendina </t>
-  </si>
-  <si>
-    <t>altro (specificare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'applicativo inserisce in autonomia nel cda   &lt;signatureCode code="S" /&gt;  il valore S  se firmato digitalmente.  Se il medico non firma digitalmente  non verrà creato nessun cda. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>1c4f9dc87321a43715c4d51a0c8e748a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d00bf386ca43135a496231db428138fef4b349d48fa9bab3bc36193c727a0373.9e920da8d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-03T08:36:01.345+02:00</t>
-  </si>
-  <si>
-    <t>2025-05-03T10:36:14.372+02:00</t>
-  </si>
-  <si>
-    <t>68a0bebcfc31b479a1d5ea3352dfa0b7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.60966b11cabe953ab58d38ba3ee371d39d6adc7047e3feb7ed1fca9ff2ed5203.0d664c84c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>19ceedeb511392c3f04202c346b560b6</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>2025-05-03T11:05:14.372+02:00</t>
-  </si>
-  <si>
-    <t>2298297c900cab748eb0386080991589</t>
-  </si>
-  <si>
-    <t>2025-05-03T11:26:14.372+02:00</t>
-  </si>
-  <si>
-    <t>ERRORE VALIDAZIONE GW</t>
-  </si>
-  <si>
-    <t>campo obbligatorio</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>TIPO DOCUMENTO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>448, 449</t>
-  </si>
-  <si>
-    <t>450, 451</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>454, 455</t>
-  </si>
-  <si>
-    <t>456, 457</t>
-  </si>
-  <si>
-    <t>458, 459</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
-  </si>
-  <si>
-    <t>4, 452</t>
-  </si>
-  <si>
-    <t>417, 418, 419, 460</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
-  </si>
-  <si>
-    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
-Nome fornitore dell'applicativo
-nome applicazione: subject_application_id
-Nome fornitore: subject_application_vendor
-versione applicazione: subject_application_version
-</t>
-  </si>
-  <si>
-    <t>RAP</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_RAP_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
-  </si>
-  <si>
-    <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
-    DATA ESECUZIONE, 
-    TIMESTAMP, 
-    TRACEID,
-    WORKFLOWINSTANCEID (ove ritornato in response, qualora non ritornato il WORKFLOWINSTANCEID puo' essere lasciato blank), 
-    ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    ERRORE VISIBILE A UTENTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
-    GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
+  </si>
+  <si>
+    <t>2025-05-05T03:52:28Z</t>
+  </si>
+  <si>
+    <t>aecc2a02bc2c6ffc9f05555b69f3a178</t>
+  </si>
+  <si>
+    <t>2025-05-03T09:05:14Z</t>
+  </si>
+  <si>
+    <t>2025-05-03T09:26:14Z</t>
+  </si>
+  <si>
+    <t>2025-05-02T04:52:31Z</t>
+  </si>
+  <si>
+    <t>2025-05-03T06:36:01Z</t>
+  </si>
+  <si>
+    <t>2025-05-03T08:36:14Z</t>
+  </si>
+  <si>
+    <t>2025-05-02T04:22:55Z</t>
+  </si>
+  <si>
+    <t>4809a3b216cb4f801b8db0dec53fceca</t>
+  </si>
+  <si>
+    <t>2025-05-05T04:57:36Z</t>
+  </si>
+  <si>
+    <t>971b0f618c027aa5b1779e8fec455a47</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2dfe96cadfa5a33d27521a3c3869d11a37a13dc4eab0b4454615a8dd31cfd594.8984cc013a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -1705,77 +1021,773 @@
     <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+    <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
+    DATA ESECUZIONE, 
+    TIMESTAMP, 
+    TRACEID,
+    WORKFLOWINSTANCEID (ove ritornato in response, qualora non ritornato il WORKFLOWINSTANCEID puo' essere lasciato blank), 
+    ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    ERRORE VISIBILE A UTENTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
+    GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
+  </si>
+  <si>
+    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
+Nome fornitore dell'applicativo
+nome applicazione: subject_application_id
+Nome fornitore: subject_application_vendor
+versione applicazione: subject_application_version
+</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAP_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
+  </si>
+  <si>
+    <t>4, 452</t>
+  </si>
+  <si>
+    <t>417, 418, 419, 460</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
+  </si>
+  <si>
+    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
+  </si>
+  <si>
+    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
+  </si>
+  <si>
+    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
+  </si>
+  <si>
+    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
+  </si>
+  <si>
+    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
+  </si>
+  <si>
+    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
+  </si>
+  <si>
+    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
+  </si>
+  <si>
+    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
+  </si>
+  <si>
+    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>8.2.5</t>
+  </si>
+  <si>
+    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>471, 472</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC</t>
+  </si>
+  <si>
+    <t>subject_application_id: GMSoftFSE</t>
+  </si>
+  <si>
+    <t>subject_application_version: V.1.1.0</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>90df63df33ebf5f7a7ed0145f1bae84a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2def81c12d9d55998602ca3330968f008054bf144cb57455968dba34bac106f3.62d78dbc40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
+  </si>
+  <si>
+    <t>c ampo obbligatorio</t>
+  </si>
+  <si>
+    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
+  </si>
+  <si>
+    <t>Il campo è valorizzabile tramite selezione da menù a tendina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il campo è valorizzabile tramite selezione da menù a tendina </t>
+  </si>
+  <si>
+    <t>altro (specificare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo inserisce in autonomia nel cda   &lt;signatureCode code="S" /&gt;  il valore S  se firmato digitalmente.  Se il medico non firma digitalmente  non verrà creato nessun cda. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>1c4f9dc87321a43715c4d51a0c8e748a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d00bf386ca43135a496231db428138fef4b349d48fa9bab3bc36193c727a0373.9e920da8d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>68a0bebcfc31b479a1d5ea3352dfa0b7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.60966b11cabe953ab58d38ba3ee371d39d6adc7047e3feb7ed1fca9ff2ed5203.0d664c84c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>19ceedeb511392c3f04202c346b560b6</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>2298297c900cab748eb0386080991589</t>
+  </si>
+  <si>
+    <t>ERRORE VALIDAZIONE GW</t>
+  </si>
+  <si>
+    <t>campo obbligatorio</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>TIPO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>448, 449</t>
+  </si>
+  <si>
+    <t>450, 451</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>454, 455</t>
+  </si>
+  <si>
+    <t>456, 457</t>
+  </si>
+  <si>
+    <t>458, 459</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
   </si>
 </sst>
 </file>
@@ -2784,37 +2796,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="2" t="s">
-        <v>354</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="210">
       <c r="A5" s="2" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90">
       <c r="A6" s="17" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2822,17 +2834,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>355</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>356</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>357</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2865,12 +2877,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>358</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>359</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2881,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>360</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
@@ -2889,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>361</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
@@ -2897,7 +2909,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>362</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
@@ -2905,7 +2917,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>363</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
@@ -2913,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>352</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2921,7 +2933,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>364</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3924,10 +3936,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomRight" activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3972,7 +3984,7 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3998,11 +4010,11 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>366</v>
+        <v>184</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>30</v>
+        <v>409</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="6"/>
@@ -4028,7 +4040,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="56" t="s">
-        <v>29</v>
+        <v>408</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="4"/>
@@ -4055,7 +4067,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>31</v>
+        <v>410</v>
       </c>
       <c r="D5" s="48"/>
       <c r="F5" s="6"/>
@@ -4145,73 +4157,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>369</v>
+        <v>187</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>372</v>
+        <v>190</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>373</v>
+        <v>191</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>374</v>
+        <v>192</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>375</v>
+        <v>193</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>376</v>
+        <v>194</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>378</v>
+        <v>196</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>379</v>
+        <v>197</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>381</v>
+        <v>199</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>382</v>
+        <v>200</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>384</v>
+        <v>202</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>386</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4219,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>101</v>
+        <v>472</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4248,7 +4260,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4256,16 +4268,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>395</v>
+        <v>213</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4285,7 +4297,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4293,16 +4305,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>398</v>
+        <v>216</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -4322,7 +4334,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4330,16 +4342,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>400</v>
+        <v>218</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4359,7 +4371,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4367,43 +4379,43 @@
         <v>31</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>401</v>
+        <v>219</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="F14" s="37">
         <v>45780</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
@@ -4412,7 +4424,7 @@
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4420,22 +4432,32 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>403</v>
+        <v>221</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="38"/>
+        <v>214</v>
+      </c>
+      <c r="F15" s="37">
+        <v>45782</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>235</v>
+      </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -4449,7 +4471,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4457,16 +4479,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>404</v>
+        <v>222</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4486,7 +4508,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4494,16 +4516,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>405</v>
+        <v>223</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4523,7 +4545,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4531,16 +4553,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -4560,7 +4582,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4568,16 +4590,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>407</v>
+        <v>225</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4597,7 +4619,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4605,16 +4627,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>409</v>
+        <v>227</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4634,7 +4656,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4642,16 +4664,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>410</v>
+        <v>228</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -4671,7 +4693,7 @@
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4679,43 +4701,43 @@
         <v>39</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>411</v>
+        <v>229</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="F22" s="37">
         <v>45780</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
       <c r="N22" s="38" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
@@ -4724,7 +4746,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4732,22 +4754,32 @@
         <v>40</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>412</v>
+        <v>230</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="F23" s="37">
+        <v>45782</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>235</v>
+      </c>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
@@ -4761,7 +4793,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4769,16 +4801,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>413</v>
+        <v>231</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4798,7 +4830,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4806,16 +4838,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>414</v>
+        <v>232</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4835,7 +4867,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4843,16 +4875,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>415</v>
+        <v>233</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4872,7 +4904,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4880,16 +4912,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>416</v>
+        <v>234</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4907,11 +4939,11 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4919,16 +4951,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>418</v>
+        <v>236</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4946,11 +4978,11 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4958,16 +4990,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>419</v>
+        <v>237</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4985,11 +5017,11 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -4997,38 +5029,50 @@
         <v>47</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>420</v>
+        <v>238</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="42"/>
-      <c r="J30" s="38"/>
+      <c r="J30" s="38" t="s">
+        <v>235</v>
+      </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="M30" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="N30" s="38" t="s">
+        <v>153</v>
+      </c>
       <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
+      <c r="P30" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q30" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="R30" s="38" t="s">
+        <v>153</v>
+      </c>
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5036,38 +5080,50 @@
         <v>48</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>421</v>
+        <v>239</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="42"/>
-      <c r="J31" s="38"/>
+      <c r="J31" s="38" t="s">
+        <v>235</v>
+      </c>
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
+      <c r="M31" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="38" t="s">
+        <v>153</v>
+      </c>
       <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
+      <c r="P31" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q31" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="R31" s="38" t="s">
+        <v>153</v>
+      </c>
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5075,16 +5131,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -5102,11 +5158,11 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5114,16 +5170,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>423</v>
+        <v>241</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5141,11 +5197,11 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5153,16 +5209,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>424</v>
+        <v>242</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5180,11 +5236,11 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5192,16 +5248,16 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>22</v>
+        <v>401</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>23</v>
+        <v>402</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -5221,7 +5277,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5229,16 +5285,16 @@
         <v>55</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>425</v>
+        <v>243</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>426</v>
+        <v>244</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5258,7 +5314,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5266,16 +5322,16 @@
         <v>56</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>427</v>
+        <v>245</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>428</v>
+        <v>246</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5295,7 +5351,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5303,16 +5359,16 @@
         <v>57</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>429</v>
+        <v>247</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>430</v>
+        <v>248</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5332,7 +5388,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5340,16 +5396,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>431</v>
+        <v>249</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>432</v>
+        <v>250</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5369,7 +5425,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5377,16 +5433,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>433</v>
+        <v>251</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>434</v>
+        <v>252</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5406,7 +5462,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5414,16 +5470,16 @@
         <v>60</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>435</v>
+        <v>253</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>436</v>
+        <v>254</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5443,7 +5499,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5451,16 +5507,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>437</v>
+        <v>255</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>438</v>
+        <v>256</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5480,7 +5536,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5488,16 +5544,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>439</v>
+        <v>257</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>440</v>
+        <v>258</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5517,7 +5573,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5525,16 +5581,16 @@
         <v>64</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>441</v>
+        <v>259</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>154</v>
+        <v>373</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5554,7 +5610,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5562,16 +5618,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>442</v>
+        <v>260</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>155</v>
+        <v>374</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5591,7 +5647,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5599,16 +5655,16 @@
         <v>67</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>443</v>
+        <v>261</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>156</v>
+        <v>375</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5628,7 +5684,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5636,16 +5692,16 @@
         <v>68</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>444</v>
+        <v>262</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>157</v>
+        <v>376</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5665,7 +5721,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5673,16 +5729,16 @@
         <v>69</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>445</v>
+        <v>263</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>158</v>
+        <v>377</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5702,7 +5758,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5710,16 +5766,16 @@
         <v>70</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>159</v>
+        <v>378</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5739,7 +5795,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5747,16 +5803,16 @@
         <v>71</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>447</v>
+        <v>1</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5776,7 +5832,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5784,16 +5840,16 @@
         <v>72</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>448</v>
+        <v>2</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5813,7 +5869,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5821,16 +5877,16 @@
         <v>73</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>449</v>
+        <v>3</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5850,7 +5906,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5858,16 +5914,16 @@
         <v>74</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>450</v>
+        <v>4</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5887,7 +5943,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5895,26 +5951,26 @@
         <v>76</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
       <c r="I54" s="42"/>
       <c r="J54" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K54" s="38" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
@@ -5928,7 +5984,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5936,26 +5992,26 @@
         <v>78</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>452</v>
+        <v>6</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>453</v>
+        <v>7</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
       <c r="I55" s="42"/>
       <c r="J55" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K55" s="38" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
@@ -5969,7 +6025,7 @@
       <c r="U55" s="39"/>
       <c r="V55" s="40"/>
       <c r="W55" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -5977,26 +6033,26 @@
         <v>79</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>454</v>
+        <v>8</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
       <c r="I56" s="42"/>
       <c r="J56" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K56" s="38" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
@@ -6010,7 +6066,7 @@
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6018,26 +6074,26 @@
         <v>80</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>455</v>
+        <v>9</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
       <c r="I57" s="42"/>
       <c r="J57" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
@@ -6051,7 +6107,7 @@
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6059,26 +6115,26 @@
         <v>81</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>456</v>
+        <v>10</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
       <c r="I58" s="42"/>
       <c r="J58" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K58" s="38" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
@@ -6092,7 +6148,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6100,26 +6156,26 @@
         <v>82</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
       <c r="I59" s="42"/>
       <c r="J59" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K59" s="38" t="s">
-        <v>57</v>
+        <v>432</v>
       </c>
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
@@ -6133,7 +6189,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6141,26 +6197,26 @@
         <v>83</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>458</v>
+        <v>12</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>459</v>
+        <v>13</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="42"/>
       <c r="J60" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K60" s="38" t="s">
-        <v>57</v>
+        <v>432</v>
       </c>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
@@ -6174,7 +6230,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6182,26 +6238,26 @@
         <v>84</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>460</v>
+        <v>14</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>461</v>
+        <v>15</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
       <c r="I61" s="42"/>
       <c r="J61" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
@@ -6215,7 +6271,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6223,26 +6279,26 @@
         <v>85</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>462</v>
+        <v>16</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
       <c r="I62" s="42"/>
       <c r="J62" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K62" s="38" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
@@ -6256,7 +6312,7 @@
       <c r="U62" s="39"/>
       <c r="V62" s="40"/>
       <c r="W62" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6264,26 +6320,26 @@
         <v>86</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>463</v>
+        <v>17</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
       <c r="I63" s="42"/>
       <c r="J63" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K63" s="38" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
@@ -6297,7 +6353,7 @@
       <c r="U63" s="39"/>
       <c r="V63" s="40"/>
       <c r="W63" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6305,26 +6361,26 @@
         <v>87</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>464</v>
+        <v>18</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
       <c r="I64" s="42"/>
       <c r="J64" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K64" s="38" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="L64" s="38"/>
       <c r="M64" s="38"/>
@@ -6338,7 +6394,7 @@
       <c r="U64" s="39"/>
       <c r="V64" s="40"/>
       <c r="W64" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6346,26 +6402,26 @@
         <v>88</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>465</v>
+        <v>19</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>32</v>
+        <v>411</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
       <c r="I65" s="42"/>
       <c r="J65" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K65" s="38" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
@@ -6379,7 +6435,7 @@
       <c r="U65" s="39"/>
       <c r="V65" s="40"/>
       <c r="W65" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6387,26 +6443,26 @@
         <v>89</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>466</v>
+        <v>20</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>467</v>
+        <v>21</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
       <c r="I66" s="42"/>
       <c r="J66" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K66" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L66" s="38"/>
       <c r="M66" s="38"/>
@@ -6420,7 +6476,7 @@
       <c r="U66" s="39"/>
       <c r="V66" s="40"/>
       <c r="W66" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6428,26 +6484,26 @@
         <v>90</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>468</v>
+        <v>22</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
       <c r="I67" s="42"/>
       <c r="J67" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K67" s="38" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="L67" s="38"/>
       <c r="M67" s="38"/>
@@ -6461,7 +6517,7 @@
       <c r="U67" s="39"/>
       <c r="V67" s="40"/>
       <c r="W67" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6469,26 +6525,26 @@
         <v>91</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>33</v>
+        <v>412</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
       <c r="I68" s="42"/>
       <c r="J68" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K68" s="38" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="L68" s="38"/>
       <c r="M68" s="38"/>
@@ -6502,7 +6558,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6510,26 +6566,26 @@
         <v>92</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>93</v>
+        <v>464</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="42"/>
       <c r="J69" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K69" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L69" s="38"/>
       <c r="M69" s="38"/>
@@ -6543,7 +6599,7 @@
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -6551,26 +6607,26 @@
         <v>93</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>34</v>
+        <v>413</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="42"/>
       <c r="J70" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K70" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L70" s="38"/>
       <c r="M70" s="38"/>
@@ -6584,7 +6640,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="40"/>
       <c r="W70" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6592,16 +6648,16 @@
         <v>95</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>35</v>
+        <v>414</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -6621,7 +6677,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="40"/>
       <c r="W71" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6629,16 +6685,16 @@
         <v>97</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>36</v>
+        <v>415</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -6658,7 +6714,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="40"/>
       <c r="W72" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6666,16 +6722,16 @@
         <v>98</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -6695,7 +6751,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="40"/>
       <c r="W73" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6703,16 +6759,16 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -6732,7 +6788,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="40"/>
       <c r="W74" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6740,16 +6796,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6769,7 +6825,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="40"/>
       <c r="W75" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6777,16 +6833,16 @@
         <v>101</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>39</v>
+        <v>418</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -6806,7 +6862,7 @@
       <c r="U76" s="39"/>
       <c r="V76" s="40"/>
       <c r="W76" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6814,16 +6870,16 @@
         <v>102</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>40</v>
+        <v>419</v>
       </c>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -6843,7 +6899,7 @@
       <c r="U77" s="39"/>
       <c r="V77" s="40"/>
       <c r="W77" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6851,16 +6907,16 @@
         <v>103</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -6880,7 +6936,7 @@
       <c r="U78" s="39"/>
       <c r="V78" s="40"/>
       <c r="W78" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6888,16 +6944,16 @@
         <v>104</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6917,7 +6973,7 @@
       <c r="U79" s="39"/>
       <c r="V79" s="40"/>
       <c r="W79" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6925,16 +6981,16 @@
         <v>105</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -6954,7 +7010,7 @@
       <c r="U80" s="39"/>
       <c r="V80" s="40"/>
       <c r="W80" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6962,16 +7018,16 @@
         <v>106</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -6991,7 +7047,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="40"/>
       <c r="W81" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6999,16 +7055,16 @@
         <v>108</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -7028,7 +7084,7 @@
       <c r="U82" s="39"/>
       <c r="V82" s="40"/>
       <c r="W82" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7036,16 +7092,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -7065,7 +7121,7 @@
       <c r="U83" s="39"/>
       <c r="V83" s="40"/>
       <c r="W83" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7073,16 +7129,16 @@
         <v>111</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -7102,7 +7158,7 @@
       <c r="U84" s="39"/>
       <c r="V84" s="40"/>
       <c r="W84" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7110,16 +7166,16 @@
         <v>112</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>238</v>
+        <v>56</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7139,7 +7195,7 @@
       <c r="U85" s="39"/>
       <c r="V85" s="40"/>
       <c r="W85" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7147,16 +7203,16 @@
         <v>113</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7176,7 +7232,7 @@
       <c r="U86" s="39"/>
       <c r="V86" s="40"/>
       <c r="W86" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7184,16 +7240,16 @@
         <v>114</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7213,7 +7269,7 @@
       <c r="U87" s="39"/>
       <c r="V87" s="40"/>
       <c r="W87" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7221,16 +7277,16 @@
         <v>115</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>241</v>
+        <v>59</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7250,7 +7306,7 @@
       <c r="U88" s="39"/>
       <c r="V88" s="40"/>
       <c r="W88" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7258,16 +7314,16 @@
         <v>116</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7287,7 +7343,7 @@
       <c r="U89" s="39"/>
       <c r="V89" s="40"/>
       <c r="W89" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7295,16 +7351,16 @@
         <v>117</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>243</v>
+        <v>61</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>48</v>
+        <v>423</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7324,7 +7380,7 @@
       <c r="U90" s="39"/>
       <c r="V90" s="40"/>
       <c r="W90" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7332,16 +7388,16 @@
         <v>118</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>49</v>
+        <v>424</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -7361,7 +7417,7 @@
       <c r="U91" s="39"/>
       <c r="V91" s="40"/>
       <c r="W91" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7369,16 +7425,16 @@
         <v>119</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>50</v>
+        <v>425</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -7398,7 +7454,7 @@
       <c r="U92" s="39"/>
       <c r="V92" s="40"/>
       <c r="W92" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7406,16 +7462,16 @@
         <v>120</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>51</v>
+        <v>426</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -7435,7 +7491,7 @@
       <c r="U93" s="39"/>
       <c r="V93" s="40"/>
       <c r="W93" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7443,16 +7499,16 @@
         <v>121</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>247</v>
+        <v>65</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>52</v>
+        <v>427</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -7472,7 +7528,7 @@
       <c r="U94" s="39"/>
       <c r="V94" s="40"/>
       <c r="W94" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7480,16 +7536,16 @@
         <v>123</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7509,7 +7565,7 @@
       <c r="U95" s="39"/>
       <c r="V95" s="40"/>
       <c r="W95" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7517,16 +7573,16 @@
         <v>125</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>53</v>
+        <v>428</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -7546,7 +7602,7 @@
       <c r="U96" s="39"/>
       <c r="V96" s="40"/>
       <c r="W96" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7554,16 +7610,16 @@
         <v>126</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7583,7 +7639,7 @@
       <c r="U97" s="39"/>
       <c r="V97" s="40"/>
       <c r="W97" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7591,16 +7647,16 @@
         <v>127</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7620,7 +7676,7 @@
       <c r="U98" s="39"/>
       <c r="V98" s="40"/>
       <c r="W98" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7628,16 +7684,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7657,7 +7713,7 @@
       <c r="U99" s="39"/>
       <c r="V99" s="40"/>
       <c r="W99" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7665,16 +7721,16 @@
         <v>129</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>54</v>
+        <v>429</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -7694,7 +7750,7 @@
       <c r="U100" s="39"/>
       <c r="V100" s="40"/>
       <c r="W100" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7702,16 +7758,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7731,7 +7787,7 @@
       <c r="U101" s="39"/>
       <c r="V101" s="40"/>
       <c r="W101" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7739,16 +7795,16 @@
         <v>131</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7768,7 +7824,7 @@
       <c r="U102" s="39"/>
       <c r="V102" s="40"/>
       <c r="W102" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7776,16 +7832,16 @@
         <v>132</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7805,7 +7861,7 @@
       <c r="U103" s="39"/>
       <c r="V103" s="40"/>
       <c r="W103" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7813,16 +7869,16 @@
         <v>133</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -7842,7 +7898,7 @@
       <c r="U104" s="39"/>
       <c r="V104" s="40"/>
       <c r="W104" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7850,16 +7906,16 @@
         <v>134</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>267</v>
+        <v>85</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -7879,7 +7935,7 @@
       <c r="U105" s="39"/>
       <c r="V105" s="40"/>
       <c r="W105" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7887,16 +7943,16 @@
         <v>135</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>268</v>
+        <v>86</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>269</v>
+        <v>87</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7916,7 +7972,7 @@
       <c r="U106" s="39"/>
       <c r="V106" s="40"/>
       <c r="W106" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7924,16 +7980,16 @@
         <v>136</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -7953,7 +8009,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="40"/>
       <c r="W107" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7961,16 +8017,16 @@
         <v>137</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>134</v>
+        <v>353</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -7990,7 +8046,7 @@
       <c r="U108" s="39"/>
       <c r="V108" s="40"/>
       <c r="W108" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7998,16 +8054,16 @@
         <v>138</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -8027,7 +8083,7 @@
       <c r="U109" s="39"/>
       <c r="V109" s="40"/>
       <c r="W109" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8035,16 +8091,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>275</v>
+        <v>93</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -8064,7 +8120,7 @@
       <c r="U110" s="39"/>
       <c r="V110" s="40"/>
       <c r="W110" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8072,16 +8128,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>277</v>
+        <v>95</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>279</v>
+        <v>97</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -8101,7 +8157,7 @@
       <c r="U111" s="39"/>
       <c r="V111" s="40"/>
       <c r="W111" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8109,16 +8165,16 @@
         <v>141</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>132</v>
+        <v>351</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -8138,7 +8194,7 @@
       <c r="U112" s="39"/>
       <c r="V112" s="40"/>
       <c r="W112" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8146,16 +8202,16 @@
         <v>142</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>281</v>
+        <v>99</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8175,7 +8231,7 @@
       <c r="U113" s="39"/>
       <c r="V113" s="40"/>
       <c r="W113" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8183,16 +8239,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>284</v>
+        <v>102</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8212,7 +8268,7 @@
       <c r="U114" s="39"/>
       <c r="V114" s="40"/>
       <c r="W114" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8220,16 +8276,16 @@
         <v>144</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>285</v>
+        <v>103</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>286</v>
+        <v>104</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8249,7 +8305,7 @@
       <c r="U115" s="39"/>
       <c r="V115" s="40"/>
       <c r="W115" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8257,16 +8313,16 @@
         <v>145</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>55</v>
+        <v>430</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -8286,7 +8342,7 @@
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
       <c r="W116" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8294,16 +8350,16 @@
         <v>146</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>288</v>
+        <v>106</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8323,7 +8379,7 @@
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
       <c r="W117" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8331,26 +8387,26 @@
         <v>152</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="42"/>
       <c r="J118" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K118" s="38" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="L118" s="38"/>
       <c r="M118" s="38"/>
@@ -8364,7 +8420,7 @@
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
       <c r="W118" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8372,26 +8428,26 @@
         <v>154</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="42"/>
       <c r="J119" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K119" s="38" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="L119" s="38"/>
       <c r="M119" s="38"/>
@@ -8405,7 +8461,7 @@
       <c r="U119" s="39"/>
       <c r="V119" s="40"/>
       <c r="W119" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8413,26 +8469,26 @@
         <v>155</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="42"/>
       <c r="J120" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K120" s="38" t="s">
-        <v>58</v>
+        <v>433</v>
       </c>
       <c r="L120" s="38"/>
       <c r="M120" s="38"/>
@@ -8446,7 +8502,7 @@
       <c r="U120" s="39"/>
       <c r="V120" s="40"/>
       <c r="W120" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8454,26 +8510,26 @@
         <v>156</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="42"/>
       <c r="J121" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K121" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L121" s="38"/>
       <c r="M121" s="38"/>
@@ -8487,7 +8543,7 @@
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
       <c r="W121" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8495,26 +8551,26 @@
         <v>158</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>293</v>
+        <v>111</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="42"/>
       <c r="J122" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K122" s="38" t="s">
-        <v>61</v>
+        <v>436</v>
       </c>
       <c r="L122" s="38"/>
       <c r="M122" s="38"/>
@@ -8528,7 +8584,7 @@
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
       <c r="W122" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8536,26 +8592,26 @@
         <v>159</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>294</v>
+        <v>112</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
       <c r="J123" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K123" s="38" t="s">
-        <v>57</v>
+        <v>432</v>
       </c>
       <c r="L123" s="38"/>
       <c r="M123" s="38"/>
@@ -8569,7 +8625,7 @@
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
       <c r="W123" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8577,26 +8633,26 @@
         <v>160</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>297</v>
+        <v>115</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="42"/>
       <c r="J124" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K124" s="38" t="s">
-        <v>56</v>
+        <v>431</v>
       </c>
       <c r="L124" s="38"/>
       <c r="M124" s="38"/>
@@ -8610,7 +8666,7 @@
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
       <c r="W124" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8618,26 +8674,26 @@
         <v>161</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>298</v>
+        <v>116</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>112</v>
+        <v>331</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
       <c r="J125" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K125" s="38" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="L125" s="38"/>
       <c r="M125" s="38"/>
@@ -8651,7 +8707,7 @@
       <c r="U125" s="39"/>
       <c r="V125" s="40"/>
       <c r="W125" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8659,26 +8715,26 @@
         <v>162</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>299</v>
+        <v>117</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>113</v>
+        <v>332</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
       <c r="J126" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K126" s="38" t="s">
-        <v>58</v>
+        <v>433</v>
       </c>
       <c r="L126" s="38"/>
       <c r="M126" s="38"/>
@@ -8692,7 +8748,7 @@
       <c r="U126" s="39"/>
       <c r="V126" s="40"/>
       <c r="W126" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8700,26 +8756,26 @@
         <v>163</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
       <c r="J127" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K127" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L127" s="38"/>
       <c r="M127" s="38"/>
@@ -8733,7 +8789,7 @@
       <c r="U127" s="39"/>
       <c r="V127" s="40"/>
       <c r="W127" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8741,26 +8797,26 @@
         <v>164</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>127</v>
+        <v>346</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
       <c r="J128" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K128" s="38" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="L128" s="38"/>
       <c r="M128" s="38"/>
@@ -8774,7 +8830,7 @@
       <c r="U128" s="39"/>
       <c r="V128" s="40"/>
       <c r="W128" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8782,26 +8838,26 @@
         <v>165</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
       <c r="J129" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K129" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L129" s="38"/>
       <c r="M129" s="38"/>
@@ -8815,7 +8871,7 @@
       <c r="U129" s="39"/>
       <c r="V129" s="40"/>
       <c r="W129" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8823,26 +8879,26 @@
         <v>166</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="42"/>
       <c r="J130" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K130" s="38" t="s">
-        <v>59</v>
+        <v>434</v>
       </c>
       <c r="L130" s="38"/>
       <c r="M130" s="38"/>
@@ -8856,7 +8912,7 @@
       <c r="U130" s="39"/>
       <c r="V130" s="40"/>
       <c r="W130" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8864,26 +8920,26 @@
         <v>167</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
       <c r="J131" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K131" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L131" s="38"/>
       <c r="M131" s="38"/>
@@ -8897,7 +8953,7 @@
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
       <c r="W131" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8905,26 +8961,26 @@
         <v>168</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
       <c r="J132" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K132" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L132" s="38"/>
       <c r="M132" s="38"/>
@@ -8938,7 +8994,7 @@
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
       <c r="W132" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -8946,29 +9002,29 @@
         <v>169</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>306</v>
+        <v>124</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
       <c r="J133" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K133" s="38" t="s">
-        <v>62</v>
+        <v>437</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>63</v>
+        <v>438</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -8981,7 +9037,7 @@
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
       <c r="W133" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8989,16 +9045,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -9018,7 +9074,7 @@
       <c r="U134" s="39"/>
       <c r="V134" s="40"/>
       <c r="W134" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9026,16 +9082,16 @@
         <v>177</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>188</v>
+        <v>293</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -9055,7 +9111,7 @@
       <c r="U135" s="39"/>
       <c r="V135" s="40"/>
       <c r="W135" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9063,16 +9119,16 @@
         <v>178</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -9092,7 +9148,7 @@
       <c r="U136" s="39"/>
       <c r="V136" s="40"/>
       <c r="W136" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9100,16 +9156,16 @@
         <v>179</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>312</v>
+        <v>130</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>64</v>
+        <v>439</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -9129,7 +9185,7 @@
       <c r="U137" s="39"/>
       <c r="V137" s="40"/>
       <c r="W137" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9137,16 +9193,16 @@
         <v>180</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>313</v>
+        <v>131</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>65</v>
+        <v>440</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -9166,7 +9222,7 @@
       <c r="U138" s="39"/>
       <c r="V138" s="40"/>
       <c r="W138" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9174,16 +9230,16 @@
         <v>181</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -9203,7 +9259,7 @@
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
       <c r="W139" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9211,16 +9267,16 @@
         <v>182</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>316</v>
+        <v>134</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>66</v>
+        <v>441</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -9240,7 +9296,7 @@
       <c r="U140" s="39"/>
       <c r="V140" s="40"/>
       <c r="W140" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9248,16 +9304,16 @@
         <v>183</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>67</v>
+        <v>442</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -9277,7 +9333,7 @@
       <c r="U141" s="39"/>
       <c r="V141" s="40"/>
       <c r="W141" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9285,16 +9341,16 @@
         <v>184</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>68</v>
+        <v>443</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -9314,7 +9370,7 @@
       <c r="U142" s="39"/>
       <c r="V142" s="40"/>
       <c r="W142" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9322,16 +9378,16 @@
         <v>185</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>69</v>
+        <v>444</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -9351,7 +9407,7 @@
       <c r="U143" s="39"/>
       <c r="V143" s="40"/>
       <c r="W143" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9359,16 +9415,16 @@
         <v>186</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>70</v>
+        <v>445</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -9388,7 +9444,7 @@
       <c r="U144" s="39"/>
       <c r="V144" s="40"/>
       <c r="W144" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9396,16 +9452,16 @@
         <v>187</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>321</v>
+        <v>139</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>71</v>
+        <v>446</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -9425,7 +9481,7 @@
       <c r="U145" s="39"/>
       <c r="V145" s="40"/>
       <c r="W145" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9433,16 +9489,16 @@
         <v>188</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>190</v>
+        <v>295</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9462,7 +9518,7 @@
       <c r="U146" s="39"/>
       <c r="V146" s="40"/>
       <c r="W146" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9470,16 +9526,16 @@
         <v>189</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>323</v>
+        <v>141</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9499,7 +9555,7 @@
       <c r="U147" s="39"/>
       <c r="V147" s="40"/>
       <c r="W147" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9507,16 +9563,16 @@
         <v>190</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9536,7 +9592,7 @@
       <c r="U148" s="39"/>
       <c r="V148" s="40"/>
       <c r="W148" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9544,16 +9600,16 @@
         <v>191</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>325</v>
+        <v>143</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9573,7 +9629,7 @@
       <c r="U149" s="39"/>
       <c r="V149" s="40"/>
       <c r="W149" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9581,16 +9637,16 @@
         <v>376</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>326</v>
+        <v>144</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>90</v>
+        <v>461</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9610,7 +9666,7 @@
       <c r="U150" s="39"/>
       <c r="V150" s="40"/>
       <c r="W150" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9618,16 +9674,16 @@
         <v>417</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>153</v>
+        <v>372</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -9647,7 +9703,7 @@
       <c r="U151" s="39"/>
       <c r="V151" s="40"/>
       <c r="W151" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9655,16 +9711,16 @@
         <v>418</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>152</v>
+        <v>371</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -9684,7 +9740,7 @@
       <c r="U152" s="39"/>
       <c r="V152" s="40"/>
       <c r="W152" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9692,16 +9748,16 @@
         <v>419</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>111</v>
+        <v>330</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9721,7 +9777,7 @@
       <c r="U153" s="39"/>
       <c r="V153" s="40"/>
       <c r="W153" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9729,16 +9785,16 @@
         <v>423</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9758,7 +9814,7 @@
       <c r="U154" s="39"/>
       <c r="V154" s="40"/>
       <c r="W154" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9766,16 +9822,16 @@
         <v>424</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9795,7 +9851,7 @@
       <c r="U155" s="39"/>
       <c r="V155" s="40"/>
       <c r="W155" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9803,16 +9859,16 @@
         <v>425</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9832,7 +9888,7 @@
       <c r="U156" s="39"/>
       <c r="V156" s="40"/>
       <c r="W156" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9840,16 +9896,16 @@
         <v>432</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>89</v>
+        <v>460</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9869,7 +9925,7 @@
       <c r="U157" s="39"/>
       <c r="V157" s="40"/>
       <c r="W157" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9877,16 +9933,16 @@
         <v>433</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -9906,7 +9962,7 @@
       <c r="U158" s="39"/>
       <c r="V158" s="40"/>
       <c r="W158" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9914,16 +9970,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -9943,7 +9999,7 @@
       <c r="U159" s="39"/>
       <c r="V159" s="40"/>
       <c r="W159" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9951,16 +10007,16 @@
         <v>435</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -9980,7 +10036,7 @@
       <c r="U160" s="39"/>
       <c r="V160" s="40"/>
       <c r="W160" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9988,16 +10044,16 @@
         <v>437</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -10017,7 +10073,7 @@
       <c r="U161" s="39"/>
       <c r="V161" s="40"/>
       <c r="W161" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10025,16 +10081,16 @@
         <v>438</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>214</v>
+        <v>319</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -10054,7 +10110,7 @@
       <c r="U162" s="39"/>
       <c r="V162" s="40"/>
       <c r="W162" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10062,16 +10118,16 @@
         <v>440</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -10091,7 +10147,7 @@
       <c r="U163" s="39"/>
       <c r="V163" s="40"/>
       <c r="W163" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10099,16 +10155,16 @@
         <v>441</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -10128,7 +10184,7 @@
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10136,16 +10192,16 @@
         <v>442</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>86</v>
+        <v>457</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -10165,7 +10221,7 @@
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10173,16 +10229,16 @@
         <v>443</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>85</v>
+        <v>456</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>87</v>
+        <v>458</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -10202,7 +10258,7 @@
       <c r="U166" s="39"/>
       <c r="V166" s="40"/>
       <c r="W166" s="38" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10210,16 +10266,16 @@
         <v>444</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>307</v>
+        <v>125</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>350</v>
+        <v>168</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -10239,7 +10295,7 @@
       <c r="U167" s="39"/>
       <c r="V167" s="40"/>
       <c r="W167" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10247,16 +10303,16 @@
         <v>445</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>308</v>
+        <v>126</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>351</v>
+        <v>169</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10276,7 +10332,7 @@
       <c r="U168" s="39"/>
       <c r="V168" s="40"/>
       <c r="W168" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10284,31 +10340,31 @@
         <v>448</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>137</v>
+        <v>356</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>139</v>
+        <v>358</v>
       </c>
       <c r="F169" s="37">
         <v>45779</v>
       </c>
       <c r="G169" s="37" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>44</v>
+        <v>422</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
@@ -10323,7 +10379,7 @@
       <c r="U169" s="39"/>
       <c r="V169" s="40"/>
       <c r="W169" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
@@ -10331,31 +10387,31 @@
         <v>449</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>138</v>
+        <v>357</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="F170" s="37">
-        <v>45779</v>
+        <v>45782</v>
       </c>
       <c r="G170" s="37" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J170" s="38" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="38"/>
@@ -10370,7 +10426,7 @@
       <c r="U170" s="39"/>
       <c r="V170" s="40"/>
       <c r="W170" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10378,16 +10434,16 @@
         <v>450</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>103</v>
+        <v>322</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>105</v>
+        <v>324</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10407,7 +10463,7 @@
       <c r="U171" s="39"/>
       <c r="V171" s="40"/>
       <c r="W171" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10415,16 +10471,16 @@
         <v>451</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>104</v>
+        <v>323</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10444,7 +10500,7 @@
       <c r="U172" s="39"/>
       <c r="V172" s="40"/>
       <c r="W172" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10452,16 +10508,16 @@
         <v>452</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>99</v>
+        <v>470</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>100</v>
+        <v>471</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10481,7 +10537,7 @@
       <c r="U173" s="39"/>
       <c r="V173" s="40"/>
       <c r="W173" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10489,16 +10545,16 @@
         <v>454</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>124</v>
+        <v>343</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10518,7 +10574,7 @@
       <c r="U174" s="39"/>
       <c r="V174" s="40"/>
       <c r="W174" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10526,16 +10582,16 @@
         <v>455</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>126</v>
+        <v>345</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -10555,7 +10611,7 @@
       <c r="U175" s="39"/>
       <c r="V175" s="40"/>
       <c r="W175" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10563,16 +10619,16 @@
         <v>456</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>121</v>
+        <v>340</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -10592,7 +10648,7 @@
       <c r="U176" s="39"/>
       <c r="V176" s="40"/>
       <c r="W176" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10600,16 +10656,16 @@
         <v>457</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>122</v>
+        <v>341</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>123</v>
+        <v>342</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -10629,7 +10685,7 @@
       <c r="U177" s="39"/>
       <c r="V177" s="40"/>
       <c r="W177" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10637,16 +10693,16 @@
         <v>458</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>116</v>
+        <v>335</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -10666,7 +10722,7 @@
       <c r="U178" s="39"/>
       <c r="V178" s="40"/>
       <c r="W178" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10674,16 +10730,16 @@
         <v>459</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -10703,7 +10759,7 @@
       <c r="U179" s="39"/>
       <c r="V179" s="40"/>
       <c r="W179" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10711,16 +10767,16 @@
         <v>460</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>97</v>
+        <v>468</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>98</v>
+        <v>469</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -10740,7 +10796,7 @@
       <c r="U180" s="39"/>
       <c r="V180" s="40"/>
       <c r="W180" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10748,26 +10804,26 @@
         <v>461</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>142</v>
+        <v>361</v>
       </c>
       <c r="E181" s="43" t="s">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
       <c r="J181" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K181" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L181" s="35"/>
       <c r="M181" s="38"/>
@@ -10781,7 +10837,7 @@
       <c r="U181" s="35"/>
       <c r="V181" s="35"/>
       <c r="W181" s="35" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -10789,26 +10845,26 @@
         <v>462</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>145</v>
+        <v>364</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>146</v>
+        <v>365</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
       <c r="J182" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K182" s="38" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L182" s="35"/>
       <c r="M182" s="38"/>
@@ -10822,7 +10878,7 @@
       <c r="U182" s="35"/>
       <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10830,16 +10886,16 @@
         <v>463</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>147</v>
+        <v>366</v>
       </c>
       <c r="E183" s="43" t="s">
-        <v>148</v>
+        <v>367</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -10859,7 +10915,7 @@
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
       <c r="W183" s="35" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10867,16 +10923,16 @@
         <v>464</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>149</v>
+        <v>368</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -10896,7 +10952,7 @@
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
       <c r="W184" s="35" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10904,16 +10960,16 @@
         <v>465</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>151</v>
+        <v>370</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -10933,7 +10989,7 @@
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
       <c r="W185" s="35" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10941,16 +10997,16 @@
         <v>466</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C186" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D186" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D186" s="35" t="s">
-        <v>9</v>
-      </c>
       <c r="E186" s="44" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -10970,7 +11026,7 @@
       <c r="U186" s="35"/>
       <c r="V186" s="35"/>
       <c r="W186" s="35" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10978,16 +11034,16 @@
         <v>467</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>1</v>
+        <v>380</v>
       </c>
       <c r="E187" s="43" t="s">
-        <v>2</v>
+        <v>381</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -11007,7 +11063,7 @@
       <c r="U187" s="35"/>
       <c r="V187" s="35"/>
       <c r="W187" s="35" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -11015,29 +11071,29 @@
         <v>468</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>3</v>
+        <v>382</v>
       </c>
       <c r="E188" s="43" t="s">
-        <v>4</v>
+        <v>383</v>
       </c>
       <c r="F188" s="35"/>
       <c r="G188" s="35"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
       <c r="J188" s="38" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K188" s="38" t="s">
-        <v>62</v>
+        <v>437</v>
       </c>
       <c r="L188" s="35" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -11050,7 +11106,7 @@
       <c r="U188" s="35"/>
       <c r="V188" s="35"/>
       <c r="W188" s="35" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -11058,16 +11114,16 @@
         <v>469</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>5</v>
+        <v>384</v>
       </c>
       <c r="E189" s="43" t="s">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -11087,7 +11143,7 @@
       <c r="U189" s="35"/>
       <c r="V189" s="35"/>
       <c r="W189" s="35" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -11095,16 +11151,16 @@
         <v>470</v>
       </c>
       <c r="B190" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C190" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="D190" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="E190" s="43" t="s">
         <v>387</v>
-      </c>
-      <c r="C190" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="D190" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" s="43" t="s">
-        <v>8</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -11124,7 +11180,7 @@
       <c r="U190" s="35"/>
       <c r="V190" s="35"/>
       <c r="W190" s="35" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -11132,31 +11188,31 @@
         <v>471</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="E191" s="43" t="s">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="F191" s="37">
         <v>45780</v>
       </c>
       <c r="G191" s="37" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H191" s="37" t="s">
-        <v>72</v>
+        <v>447</v>
       </c>
       <c r="I191" s="42" t="s">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="J191" s="38" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
@@ -11171,7 +11227,7 @@
       <c r="U191" s="39"/>
       <c r="V191" s="40"/>
       <c r="W191" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
@@ -11179,31 +11235,31 @@
         <v>472</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>27</v>
+        <v>406</v>
       </c>
       <c r="F192" s="37">
         <v>45780</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H192" s="37" t="s">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="I192" s="42" t="s">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="J192" s="38" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="K192" s="38"/>
       <c r="L192" s="38"/>
@@ -11218,7 +11274,7 @@
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="6:23" ht="14.25" customHeight="1">
@@ -15334,42 +15390,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -15400,162 +15456,162 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>88</v>
+        <v>459</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>327</v>
+        <v>145</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>348</v>
+        <v>166</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>24</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>143</v>
+        <v>362</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>10</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>390</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>391</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>392</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>393</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>394</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>91</v>
+        <v>462</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>16</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
       <c r="A10" s="5" t="s">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>331</v>
+        <v>149</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>332</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>144</v>
+        <v>363</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>18</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
@@ -16534,26 +16590,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>376</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>333</v>
+        <v>151</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -49,670 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="473">
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
-  </si>
-  <si>
-    <t>2025-05-05T03:52:28Z</t>
-  </si>
-  <si>
-    <t>aecc2a02bc2c6ffc9f05555b69f3a178</t>
-  </si>
-  <si>
-    <t>2025-05-03T09:05:14Z</t>
-  </si>
-  <si>
-    <t>2025-05-03T09:26:14Z</t>
-  </si>
-  <si>
-    <t>2025-05-02T04:52:31Z</t>
-  </si>
-  <si>
-    <t>2025-05-03T06:36:01Z</t>
-  </si>
-  <si>
-    <t>2025-05-03T08:36:14Z</t>
-  </si>
-  <si>
-    <t>2025-05-02T04:22:55Z</t>
-  </si>
-  <si>
-    <t>4809a3b216cb4f801b8db0dec53fceca</t>
-  </si>
-  <si>
-    <t>2025-05-05T04:57:36Z</t>
-  </si>
-  <si>
-    <t>971b0f618c027aa5b1779e8fec455a47</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2dfe96cadfa5a33d27521a3c3869d11a37a13dc4eab0b4454615a8dd31cfd594.8984cc013a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT8_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT9_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT11_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT15_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT8_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT9_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT11_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT19_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT6_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT8_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT9_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT10_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'applicativo inserisce di default il valore N  ed è possibile cambiarlo dal form selezionando  N ,  V </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT13_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT14_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT15_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT17_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT18_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT19_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT21_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT22_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT23_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l’applicativo effettua controlli preventivi sul dato inserito</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT24_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT25_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT26_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT27_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT28_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT29_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT9_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT19_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT21_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT22_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT2</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT8_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT9_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT11_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT12_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT19_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT21_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
-  </si>
-  <si>
-    <t>ID TEST CASE OK</t>
-  </si>
-  <si>
-    <t>ID TEST CASE KO</t>
-  </si>
-  <si>
-    <t>Validazione</t>
-  </si>
-  <si>
-    <t>LAB - TRASF</t>
-  </si>
-  <si>
-    <t>191,376 più ove possibile fare riferimento agli "ID TEST CASE OK" del Tipo "LAB"</t>
-  </si>
-  <si>
-    <t>Fare riferimento agli "ID TEST CASE KO" del Tipo "LAB"</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>RAZIONALE DI APPLICABILITA' - ALTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
-  </si>
-  <si>
-    <t>Razionale di Applicabilità</t>
-  </si>
-  <si>
-    <t>Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
-  </si>
-  <si>
-    <t>Campo obbligatorio</t>
-  </si>
-  <si>
-    <t>Campo valorizzato di default</t>
-  </si>
-  <si>
-    <t>Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
-  </si>
-  <si>
-    <t>Campo valorizzabile tramite selezione da un set di valori ammessi</t>
-  </si>
-  <si>
-    <t>L’applicativo effettua controlli preventivi sul dato inserito</t>
-  </si>
-  <si>
-    <t>Altro (specificare)</t>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>Versione:</t>
-  </si>
-  <si>
-    <t>444, 445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <r>
-      <t>I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali https://www.hl7.it/realm-italiano/ e coerentemente ai casi di test descritti.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
-  </si>
-  <si>
-    <t>2) Per tutti i casi di test coerenti con la/e tipologia/e di documento utilizzata/e dal software è necessario compilare SEMPRE la colonna APPLICABILITA' con SI o NO</t>
-  </si>
-  <si>
-    <t>COME VALORIZZARE I DATAJSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) E' necessario seguire le istruzioni fornite al path github.com/ministero-salute/it-fse-accreditamento, sezione "Struttura dei risultati (data.json)" con l'accortezza di utilizzare come "id" in "results", gli stessi identificativi di test effettuati. Questi sono recuperabili dalla colonna ID del tab TestCases. </t>
-  </si>
-  <si>
-    <t>2) E' necessario compilare i datajson per tutti i casi OK/KO applicabili.</t>
-  </si>
-  <si>
-    <t>PREREQUISITI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Obiettivo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: In questo foglio si riportano i pre requisiti/assunzioni necessari all'accreditamento del software dei </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> che ne hanno fatto richiesta, e utili alla compilazione della presente Checklist.</t>
-    </r>
-  </si>
-  <si>
-    <t>Per gli step precedenti alla Checklist e relativi allo sviluppo per l'integrazione con il Gateway, è necessario fare riferimento al portale https://developers.italia.it/it/fse/#resourcecontent-2</t>
-  </si>
-  <si>
-    <t>Il fornitore prima di procedere con la compilazione di questo xls, deve aver richiesto a Sogei le credenziali (fse_support@sogei.it fino a quando non sarà disponibile il sistema di provisioning) associate al fornitore per accedere ai servizi esposti dalla piattaforma Gateway di test in ambiente di pre produzione.</t>
-  </si>
-  <si>
-    <t>il fornitore, prima di procedere con la Checklist, risulta autenticato secondo quanto definito nelle specifiche "https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway"</t>
-  </si>
-  <si>
-    <t>Il fornitore comunica al DTD e Sogei:
-a. nome del fornitore
-b. identificativi del software oggetto dell’accreditamento (metadati che dovranno essere inseriti nel token JWT): subject_application_id, subject_application_vendor, subject_application_version
-c. inizio della sessione di accreditamento
-d. tipi di documento e servizi che sono oggetto dell’accreditamento</t>
-  </si>
-  <si>
-    <t>Per il Mapping tra tipologia documenti, servizio e ID Test Cases (colonna A), è possibile fare riferimento al tab "Summary"</t>
-  </si>
-  <si>
-    <t>NOME FORNITORE:</t>
-  </si>
-  <si>
-    <t>IDENTIFICATIVI SOFTWARE</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>SERVIZIO</t>
-  </si>
-  <si>
-    <t>Tipo Documento</t>
-  </si>
-  <si>
-    <t>NOME CASO TEST</t>
-  </si>
-  <si>
-    <t>DESCRIZIONE CASO TEST</t>
-  </si>
-  <si>
-    <t>DATA ESECUZIONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>TRACEID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="473">
   <si>
     <t>WORKFLOWINSTANCEID</t>
   </si>
@@ -1021,6 +358,669 @@
     <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
   </si>
   <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
+  </si>
+  <si>
+    <t>2025-05-05T03:52:28Z</t>
+  </si>
+  <si>
+    <t>aecc2a02bc2c6ffc9f05555b69f3a178</t>
+  </si>
+  <si>
+    <t>2025-05-03T09:05:14Z</t>
+  </si>
+  <si>
+    <t>2025-05-03T09:26:14Z</t>
+  </si>
+  <si>
+    <t>2025-05-02T04:52:31Z</t>
+  </si>
+  <si>
+    <t>2025-05-03T06:36:01Z</t>
+  </si>
+  <si>
+    <t>2025-05-03T08:36:14Z</t>
+  </si>
+  <si>
+    <t>2025-05-02T04:22:55Z</t>
+  </si>
+  <si>
+    <t>4809a3b216cb4f801b8db0dec53fceca</t>
+  </si>
+  <si>
+    <t>2025-05-05T04:57:36Z</t>
+  </si>
+  <si>
+    <t>971b0f618c027aa5b1779e8fec455a47</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2dfe96cadfa5a33d27521a3c3869d11a37a13dc4eab0b4454615a8dd31cfd594.8984cc013a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT8_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT11_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT15_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT8_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT11_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT19_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT6_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT8_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT9_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT10_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo inserisce di default il valore N  ed è possibile cambiarlo dal form selezionando  N ,  V </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT15_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT17_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT18_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT21_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l’applicativo effettua controlli preventivi sul dato inserito</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT24_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT25_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT26_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT27_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT28_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT29_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT19_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT21_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT22_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT1</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT2</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT8_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT11_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT12_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT19_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT21_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
+  </si>
+  <si>
+    <t>ID TEST CASE OK</t>
+  </si>
+  <si>
+    <t>ID TEST CASE KO</t>
+  </si>
+  <si>
+    <t>Validazione</t>
+  </si>
+  <si>
+    <t>LAB - TRASF</t>
+  </si>
+  <si>
+    <t>191,376 più ove possibile fare riferimento agli "ID TEST CASE OK" del Tipo "LAB"</t>
+  </si>
+  <si>
+    <t>Fare riferimento agli "ID TEST CASE KO" del Tipo "LAB"</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>RAZIONALE DI APPLICABILITA' - ALTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
+  </si>
+  <si>
+    <t>Razionale di Applicabilità</t>
+  </si>
+  <si>
+    <t>Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
+  </si>
+  <si>
+    <t>Campo obbligatorio</t>
+  </si>
+  <si>
+    <t>Campo valorizzato di default</t>
+  </si>
+  <si>
+    <t>Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
+  </si>
+  <si>
+    <t>Campo valorizzabile tramite selezione da un set di valori ammessi</t>
+  </si>
+  <si>
+    <t>L’applicativo effettua controlli preventivi sul dato inserito</t>
+  </si>
+  <si>
+    <t>Altro (specificare)</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>Versione:</t>
+  </si>
+  <si>
+    <t>444, 445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali https://www.hl7.it/realm-italiano/ e coerentemente ai casi di test descritti.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
+  </si>
+  <si>
+    <t>2) Per tutti i casi di test coerenti con la/e tipologia/e di documento utilizzata/e dal software è necessario compilare SEMPRE la colonna APPLICABILITA' con SI o NO</t>
+  </si>
+  <si>
+    <t>COME VALORIZZARE I DATAJSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) E' necessario seguire le istruzioni fornite al path github.com/ministero-salute/it-fse-accreditamento, sezione "Struttura dei risultati (data.json)" con l'accortezza di utilizzare come "id" in "results", gli stessi identificativi di test effettuati. Questi sono recuperabili dalla colonna ID del tab TestCases. </t>
+  </si>
+  <si>
+    <t>2) E' necessario compilare i datajson per tutti i casi OK/KO applicabili.</t>
+  </si>
+  <si>
+    <t>PREREQUISITI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Obiettivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: In questo foglio si riportano i pre requisiti/assunzioni necessari all'accreditamento del software dei </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> che ne hanno fatto richiesta, e utili alla compilazione della presente Checklist.</t>
+    </r>
+  </si>
+  <si>
+    <t>Per gli step precedenti alla Checklist e relativi allo sviluppo per l'integrazione con il Gateway, è necessario fare riferimento al portale https://developers.italia.it/it/fse/#resourcecontent-2</t>
+  </si>
+  <si>
+    <t>Il fornitore prima di procedere con la compilazione di questo xls, deve aver richiesto a Sogei le credenziali (fse_support@sogei.it fino a quando non sarà disponibile il sistema di provisioning) associate al fornitore per accedere ai servizi esposti dalla piattaforma Gateway di test in ambiente di pre produzione.</t>
+  </si>
+  <si>
+    <t>il fornitore, prima di procedere con la Checklist, risulta autenticato secondo quanto definito nelle specifiche "https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway"</t>
+  </si>
+  <si>
+    <t>Il fornitore comunica al DTD e Sogei:
+a. nome del fornitore
+b. identificativi del software oggetto dell’accreditamento (metadati che dovranno essere inseriti nel token JWT): subject_application_id, subject_application_vendor, subject_application_version
+c. inizio della sessione di accreditamento
+d. tipi di documento e servizi che sono oggetto dell’accreditamento</t>
+  </si>
+  <si>
+    <t>Per il Mapping tra tipologia documenti, servizio e ID Test Cases (colonna A), è possibile fare riferimento al tab "Summary"</t>
+  </si>
+  <si>
+    <t>NOME FORNITORE:</t>
+  </si>
+  <si>
+    <t>IDENTIFICATIVI SOFTWARE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SERVIZIO</t>
+  </si>
+  <si>
+    <t>Tipo Documento</t>
+  </si>
+  <si>
+    <t>NOME CASO TEST</t>
+  </si>
+  <si>
+    <t>DESCRIZIONE CASO TEST</t>
+  </si>
+  <si>
+    <t>DATA ESECUZIONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TRACEID</t>
+  </si>
+  <si>
     <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
     DATA ESECUZIONE, 
     TIMESTAMP, 
@@ -1035,42 +1035,6 @@
     GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
@@ -1286,46 +1250,6 @@
 </t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
@@ -1547,6 +1471,42 @@
     <t>8.2.5</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
   </si>
   <si>
@@ -1788,6 +1748,46 @@
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
   </si>
 </sst>
 </file>
@@ -2796,22 +2796,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45">
       <c r="A4" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="210">
@@ -2821,12 +2821,12 @@
     </row>
     <row r="6" spans="1:1" ht="90">
       <c r="A6" s="17" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2834,17 +2834,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2877,12 +2877,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2893,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
@@ -2901,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
@@ -2909,7 +2909,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
@@ -2917,7 +2917,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
@@ -2925,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2933,7 +2933,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3936,10 +3936,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I169" sqref="I169"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:IV15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -4010,11 +4010,11 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="6"/>
@@ -4040,7 +4040,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="56" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="4"/>
@@ -4067,7 +4067,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D5" s="48"/>
       <c r="F5" s="6"/>
@@ -4157,73 +4157,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4260,7 +4260,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4268,16 +4268,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4297,7 +4297,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4305,16 +4305,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -4334,7 +4334,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4342,16 +4342,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4371,51 +4371,53 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A14" s="35">
         <v>31</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="F14" s="37">
         <v>45780</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="M14" s="38" t="s">
+        <v>224</v>
+      </c>
       <c r="N14" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
@@ -4424,46 +4426,54 @@
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A15" s="35">
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="F15" s="37">
         <v>45782</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
+      <c r="M15" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
@@ -4471,7 +4481,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4479,16 +4489,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4508,7 +4518,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4516,16 +4526,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4545,7 +4555,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4553,16 +4563,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -4582,7 +4592,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4590,16 +4600,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4619,7 +4629,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4627,16 +4637,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4656,7 +4666,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4664,16 +4674,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -4693,51 +4703,53 @@
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A22" s="35">
         <v>39</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="F22" s="37">
         <v>45780</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="M22" s="38" t="s">
+        <v>224</v>
+      </c>
       <c r="N22" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
@@ -4746,46 +4758,54 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A23" s="35">
         <v>40</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="F23" s="37">
         <v>45782</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="M23" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
@@ -4793,7 +4813,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4801,16 +4821,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4830,7 +4850,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4838,16 +4858,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4867,7 +4887,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4875,16 +4895,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4904,7 +4924,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4912,16 +4932,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4939,11 +4959,11 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4951,16 +4971,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D28" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="43" t="s">
         <v>236</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>165</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4978,11 +4998,11 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4990,16 +5010,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -5017,113 +5037,117 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A30" s="35">
         <v>47</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="42"/>
       <c r="J30" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="O30" s="38"/>
+        <v>224</v>
+      </c>
+      <c r="O30" s="38" t="s">
+        <v>443</v>
+      </c>
       <c r="P30" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="R30" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A31" s="35">
         <v>48</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="42"/>
       <c r="J31" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="N31" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="O31" s="38"/>
+        <v>224</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>443</v>
+      </c>
       <c r="P31" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="R31" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5131,16 +5155,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -5158,11 +5182,11 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5170,16 +5194,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5197,11 +5221,11 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5209,16 +5233,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5236,11 +5260,11 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5248,16 +5272,16 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -5277,7 +5301,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5285,16 +5309,16 @@
         <v>55</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5314,7 +5338,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5322,16 +5346,16 @@
         <v>56</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5351,7 +5375,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5359,16 +5383,16 @@
         <v>57</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5388,7 +5412,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5396,16 +5420,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5425,7 +5449,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5433,16 +5457,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5462,7 +5486,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5470,16 +5494,16 @@
         <v>60</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5499,7 +5523,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5507,16 +5531,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5536,7 +5560,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5544,16 +5568,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>257</v>
+        <v>64</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5573,7 +5597,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5581,16 +5605,16 @@
         <v>64</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5610,7 +5634,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5618,16 +5642,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5647,7 +5671,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5655,16 +5679,16 @@
         <v>67</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5684,7 +5708,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5692,16 +5716,16 @@
         <v>68</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>262</v>
+        <v>69</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5721,7 +5745,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5729,16 +5753,16 @@
         <v>69</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>263</v>
+        <v>70</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5758,7 +5782,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5766,16 +5790,16 @@
         <v>70</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5795,7 +5819,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5803,16 +5827,16 @@
         <v>71</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5832,7 +5856,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5840,16 +5864,16 @@
         <v>72</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5869,7 +5893,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5877,16 +5901,16 @@
         <v>73</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5906,7 +5930,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5914,16 +5938,16 @@
         <v>74</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5943,34 +5967,34 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A54" s="35">
         <v>76</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
       <c r="I54" s="42"/>
       <c r="J54" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K54" s="38" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
@@ -5984,34 +6008,34 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A55" s="35">
         <v>78</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
       <c r="I55" s="42"/>
       <c r="J55" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K55" s="38" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
@@ -6025,34 +6049,34 @@
       <c r="U55" s="39"/>
       <c r="V55" s="40"/>
       <c r="W55" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A56" s="35">
         <v>79</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
       <c r="I56" s="42"/>
       <c r="J56" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K56" s="38" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
@@ -6066,34 +6090,34 @@
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A57" s="35">
         <v>80</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
       <c r="I57" s="42"/>
       <c r="J57" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
@@ -6107,34 +6131,34 @@
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A58" s="35">
         <v>81</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
       <c r="I58" s="42"/>
       <c r="J58" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K58" s="38" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
@@ -6148,34 +6172,34 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A59" s="35">
         <v>82</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
       <c r="I59" s="42"/>
       <c r="J59" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K59" s="38" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
@@ -6189,34 +6213,34 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A60" s="35">
         <v>83</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="42"/>
       <c r="J60" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K60" s="38" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
@@ -6230,34 +6254,34 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A61" s="35">
         <v>84</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
       <c r="I61" s="42"/>
       <c r="J61" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
@@ -6271,34 +6295,34 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A62" s="35">
         <v>85</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
       <c r="I62" s="42"/>
       <c r="J62" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K62" s="38" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
@@ -6312,34 +6336,34 @@
       <c r="U62" s="39"/>
       <c r="V62" s="40"/>
       <c r="W62" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A63" s="35">
         <v>86</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
       <c r="I63" s="42"/>
       <c r="J63" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K63" s="38" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
@@ -6353,34 +6377,34 @@
       <c r="U63" s="39"/>
       <c r="V63" s="40"/>
       <c r="W63" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A64" s="35">
         <v>87</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
       <c r="I64" s="42"/>
       <c r="J64" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K64" s="38" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="L64" s="38"/>
       <c r="M64" s="38"/>
@@ -6394,34 +6418,34 @@
       <c r="U64" s="39"/>
       <c r="V64" s="40"/>
       <c r="W64" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A65" s="35">
         <v>88</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
       <c r="I65" s="42"/>
       <c r="J65" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K65" s="38" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
@@ -6435,34 +6459,34 @@
       <c r="U65" s="39"/>
       <c r="V65" s="40"/>
       <c r="W65" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A66" s="35">
         <v>89</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
       <c r="I66" s="42"/>
       <c r="J66" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K66" s="38" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L66" s="38"/>
       <c r="M66" s="38"/>
@@ -6476,34 +6500,34 @@
       <c r="U66" s="39"/>
       <c r="V66" s="40"/>
       <c r="W66" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A67" s="35">
         <v>90</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
       <c r="I67" s="42"/>
       <c r="J67" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K67" s="38" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="L67" s="38"/>
       <c r="M67" s="38"/>
@@ -6517,34 +6541,34 @@
       <c r="U67" s="39"/>
       <c r="V67" s="40"/>
       <c r="W67" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A68" s="35">
         <v>91</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
       <c r="I68" s="42"/>
       <c r="J68" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K68" s="38" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="L68" s="38"/>
       <c r="M68" s="38"/>
@@ -6558,34 +6582,34 @@
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A69" s="35">
         <v>92</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="42"/>
       <c r="J69" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K69" s="38" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L69" s="38"/>
       <c r="M69" s="38"/>
@@ -6599,34 +6623,34 @@
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A70" s="35">
         <v>93</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="42"/>
       <c r="J70" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K70" s="38" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L70" s="38"/>
       <c r="M70" s="38"/>
@@ -6640,7 +6664,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="40"/>
       <c r="W70" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6648,16 +6672,16 @@
         <v>95</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -6677,7 +6701,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="40"/>
       <c r="W71" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6685,16 +6709,16 @@
         <v>97</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -6714,7 +6738,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="40"/>
       <c r="W72" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6722,16 +6746,16 @@
         <v>98</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -6751,7 +6775,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="40"/>
       <c r="W73" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6759,16 +6783,16 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -6788,7 +6812,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="40"/>
       <c r="W74" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6796,16 +6820,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6825,7 +6849,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="40"/>
       <c r="W75" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6833,16 +6857,16 @@
         <v>101</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -6862,7 +6886,7 @@
       <c r="U76" s="39"/>
       <c r="V76" s="40"/>
       <c r="W76" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6870,16 +6894,16 @@
         <v>102</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -6899,7 +6923,7 @@
       <c r="U77" s="39"/>
       <c r="V77" s="40"/>
       <c r="W77" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6907,16 +6931,16 @@
         <v>103</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -6936,7 +6960,7 @@
       <c r="U78" s="39"/>
       <c r="V78" s="40"/>
       <c r="W78" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6944,16 +6968,16 @@
         <v>104</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6973,7 +6997,7 @@
       <c r="U79" s="39"/>
       <c r="V79" s="40"/>
       <c r="W79" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6981,16 +7005,16 @@
         <v>105</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -7010,7 +7034,7 @@
       <c r="U80" s="39"/>
       <c r="V80" s="40"/>
       <c r="W80" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7018,16 +7042,16 @@
         <v>106</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -7047,7 +7071,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="40"/>
       <c r="W81" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7055,16 +7079,16 @@
         <v>108</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -7084,7 +7108,7 @@
       <c r="U82" s="39"/>
       <c r="V82" s="40"/>
       <c r="W82" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7092,16 +7116,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -7121,7 +7145,7 @@
       <c r="U83" s="39"/>
       <c r="V83" s="40"/>
       <c r="W83" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7129,16 +7153,16 @@
         <v>111</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -7158,7 +7182,7 @@
       <c r="U84" s="39"/>
       <c r="V84" s="40"/>
       <c r="W84" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7166,16 +7190,16 @@
         <v>112</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7195,7 +7219,7 @@
       <c r="U85" s="39"/>
       <c r="V85" s="40"/>
       <c r="W85" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7203,16 +7227,16 @@
         <v>113</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7232,7 +7256,7 @@
       <c r="U86" s="39"/>
       <c r="V86" s="40"/>
       <c r="W86" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7240,16 +7264,16 @@
         <v>114</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7269,7 +7293,7 @@
       <c r="U87" s="39"/>
       <c r="V87" s="40"/>
       <c r="W87" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7277,16 +7301,16 @@
         <v>115</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7306,7 +7330,7 @@
       <c r="U88" s="39"/>
       <c r="V88" s="40"/>
       <c r="W88" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7314,16 +7338,16 @@
         <v>116</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7343,7 +7367,7 @@
       <c r="U89" s="39"/>
       <c r="V89" s="40"/>
       <c r="W89" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7351,16 +7375,16 @@
         <v>117</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7380,7 +7404,7 @@
       <c r="U90" s="39"/>
       <c r="V90" s="40"/>
       <c r="W90" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7388,16 +7412,16 @@
         <v>118</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -7417,7 +7441,7 @@
       <c r="U91" s="39"/>
       <c r="V91" s="40"/>
       <c r="W91" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7425,16 +7449,16 @@
         <v>119</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -7454,7 +7478,7 @@
       <c r="U92" s="39"/>
       <c r="V92" s="40"/>
       <c r="W92" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7462,16 +7486,16 @@
         <v>120</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -7491,7 +7515,7 @@
       <c r="U93" s="39"/>
       <c r="V93" s="40"/>
       <c r="W93" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7499,16 +7523,16 @@
         <v>121</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -7528,7 +7552,7 @@
       <c r="U94" s="39"/>
       <c r="V94" s="40"/>
       <c r="W94" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7536,16 +7560,16 @@
         <v>123</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7565,7 +7589,7 @@
       <c r="U95" s="39"/>
       <c r="V95" s="40"/>
       <c r="W95" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7573,16 +7597,16 @@
         <v>125</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -7602,7 +7626,7 @@
       <c r="U96" s="39"/>
       <c r="V96" s="40"/>
       <c r="W96" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7610,16 +7634,16 @@
         <v>126</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7639,7 +7663,7 @@
       <c r="U97" s="39"/>
       <c r="V97" s="40"/>
       <c r="W97" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7647,16 +7671,16 @@
         <v>127</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7676,7 +7700,7 @@
       <c r="U98" s="39"/>
       <c r="V98" s="40"/>
       <c r="W98" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7684,16 +7708,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7713,7 +7737,7 @@
       <c r="U99" s="39"/>
       <c r="V99" s="40"/>
       <c r="W99" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7721,16 +7745,16 @@
         <v>129</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -7750,7 +7774,7 @@
       <c r="U100" s="39"/>
       <c r="V100" s="40"/>
       <c r="W100" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7758,16 +7782,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7787,7 +7811,7 @@
       <c r="U101" s="39"/>
       <c r="V101" s="40"/>
       <c r="W101" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7795,16 +7819,16 @@
         <v>131</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7824,7 +7848,7 @@
       <c r="U102" s="39"/>
       <c r="V102" s="40"/>
       <c r="W102" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7832,16 +7856,16 @@
         <v>132</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7861,7 +7885,7 @@
       <c r="U103" s="39"/>
       <c r="V103" s="40"/>
       <c r="W103" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7869,16 +7893,16 @@
         <v>133</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -7898,7 +7922,7 @@
       <c r="U104" s="39"/>
       <c r="V104" s="40"/>
       <c r="W104" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7906,16 +7930,16 @@
         <v>134</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -7935,7 +7959,7 @@
       <c r="U105" s="39"/>
       <c r="V105" s="40"/>
       <c r="W105" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7943,16 +7967,16 @@
         <v>135</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7972,7 +7996,7 @@
       <c r="U106" s="39"/>
       <c r="V106" s="40"/>
       <c r="W106" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7980,16 +8004,16 @@
         <v>136</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -8009,7 +8033,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="40"/>
       <c r="W107" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8017,16 +8041,16 @@
         <v>137</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -8046,7 +8070,7 @@
       <c r="U108" s="39"/>
       <c r="V108" s="40"/>
       <c r="W108" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8054,16 +8078,16 @@
         <v>138</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -8083,7 +8107,7 @@
       <c r="U109" s="39"/>
       <c r="V109" s="40"/>
       <c r="W109" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8091,16 +8115,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -8120,7 +8144,7 @@
       <c r="U110" s="39"/>
       <c r="V110" s="40"/>
       <c r="W110" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8128,16 +8152,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -8157,7 +8181,7 @@
       <c r="U111" s="39"/>
       <c r="V111" s="40"/>
       <c r="W111" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8165,16 +8189,16 @@
         <v>141</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -8194,7 +8218,7 @@
       <c r="U112" s="39"/>
       <c r="V112" s="40"/>
       <c r="W112" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8202,16 +8226,16 @@
         <v>142</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8231,7 +8255,7 @@
       <c r="U113" s="39"/>
       <c r="V113" s="40"/>
       <c r="W113" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8239,16 +8263,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8268,7 +8292,7 @@
       <c r="U114" s="39"/>
       <c r="V114" s="40"/>
       <c r="W114" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8276,16 +8300,16 @@
         <v>144</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8305,7 +8329,7 @@
       <c r="U115" s="39"/>
       <c r="V115" s="40"/>
       <c r="W115" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8313,16 +8337,16 @@
         <v>145</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -8342,7 +8366,7 @@
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
       <c r="W116" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8350,16 +8374,16 @@
         <v>146</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8379,34 +8403,34 @@
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
       <c r="W117" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A118" s="35">
         <v>152</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="42"/>
       <c r="J118" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K118" s="38" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="L118" s="38"/>
       <c r="M118" s="38"/>
@@ -8420,34 +8444,34 @@
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
       <c r="W118" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A119" s="35">
         <v>154</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="42"/>
       <c r="J119" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K119" s="38" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L119" s="38"/>
       <c r="M119" s="38"/>
@@ -8461,34 +8485,34 @@
       <c r="U119" s="39"/>
       <c r="V119" s="40"/>
       <c r="W119" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A120" s="35">
         <v>155</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="42"/>
       <c r="J120" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K120" s="38" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="L120" s="38"/>
       <c r="M120" s="38"/>
@@ -8502,34 +8526,34 @@
       <c r="U120" s="39"/>
       <c r="V120" s="40"/>
       <c r="W120" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A121" s="35">
         <v>156</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="42"/>
       <c r="J121" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K121" s="38" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L121" s="38"/>
       <c r="M121" s="38"/>
@@ -8543,34 +8567,34 @@
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
       <c r="W121" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A122" s="35">
         <v>158</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="42"/>
       <c r="J122" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K122" s="38" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="L122" s="38"/>
       <c r="M122" s="38"/>
@@ -8584,34 +8608,34 @@
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
       <c r="W122" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A123" s="35">
         <v>159</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
       <c r="J123" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K123" s="38" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L123" s="38"/>
       <c r="M123" s="38"/>
@@ -8625,34 +8649,34 @@
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
       <c r="W123" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A124" s="35">
         <v>160</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="42"/>
       <c r="J124" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K124" s="38" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L124" s="38"/>
       <c r="M124" s="38"/>
@@ -8666,34 +8690,34 @@
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
       <c r="W124" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A125" s="35">
         <v>161</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>331</v>
+        <v>462</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
       <c r="J125" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K125" s="38" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L125" s="38"/>
       <c r="M125" s="38"/>
@@ -8707,34 +8731,34 @@
       <c r="U125" s="39"/>
       <c r="V125" s="40"/>
       <c r="W125" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A126" s="35">
         <v>162</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
       <c r="J126" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K126" s="38" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="L126" s="38"/>
       <c r="M126" s="38"/>
@@ -8748,34 +8772,34 @@
       <c r="U126" s="39"/>
       <c r="V126" s="40"/>
       <c r="W126" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A127" s="35">
         <v>163</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>333</v>
+        <v>464</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
       <c r="J127" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K127" s="38" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L127" s="38"/>
       <c r="M127" s="38"/>
@@ -8789,34 +8813,34 @@
       <c r="U127" s="39"/>
       <c r="V127" s="40"/>
       <c r="W127" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A128" s="35">
         <v>164</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
       <c r="J128" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K128" s="38" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L128" s="38"/>
       <c r="M128" s="38"/>
@@ -8830,34 +8854,34 @@
       <c r="U128" s="39"/>
       <c r="V128" s="40"/>
       <c r="W128" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A129" s="35">
         <v>165</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
       <c r="J129" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K129" s="38" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L129" s="38"/>
       <c r="M129" s="38"/>
@@ -8871,34 +8895,34 @@
       <c r="U129" s="39"/>
       <c r="V129" s="40"/>
       <c r="W129" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A130" s="35">
         <v>166</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="42"/>
       <c r="J130" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K130" s="38" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="L130" s="38"/>
       <c r="M130" s="38"/>
@@ -8912,34 +8936,34 @@
       <c r="U130" s="39"/>
       <c r="V130" s="40"/>
       <c r="W130" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A131" s="35">
         <v>167</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
       <c r="J131" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K131" s="38" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L131" s="38"/>
       <c r="M131" s="38"/>
@@ -8953,34 +8977,34 @@
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
       <c r="W131" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A132" s="35">
         <v>168</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
       <c r="J132" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K132" s="38" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L132" s="38"/>
       <c r="M132" s="38"/>
@@ -8994,37 +9018,37 @@
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
       <c r="W132" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
       <c r="A133" s="35">
         <v>169</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
       <c r="J133" s="38" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="K133" s="38" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -9037,7 +9061,7 @@
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
       <c r="W133" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9045,16 +9069,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -9074,7 +9098,7 @@
       <c r="U134" s="39"/>
       <c r="V134" s="40"/>
       <c r="W134" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9082,16 +9106,16 @@
         <v>177</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -9111,7 +9135,7 @@
       <c r="U135" s="39"/>
       <c r="V135" s="40"/>
       <c r="W135" s="38" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9119,16 +9143,16 @@
 